--- a/docs/2程序设计/程序接口设计.xlsx
+++ b/docs/2程序设计/程序接口设计.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="负面新闻跟踪接口" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="地图" sheetId="6" r:id="rId2"/>
+    <sheet name="负面新闻跟踪接口" sheetId="4" r:id="rId3"/>
+    <sheet name="预警TOP5" sheetId="2" r:id="rId4"/>
+    <sheet name="上市公司分布一览" sheetId="3" r:id="rId5"/>
+    <sheet name="热点新闻" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="165">
   <si>
     <t>说明</t>
   </si>
@@ -22,6 +27,9 @@
     <t>是否必填</t>
   </si>
   <si>
+    <t>userId</t>
+  </si>
+  <si>
     <t>入参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,75 +50,395 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数据出参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记出参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预警总榜TOP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>#urlcreditWarning/warningTop5/{userId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询TOP5公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditWarningController</t>
+  </si>
+  <si>
+    <t>CreditWarningController.getWarningTop5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询出TOP5公司的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询TOP5公司详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询该用户是否关注TOP5公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户关注ID列表和TOP5ID对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>creditWarningServices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.getWarningTop5Content</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userFocusServices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.searchAllCompy</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>creditWarningServices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.getWarningTop5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditWarningController.getWarningTop5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditWarningController.getCreditWarningInfoDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将查询到的TOP详细数据和关注列表排序和命中数</t>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;CreditWarningInfoData&gt;</t>
+  </si>
+  <si>
+    <t>CreditWarningOutData</t>
+  </si>
+  <si>
+    <t>companyId</t>
+  </si>
+  <si>
+    <t>companyNm</t>
+  </si>
+  <si>
+    <t>noticeDt</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>securityCd</t>
+  </si>
+  <si>
+    <t>industryNm</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>warnCount</t>
+  </si>
+  <si>
+    <t>lowWarnCount</t>
+  </si>
+  <si>
+    <t>midWarnCount</t>
+  </si>
+  <si>
+    <t>thisWarnCount</t>
+  </si>
+  <si>
+    <t>highWarnCount</t>
+  </si>
+  <si>
+    <t>focusCompanyId</t>
+  </si>
+  <si>
+    <t>focusCompanyNm</t>
+  </si>
+  <si>
+    <t>isFocused</t>
+  </si>
+  <si>
+    <t>typeMap</t>
+  </si>
+  <si>
+    <t>公司ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预警条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据进行编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：成功，2：失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记出参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newsCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关公司id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数据出参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标记出参</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：成功，2：失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负面新闻跟踪接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询新闻数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#urlcreditWarning/lastingBondViolation/{page}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
+    <t>当前页数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditWarningServicesImpl.getLastingBondViolationNews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditWarningController.getViolation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,79 +447,252 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查询新闻数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>control</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对应业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负面新闻跟踪接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditWarning/lastingBondViolation/{page}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditWarning/warningTop5/{userId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bond/findIndustry/{startDate}/{endDate}</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>service</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CreditWarningServicesImpl.getLastingBondViolationNews</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreditWarningController.getViolation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newsCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>importance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关公司id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前页数</t>
+    <t>BondServices.findIndustry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BondController.findAuthorizeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级下调企业-行业分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BondServices.findIndustryProp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下调指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业分布数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业分布占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据时间查询行业公司分布数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据时间查询行业公司分布占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点新闻趋势图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/newsWarning/chartGroup/NewsWarningInData.Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BondController.findAuthorizeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间分类(1:日/2:月/3:季)</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newscount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeNewsCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post_Dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天的新闻量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天的负面新闻量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负面新闻总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewsWarningServices.findchartGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewsWarningController.getChartGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询新闻资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询新闻量，负面新闻量，日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +730,23 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -327,21 +845,21 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -354,6 +872,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -385,13 +906,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,6 +937,14 @@
       <color rgb="FFFFFF66"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -453,7 +991,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,9 +1023,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,6 +1058,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -694,14 +1234,480 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="24.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I7" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A33:C33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="http://localhost/gtjaWeb/queryProposalFromValue.json"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
@@ -715,321 +1721,321 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="13.5">
-      <c r="A4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="I7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="I7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="I8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="1:12">
+        <v>98</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
+      <c r="G10" s="3"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:12">
+        <v>93</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:12">
+        <v>91</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="12" customHeight="1">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="8" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A23" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12" customHeight="1">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
       <c r="B24" s="6" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="5" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="12" customHeight="1">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
       <c r="B25" s="6" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="8"/>
@@ -1050,4 +2056,1828 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
+    <col min="10" max="10" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.875" customWidth="1"/>
+    <col min="12" max="12" width="43.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="56.875" customWidth="1"/>
+    <col min="11" max="11" width="37" customWidth="1"/>
+    <col min="12" max="12" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="37" customWidth="1"/>
+    <col min="11" max="11" width="35" customWidth="1"/>
+    <col min="12" max="12" width="31.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/2程序设计/程序接口设计.xlsx
+++ b/docs/2程序设计/程序接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,19 @@
     <sheet name="负面新闻跟踪接口" sheetId="4" r:id="rId3"/>
     <sheet name="预警TOP5" sheetId="2" r:id="rId4"/>
     <sheet name="上市公司分布一览" sheetId="3" r:id="rId5"/>
-    <sheet name="热点新闻" sheetId="5" r:id="rId6"/>
+    <sheet name="热点新闻趋势图" sheetId="5" r:id="rId6"/>
+    <sheet name="辖内风险TOP5" sheetId="7" r:id="rId7"/>
+    <sheet name="新闻舆情风险TOP5" sheetId="8" r:id="rId8"/>
+    <sheet name="事件风险公告TOP5" sheetId="9" r:id="rId9"/>
+    <sheet name="公司基本信息" sheetId="10" r:id="rId10"/>
+    <sheet name="风险预警信息" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="258">
   <si>
     <t>说明</t>
   </si>
@@ -123,9 +128,6 @@
   <si>
     <t>service</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreditWarningController</t>
   </si>
   <si>
     <t>CreditWarningController.getWarningTop5</t>
@@ -442,171 +444,422 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查询新闻数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负面新闻跟踪接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditWarning/lastingBondViolation/{page}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditWarning/warningTop5/{userId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bond/findIndustry/{startDate}/{endDate}</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BondServices.findIndustry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BondController.findAuthorizeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级下调企业-行业分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BondServices.findIndustryProp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下调指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业分布数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业分布占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据时间查询行业公司分布数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据时间查询行业公司分布占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点新闻趋势图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/newsWarning/chartGroup/NewsWarningInData.Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BondController.findAuthorizeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间分类(1:日/2:月/3:季)</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newscount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeNewsCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post_Dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天的新闻量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天的负面新闻量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负面新闻总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewsWarningServices.findchartGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewsWarningController.getChartGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询新闻资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询新闻量，负面新闻量，日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辖内风险TOP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditWarning/riskTop5/{userId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户关注列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查出用户关注公司ID列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比选出TOP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻舆情风险TOP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件风险公告TOP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/newsWarning/news/NewsWarningInData.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compyId</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>relevance</t>
+  </si>
+  <si>
+    <t>warningType</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间分类(1:日/2:月/3:季)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻评价(1:正/2:负/3:中性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewsWarningServices.findNewsFromSolr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewsWarningController.getNewsCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>查询新闻服务器的应用服务接口
 String uri = Contants.NEWS_SERVER_URL + "q=cnn_score:[-2%20TO%20-…..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询新闻数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入参</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负面新闻跟踪接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/creditWarning/lastingBondViolation/{page}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/creditWarning/warningTop5/{userId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bond/findIndustry/{startDate}/{endDate}</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-  <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BondServices.findIndustry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BondController.findAuthorizeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评级下调企业-行业分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BondServices.findIndustryProp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>round</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下调指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业分布数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业分布占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据时间查询行业公司分布数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据时间查询行业公司分布占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热点新闻趋势图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/newsWarning/chartGroup/NewsWarningInData.Json</t>
+    <t>查询新闻详情信息[调用的外部接口]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻总条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newsTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publishTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newsSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newsCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章路径ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -614,77 +867,192 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BondController.findAuthorizeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间分类(1:日/2:月/3:季)</t>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newscount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negativeNewsCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post_Dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天的新闻量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天的负面新闻量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻总量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负面新闻总量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewsWarningServices.findchartGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewsWarningController.getChartGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询新闻资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询新闻量，负面新闻量，日期</t>
+    <t>/creditWarning/announceAlarm/CreditWarningIn.Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnounceAlarmOutData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;AnnounceAlarmInfoData&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infoList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>securityCd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditWarningServices.getAnnounceAlarmCount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditWarningController.getAnnounceAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询舆情公告条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询舆情公告详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditWarningServices.getAnnounceAlarm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srcType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infoCd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险预警信息</t>
+  </si>
+  <si>
+    <t>采用和热点新闻趋势一样的图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyInfoController.getCompanyBasicInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/companyInfo/company/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业标识ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyOutData</t>
+  </si>
+  <si>
+    <t>CompanyInfoServices.getCompanyBasicInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询公司详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据公司标识ID查询详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询出该公司实际控制人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询实际控制人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询公司证券信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询证券代码证券全称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyInfoServices.getAffilparty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyInfoServices.findSecurity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询是否是城投公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CacheServices.getPlatformCompanyIds.contains</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +1117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,6 +1139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +1219,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,18 +1265,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -922,6 +1284,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L38"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1274,7 +1660,7 @@
       <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1282,42 +1668,40 @@
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I7" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1362,26 +1746,26 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1394,7 +1778,7 @@
       <c r="G13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -1402,21 +1786,21 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="21"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="3"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
@@ -1426,7 +1810,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="3"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
@@ -1436,7 +1820,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
@@ -1446,11 +1830,11 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="3"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1459,7 +1843,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1467,130 +1851,130 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1605,43 +1989,43 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="6"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="6"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="3"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
@@ -1649,17 +2033,17 @@
       <c r="L37"/>
     </row>
     <row r="38" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="8"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
+      <c r="G38" s="3"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -1681,6 +2065,1015 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="24.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="43.125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="I12" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="http://localhost/gtjaWeb/queryProposalFromValue.json"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="37" customWidth="1"/>
+    <col min="11" max="11" width="35" customWidth="1"/>
+    <col min="12" max="12" width="31.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1704,7 +3097,7 @@
   <dimension ref="A2:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1723,10 +3116,10 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
@@ -1736,90 +3129,90 @@
     </row>
     <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="A7" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="I7" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="24" t="s">
+      <c r="J7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="J8" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>100</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="3"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
@@ -1830,36 +3223,36 @@
       <c r="F10" s="5"/>
       <c r="G10" s="3"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="A11" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="A12" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>0</v>
@@ -1870,7 +3263,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1882,22 +3275,22 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
@@ -1905,18 +3298,18 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1925,11 +3318,11 @@
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1938,11 +3331,11 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1951,11 +3344,11 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1964,21 +3357,21 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1990,27 +3383,27 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>0</v>
@@ -2022,20 +3415,20 @@
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="8"/>
@@ -2060,10 +3453,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2129,8 +3522,8 @@
       <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>114</v>
+      <c r="B4" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2147,7 +3540,7 @@
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1"/>
@@ -2184,21 +3577,21 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="1"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
@@ -2214,9 +3607,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2234,13 +3627,13 @@
         <v>24</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2250,27 +3643,27 @@
         <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2283,46 +3676,46 @@
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2336,41 +3729,41 @@
         <v>1</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="3"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="3"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2379,18 +3772,18 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2399,18 +3792,18 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2419,7 +3812,7 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
@@ -2428,7 +3821,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="3"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2437,13 +3830,15 @@
       <c r="A19" s="5"/>
       <c r="B19" s="8"/>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2455,7 +3850,7 @@
       <c r="A20" s="5"/>
       <c r="B20" s="8"/>
       <c r="C20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>11</v>
@@ -2473,7 +3868,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>11</v>
@@ -2491,7 +3886,7 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>11</v>
@@ -2509,14 +3904,14 @@
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
@@ -2529,10 +3924,10 @@
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="8"/>
@@ -2547,10 +3942,10 @@
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="8"/>
@@ -2565,10 +3960,10 @@
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="8"/>
@@ -2583,10 +3978,10 @@
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="8"/>
@@ -2601,7 +3996,7 @@
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>11</v>
@@ -2619,7 +4014,7 @@
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>11</v>
@@ -2637,14 +4032,14 @@
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
@@ -2657,14 +4052,14 @@
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
@@ -2688,11 +4083,11 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="2"/>
@@ -2704,11 +4099,11 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
@@ -2730,7 +4125,7 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="5" t="s">
@@ -2748,55 +4143,33 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="6" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="5" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
-      <c r="B37" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2806,10 +4179,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2839,7 +4212,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2872,8 +4245,8 @@
       <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>115</v>
+      <c r="B4" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2890,7 +4263,7 @@
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1"/>
@@ -2927,21 +4300,21 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="1"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
@@ -2950,16 +4323,16 @@
         <v>23</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2974,63 +4347,63 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="3"/>
@@ -3039,15 +4412,15 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3055,11 +4428,11 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -3073,23 +4446,25 @@
         <v>1</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>73</v>
+      <c r="A14" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="3"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3097,17 +4472,17 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3116,16 +4491,16 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3134,16 +4509,16 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3151,17 +4526,17 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="3"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3170,16 +4545,16 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3188,16 +4563,16 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3211,17 +4586,17 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
@@ -3233,11 +4608,11 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
@@ -3259,7 +4634,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5" t="s">
@@ -3277,55 +4652,33 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="6" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
-      <c r="B26" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3334,10 +4687,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3369,7 +4722,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3402,8 +4755,8 @@
       <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>144</v>
+      <c r="B4" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3420,8 +4773,8 @@
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>145</v>
+      <c r="B5" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3457,21 +4810,21 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="1"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
@@ -3480,16 +4833,16 @@
         <v>4</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>151</v>
+        <v>120</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3504,30 +4857,30 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K9" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="L9" s="21" t="s">
-        <v>161</v>
+      <c r="K9" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
@@ -3543,11 +4896,11 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
@@ -3557,15 +4910,15 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3573,11 +4926,11 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -3591,23 +4944,25 @@
         <v>1</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>70</v>
+      <c r="A14" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3615,17 +4970,17 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3634,16 +4989,16 @@
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3652,16 +5007,16 @@
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3670,16 +5025,16 @@
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3691,7 +5046,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -3706,12 +5061,12 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="1"/>
@@ -3724,12 +5079,12 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="1"/>
@@ -3767,11 +5122,11 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
@@ -3783,11 +5138,11 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3809,7 +5164,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="5" t="s">
@@ -3827,15 +5182,569 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="6" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="5" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A24:C24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
+    <col min="10" max="10" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.875" customWidth="1"/>
+    <col min="12" max="12" width="43.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3843,30 +5752,165 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="D28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="8" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3874,8 +5918,1032 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="http://localhost/gtjaWeb/queryProposalFromValue.json"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="14.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="40" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/2程序设计/程序接口设计.xlsx
+++ b/docs/2程序设计/程序接口设计.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="demon" sheetId="1" r:id="rId1"/>
     <sheet name="地图" sheetId="6" r:id="rId2"/>
     <sheet name="负面新闻跟踪接口" sheetId="4" r:id="rId3"/>
     <sheet name="预警TOP5" sheetId="2" r:id="rId4"/>
@@ -18,13 +18,20 @@
     <sheet name="事件风险公告TOP5" sheetId="9" r:id="rId9"/>
     <sheet name="公司基本信息" sheetId="10" r:id="rId10"/>
     <sheet name="风险预警信息" sheetId="11" r:id="rId11"/>
+    <sheet name="新闻热搜词" sheetId="12" r:id="rId12"/>
+    <sheet name="关联图谱" sheetId="13" r:id="rId13"/>
+    <sheet name="详情展开" sheetId="14" r:id="rId14"/>
+    <sheet name="司法风险Top5接口" sheetId="16" r:id="rId15"/>
+    <sheet name="财务信息" sheetId="17" r:id="rId16"/>
+    <sheet name="股东及投资信息" sheetId="18" r:id="rId17"/>
+    <sheet name="财务风险Top5" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="459">
   <si>
     <t>说明</t>
   </si>
@@ -1055,12 +1062,728 @@
     <t>CacheServices.getPlatformCompanyIds.contains</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>companyNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foundDt</t>
+  </si>
+  <si>
+    <t>foundDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regCapital</t>
+  </si>
+  <si>
+    <t>regCapital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgFormNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legRepresent</t>
+  </si>
+  <si>
+    <t>legRepresent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employNum</t>
+  </si>
+  <si>
+    <t>employNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officeAddr</t>
+  </si>
+  <si>
+    <t>officeAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyPh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businScope</t>
+  </si>
+  <si>
+    <t>businScope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainBusin</t>
+  </si>
+  <si>
+    <t>mainBusin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharehdName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际控制人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPlatform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否城投公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyInfoServices.findIndustryFlg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyInfoServices.findSwIndustry(id, "1008")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyInfoServices.findSwIndustry(id, "1011")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取主板企业：按照申万行业分类的二级行业;新三板企业：按证监会行业分类三级行业分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取申万一级行业和二级行业或者证监会行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法定代表人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regAddr</t>
+  </si>
+  <si>
+    <t>regAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情展开   形似新闻舆情风险TOP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wordCloud/FindNewKeyWords/FindKeyWordsByCompanyId/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻热搜词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringRedisTemplate.opsForValue().get("newscloud_" + id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloudController.sendCloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>1：成功，2：失败</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>标记出参</t>
+  </si>
+  <si>
+    <t>holder</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>represent</t>
+  </si>
+  <si>
+    <t>JSONObject</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>manageType</t>
+  </si>
+  <si>
+    <t>operateStatus</t>
+  </si>
+  <si>
+    <t>regPhase</t>
+  </si>
+  <si>
+    <t>updtDt</t>
+  </si>
+  <si>
+    <t>investScope</t>
+  </si>
+  <si>
+    <t>trusteeCd</t>
+  </si>
+  <si>
+    <t>managerCd</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>regDt</t>
+  </si>
+  <si>
+    <t>securityNum</t>
+  </si>
+  <si>
+    <t>securityNm</t>
+  </si>
+  <si>
+    <t>JSONArray</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>creditCode</t>
+  </si>
+  <si>
+    <t>other_fund_scale</t>
+  </si>
+  <si>
+    <t>invest_fund_scale</t>
+  </si>
+  <si>
+    <t>pshare_fund_scale</t>
+  </si>
+  <si>
+    <t>psec_fund_scale2</t>
+  </si>
+  <si>
+    <t>psec_fund_scale1</t>
+  </si>
+  <si>
+    <t>productNum</t>
+  </si>
+  <si>
+    <t>companWeb</t>
+  </si>
+  <si>
+    <t>orgForm</t>
+  </si>
+  <si>
+    <t>shareCapital</t>
+  </si>
+  <si>
+    <t>regCapitalRatio</t>
+  </si>
+  <si>
+    <t>REG_CAPITAL</t>
+  </si>
+  <si>
+    <t>orgNum</t>
+  </si>
+  <si>
+    <t>fenNm</t>
+  </si>
+  <si>
+    <t>fundType</t>
+  </si>
+  <si>
+    <t>regCd</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>wenshutheme</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>disruptinfo</t>
+  </si>
+  <si>
+    <t>undertaker</t>
+  </si>
+  <si>
+    <t>dataException</t>
+  </si>
+  <si>
+    <t>supervisionPunishment</t>
+  </si>
+  <si>
+    <t>integrityInformation</t>
+  </si>
+  <si>
+    <t>exceptionList</t>
+  </si>
+  <si>
+    <t>punished</t>
+  </si>
+  <si>
+    <t>chattelMortgage</t>
+  </si>
+  <si>
+    <t>equityPledged</t>
+  </si>
+  <si>
+    <t>administrativePenalties</t>
+  </si>
+  <si>
+    <t>shareholdersFreeze</t>
+  </si>
+  <si>
+    <t>businessChange</t>
+  </si>
+  <si>
+    <t>失信被执行人信息</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>json key</t>
+  </si>
+  <si>
+    <t>数据出参</t>
+  </si>
+  <si>
+    <t>PFOracle2RedisServicesImpl.getAllBasicInfo</t>
+  </si>
+  <si>
+    <t>PfundController.getPfundByCompanyId --&gt; JobDetail.PFOracle2Redis</t>
+  </si>
+  <si>
+    <t>定时跑Job，访问数据库，获取数据缓存至redis
+String sql = "SELECT info.*, ptype.PSEC_FUND_SCALE1, ptype.PSEC_FUND_SCALE2, ptype.PSHARE_FUND_SCALE, ptype.INVEST_FUND_SCALE, ptype.OTHER_FUND_SCALE, ptype.INTEGRITY_INFO " +
+                " FROM PFCOMPY_BASICINFO info LEFT OUTER JOIN PFCOMPY_TYPE ptype ON info.COMPANY_ID = ptype.COMPANY_ID\n" +
+                " WHERE info.IS_REVOKE = 0 ORDER by info.company_id";</t>
+  </si>
+  <si>
+    <t>司法风险Top5</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>对应业务</t>
+  </si>
+  <si>
+    <t>入参</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>接口类型</t>
+  </si>
+  <si>
+    <t>#urlpfund/info/{compyId}</t>
+  </si>
+  <si>
+    <t>接口路径</t>
+  </si>
+  <si>
+    <t>类名</t>
+  </si>
+  <si>
+    <t>司法风险Top5接口</t>
+  </si>
+  <si>
+    <t>接口名</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>infoCd</t>
+  </si>
+  <si>
+    <t>noticeTitle</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>srcType</t>
+  </si>
+  <si>
+    <t>List&lt;Object&gt;</t>
+  </si>
+  <si>
+    <t>AnnounceAlarmList</t>
+  </si>
+  <si>
+    <t>creditUnused</t>
+  </si>
+  <si>
+    <t>creditUsed</t>
+  </si>
+  <si>
+    <t>creditAmt</t>
+  </si>
+  <si>
+    <t>endDt</t>
+  </si>
+  <si>
+    <t>compyCredit</t>
+  </si>
+  <si>
+    <t>guarAmt</t>
+  </si>
+  <si>
+    <t>buarRelationNm</t>
+  </si>
+  <si>
+    <t>buarCompanyId</t>
+  </si>
+  <si>
+    <t>buarCompanyNm</t>
+  </si>
+  <si>
+    <t>guarRelationNm</t>
+  </si>
+  <si>
+    <t>guarCompanyNm</t>
+  </si>
+  <si>
+    <t>guarCompanyId</t>
+  </si>
+  <si>
+    <t>guarEndDt</t>
+  </si>
+  <si>
+    <t>compyGuaranteeOutData</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>qualFactor</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>dbTotal</t>
+  </si>
+  <si>
+    <t>companyCd</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>CompanyInfoServicesImpl.getRptDtChk</t>
+  </si>
+  <si>
+    <t>CompanyInfoController.getFinanceDataNewest</t>
+  </si>
+  <si>
+    <t>分别查询数据库多张表，获取财务信息
+String sql =
+                "select t.RPT_DT, t.RPT_TIMETYPE_CD\n" +
+                        "  from (SELECT RPT_DT,\n" +
+                        "               RPT_TIMETYPE_CD,\n" +
+                        "               row_number() over(partition by decode(RPT_TIMETYPE_CD, 1, 1, 2) order by rpt_dt desc) mm\n"
+                        +
+                        "          FROM COMPY_BALANCESHEET\n" +
+                        "         WHERE COMPANY_ID = " + id + "\n" +
+                        "           AND ISDEL = 0\n" +
+                        "           AND COMBINE_TYPE_CD = 1\n" +
+                        "           AND DATA_AJUST_TYPE in ('2','3')) t\n" +
+                        " where t.mm = 1\n" +
+                        " order by t.RPT_TIMETYPE_CD";</t>
+  </si>
+  <si>
+    <t>财务信息</t>
+  </si>
+  <si>
+    <t>#urlcompanyInfo/finance/{compyId}</t>
+  </si>
+  <si>
+    <t>财务信息接口</t>
+  </si>
+  <si>
+    <t>股东ID</t>
+  </si>
+  <si>
+    <t>sharehdId</t>
+  </si>
+  <si>
+    <t>未解质总额</t>
+  </si>
+  <si>
+    <t>frozenTotalRatio</t>
+  </si>
+  <si>
+    <t>持股比例</t>
+  </si>
+  <si>
+    <t>sharehdRatio</t>
+  </si>
+  <si>
+    <t>股东类型</t>
+  </si>
+  <si>
+    <t>sharehdType</t>
+  </si>
+  <si>
+    <t>股东名字</t>
+  </si>
+  <si>
+    <t>sharehdname</t>
+  </si>
+  <si>
+    <t>companyShareholderList</t>
+  </si>
+  <si>
+    <t>分别查询数据库，获取企业股东前10信息及股权质押（不包含10大股东）股东信息
+String sql = "SELECT SHAREHDNAME,CONSTANT_NM,SHAREHD_RATIO,FROZEN_TOTAL_RATIO,SHAREHD_TYPEID,SHAREHD_ID\n" +
+                "FROM (SELECT MAX(TO_CHAR(END_DT)) OVER (PARTITION BY A.COMPANY_ID) AS LATEST_END_DT,\n" +
+                "            TO_CHAR(A.END_DT)END_DT,A.RANK,A.SHAREHD_TYPEID,A.SHAREHD_RATIO,A.SHAREHDNAME,B.FROZEN_TOTAL_RATIO,A.SHAREHD_ID\n" +
+                "        FROM COMPY_SHAREHOLDER A\n" +
+                "        LEFT JOIN (SELECT SHAREHD_ID,FROZEN_TOTAL_RATIO FROM (\n" +
+                "                  SELECT ROW_NUMBER() OVER (PARTITION BY COMPANY_ID,SHAREHD_ID ORDER BY NOTICE_DT DESC)ROW_NUM,SHAREHD_ID,FROZEN_TOTAL_RATIO\n" +
+                "                  FROM COMPY_FROZENSHARE WHERE COMPANY_ID = " + id + ")\n" +
+                "                  WHERE ROW_NUM = 1 AND SHAREHD_ID IS NOT NULL)B\n" +
+                "                  ON A.SHAREHD_ID = B.SHAREHD_ID\n" +
+                "        WHERE  A.COMPANY_ID = " + id + " AND A.RANK IS NOT NULL)B\n" +
+                "LEFT JOIN LKP_CHARCODE C ON  B.SHAREHD_TYPEID = C.CONSTANT_ID AND C.CONSTANT_TYPE = 13\n" +
+                "WHERE LATEST_END_DT = END_DT AND RANK &lt; 11 ORDER BY SHAREHD_RATIO DESC";</t>
+  </si>
+  <si>
+    <t>股东及投资信息</t>
+  </si>
+  <si>
+    <t>#urlcompanyInfo/shareholder/{compyId}</t>
+  </si>
+  <si>
+    <t>股东及投资信息接口</t>
+  </si>
+  <si>
+    <t>财务预警公司数量</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>预警指标数</t>
+  </si>
+  <si>
+    <t>预警时间</t>
+  </si>
+  <si>
+    <t>NOTICE_DT</t>
+  </si>
+  <si>
+    <t>预警内容</t>
+  </si>
+  <si>
+    <t>WARNING_TITLE</t>
+  </si>
+  <si>
+    <t>预警指标信息</t>
+  </si>
+  <si>
+    <t>相关公司</t>
+  </si>
+  <si>
+    <t>相关公司id</t>
+  </si>
+  <si>
+    <t>财务预警公司信息</t>
+  </si>
+  <si>
+    <t>warningCompany</t>
+  </si>
+  <si>
+    <t>关键字(此处传null)</t>
+  </si>
+  <si>
+    <t>标识（1 = 主板企业财务预警）</t>
+  </si>
+  <si>
+    <t>listedSector</t>
+  </si>
+  <si>
+    <t>当前页数</t>
+  </si>
+  <si>
+    <t>CreditWarningServicesImpl.getWarning</t>
+  </si>
+  <si>
+    <t>CreditWarningController.getWarning</t>
+  </si>
+  <si>
+    <t>查询数据库
+if (!StringUtils.isEmpty(keyword)) {
+            sqlWhere = " AND A.COMPANY_NM LIKE ?1";
+        }
+if("2".equals(listedSector)){
+        innerJoin += "INNER JOIN(SELECT COMPANY_ID FROM SECURITY WHERE SECURITY_TYPE_ID = 5496 AND LIST_ST != 2 AND ISDEL = 0)B\n";
+        innerJoin += "ON A.COMPANY_ID = B.COMPANY_ID\n";
+}else{
+        innerJoin += "INNER JOIN(SELECT COMPANY_ID FROM VW_COMPY_INDUSTRY WHERE SYSTEM_CD = 1011)B\n";
+        innerJoin += "ON A.COMPANY_ID = B.COMPANY_ID\n";
+     }
+String sql = "SELECT A.NOTICE_DT,A.COMPANY_ID,A.COMPANY_NM,B.COUNT1,C.COUNT2,D.WARNING_TITLE,\n" +
+                "    F.SECURITY_CD, B.NOTICE_DT DT1, C.NOTICE_DT DT2, D.NOTICE_DT DT3,\n" +
+                "    D.NOTICE_DT - C.NOTICE_DT\n" +
+                "FROM(SELECT * FROM(SELECT ROWNUM RN, BB.*\n" +
+                "   FROM(SELECT NOTICE_DT,A.COMPANY_ID,COMPANY_NM FROM VW_COMPY_WARNINGS A \n" + innerJoin+
+                "   WHERE TYPE_ID IN(10,12,101,102,103,104,105)\n" + sqlWhere +
+                "   GROUP BY NOTICE_DT,A.COMPANY_ID,COMPANY_NM\n" +
+                "   ORDER BY NOTICE_DT DESC)BB) CC\n" +
+                "   WHERE CC.RN &lt;= " + endRow +" AND CC.RN &gt; " + startRow + ") A\n" +
+                "LEFT JOIN(SELECT a.company_id,a.notice_dt,COUNT(a.company_id) count1\n" +
+                "   FROM VW_COMPY_WARNINGS a " +
+                "   INNER JOIN(SELECT company_id, MAX(notice_dt) notice_dt FROM VW_COMPY_WARNINGS WHERE TYPE_ID = 12 GROUP BY company_id) b\n" +
+                "   ON a.company_id=b.company_id AND a.notice_dt=b.notice_dt WHERE a.TYPE_ID = 12 GROUP BY a.company_id,a.notice_dt) B\n" +
+                "ON A.COMPANY_ID = B.COMPANY_ID\n" +
+                "LEFT JOIN(SELECT a.company_id, a.notice_dt,COUNT(a.company_id) count2\n" +
+                "   FROM VW_COMPY_WARNINGS a\n" +
+                "   INNER JOIN(SELECT company_id, MAX(notice_dt) notice_dt FROM VW_COMPY_WARNINGS WHERE TYPE_ID = 10 GROUP BY company_id) b\n" +
+                "   ON a.company_id=b.company_id  AND a.notice_dt=b.notice_dt WHERE a.TYPE_ID = 10  GROUP BY a.company_id, a.notice_dt) C\n" +
+                "ON A.COMPANY_ID = C.COMPANY_ID\n" +
+                "LEFT JOIN(SELECT WARNING_TITLE, COMPANY_ID, TYPE_ID, NOTICE_DT FROM VW_COMPY_WARNINGS WHERE TYPE_ID IN(101,102,103,104,105)) D\n" +
+                "ON A.COMPANY_ID = D.COMPANY_ID\n" +
+                "LEFT JOIN(SELECT WM_CONCAT(SECURITY_CD) SECURITY_CD, A.COMPANY_ID FROM COMPY_SECURITY_XW A " +
+                "   INNER JOIN SECURITY B\n" +
+                "   ON A.SECINNER_ID = B.SECINNER_ID " +
+                "   WHERE SECURITY_TYPE_ID IN('5496','5520','5523','5559')\n" +
+                "   AND TRD_MARKET_ID IN('5670','5659','5671', '5679','5702')\n" +
+                "   GROUP BY A.COMPANY_ID)F\n" +
+                "ON A.COMPANY_ID = F.COMPANY_ID\n" +
+                "ORDER BY A.NOTICE_DT DESC,A.COMPANY_ID,DT3 DESC";</t>
+  </si>
+  <si>
+    <t>财务风险Top5</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>#urlcreditWarning/warning/{CreditWarningIn}</t>
+  </si>
+  <si>
+    <t>财务风险Top5接口</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1111,6 +1834,29 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF008000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1210,7 +1956,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,8 +1964,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1286,6 +2035,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1301,18 +2062,112 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1623,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I25" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1676,15 +2531,15 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1699,9 +2554,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1746,26 +2601,26 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1959,22 +2814,22 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
@@ -2070,10 +2925,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L38"/>
+  <dimension ref="A2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2086,7 +2941,7 @@
     <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
     <col min="9" max="9" width="24.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="44.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="43.125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -2125,15 +2980,15 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
@@ -2148,9 +3003,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2225,15 +3080,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="I12" s="3" t="s">
         <v>256</v>
       </c>
@@ -2245,12 +3100,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+      <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2263,7 +3118,18 @@
       <c r="G13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -2277,148 +3143,281 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="3"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>258</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="G15" s="3"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="G17" s="3"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="G18" s="3"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>273</v>
+      </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2427,7 +3426,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2436,7 +3435,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2446,22 +3445,22 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
@@ -2488,69 +3487,39 @@
       <c r="F35" s="5"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="3"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-    </row>
-    <row r="38" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="3"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="http://localhost/gtjaWeb/queryProposalFromValue.json"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2687,15 +3656,15 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="1"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
@@ -2711,9 +3680,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2781,15 +3750,15 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2797,11 +3766,11 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2993,11 +3962,11 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="2"/>
@@ -3009,11 +3978,11 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3065,15 +4034,3628 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="24.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="49.875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68:D70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="31" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="31" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="31" customWidth="1"/>
+    <col min="7" max="8" width="9" style="31"/>
+    <col min="9" max="9" width="11.375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="38.375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="61" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="58"/>
+      <c r="I7" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="35"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="58"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="51"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="53"/>
+      <c r="B13" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="35"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="35"/>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="45"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="45"/>
+      <c r="B28" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="45"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="45"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="45"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="45"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="45"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="43"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="35"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="45"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="45"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="43"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="45"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="45"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="43"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="45"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="43"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="35"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="45"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="43"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="45"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="43"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="45"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="45"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="43"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="45"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="35"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="45"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="43"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="35"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="45"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="43"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="45"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="43"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="45"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="43"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="35"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="45"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="43"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="45"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="43"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="35"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="45"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="43"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="35"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="45"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="43"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="35"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="45"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="43"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="35"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="45"/>
+      <c r="B53" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="E53" s="43"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="35"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="45"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="43"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="35"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="45"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="43"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="35"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="45"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="43"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="35"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="45"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="43"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="45"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="43"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="45"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="43"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="35"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="45"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="43"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="35"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="45"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="43"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="35"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="45"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="43"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="35"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="45"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="43"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="35"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="45"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="43"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="35"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="45"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="43"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="35"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="45"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="43"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="35"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="45"/>
+      <c r="B67" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" s="34"/>
+      <c r="D67" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="E67" s="43"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="35"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="45"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" s="43"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="35"/>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="45"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" s="43"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="35"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="45"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="43"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="35"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+    </row>
+    <row r="72" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="35"/>
+      <c r="B73" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G73" s="32"/>
+    </row>
+    <row r="74" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="35"/>
+      <c r="B74" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C74" s="32"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A71:C71"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="31" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="31" customWidth="1"/>
+    <col min="7" max="8" width="9" style="31"/>
+    <col min="9" max="9" width="11.375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="38.375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="61" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="58"/>
+      <c r="I7" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="35"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="58"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="35"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="35"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="35"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="35"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="35"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="43"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="35"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="43"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="35"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="43"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="43"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="43"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="35"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="43"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="43"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="35"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="33"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="43"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="35"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="43"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="35"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="35"/>
+      <c r="B54" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54" s="32"/>
+    </row>
+    <row r="55" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="35"/>
+      <c r="B55" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A52:C52"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="31" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="31" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="31" customWidth="1"/>
+    <col min="7" max="8" width="9" style="31"/>
+    <col min="9" max="9" width="12.5" style="31" customWidth="1"/>
+    <col min="10" max="10" width="38.375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="61" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="58"/>
+      <c r="I7" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="35"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="58"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="35"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="35"/>
+      <c r="B20" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="35"/>
+      <c r="B21" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="31" customWidth="1"/>
+    <col min="2" max="2" width="18" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="31" customWidth="1"/>
+    <col min="7" max="8" width="9" style="31"/>
+    <col min="9" max="9" width="11.375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="38.375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="61" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="58"/>
+      <c r="I7" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>455</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+    </row>
+    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="58"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+    </row>
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="64"/>
+      <c r="D25" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="64"/>
+      <c r="D27" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="64"/>
+      <c r="D30" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="35"/>
+      <c r="B34" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G34" s="32"/>
+    </row>
+    <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="35"/>
+      <c r="B35" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A32:C32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
@@ -3144,15 +7726,15 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
       <c r="I7" s="10" t="s">
         <v>104</v>
       </c>
@@ -3167,11 +7749,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="2" t="s">
         <v>79</v>
       </c>
@@ -3228,26 +7810,26 @@
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
       <c r="I11" s="11"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="2" t="s">
         <v>79</v>
       </c>
@@ -3383,22 +7965,22 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="2" t="s">
         <v>79</v>
       </c>
@@ -3583,15 +8165,15 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="1"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
@@ -3607,9 +8189,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3689,15 +8271,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3" t="s">
         <v>63</v>
@@ -3711,11 +8293,11 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -3740,7 +8322,7 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="8"/>
@@ -3754,7 +8336,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="8"/>
@@ -4083,11 +8665,11 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="2"/>
@@ -4099,11 +8681,11 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
@@ -4306,15 +8888,15 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="1"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
@@ -4330,9 +8912,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4412,15 +8994,15 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4428,11 +9010,11 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -4592,11 +9174,11 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
@@ -4608,11 +9190,11 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
@@ -4816,15 +9398,15 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="1"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
@@ -4840,9 +9422,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4910,15 +9492,15 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4926,11 +9508,11 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -5122,11 +9704,11 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
@@ -5138,11 +9720,11 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
@@ -5338,15 +9920,15 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="1"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
@@ -5362,9 +9944,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5378,16 +9960,16 @@
         <v>1</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5434,15 +10016,15 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3" t="s">
         <v>29</v>
@@ -5458,11 +10040,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -5476,16 +10058,16 @@
         <v>1</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="23" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5842,11 +10424,11 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="2"/>
@@ -5858,11 +10440,11 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
@@ -5914,12 +10496,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5932,7 +10514,7 @@
   <dimension ref="A2:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5984,15 +10566,15 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
@@ -6007,9 +10589,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -6201,26 +10783,26 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
@@ -6413,22 +10995,22 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
@@ -6489,12 +11071,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6561,15 +11143,15 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
@@ -6584,9 +11166,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -6643,26 +11225,26 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -6862,22 +11444,22 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
@@ -6938,12 +11520,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/2程序设计/程序接口设计.xlsx
+++ b/docs/2程序设计/程序接口设计.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362">
   <si>
     <t>接口名</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>cnn_score</t>
+  </si>
+  <si>
+    <t>selectDate</t>
+  </si>
+  <si>
+    <t>初始查询月份</t>
   </si>
   <si>
     <t>件数</t>
@@ -3011,7 +3017,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3065,43 +3071,43 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3113,16 +3119,16 @@
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="I11" s="49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3136,14 +3142,14 @@
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
       <c r="I12" s="49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J12" s="49"/>
       <c r="K12" s="49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:12">
@@ -3165,16 +3171,16 @@
         <v>14</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3184,22 +3190,22 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
       <c r="I14" s="49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:12">
@@ -3213,26 +3219,26 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G15" s="49"/>
       <c r="I15" s="49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J15" s="49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
@@ -3240,7 +3246,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G16" s="49"/>
       <c r="I16" s="49"/>
@@ -3251,7 +3257,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="48"/>
       <c r="B17" s="48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
@@ -3259,7 +3265,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G17" s="49"/>
       <c r="I17" s="49"/>
@@ -3270,7 +3276,7 @@
     <row r="18" customHeight="1" spans="1:12">
       <c r="A18" s="48"/>
       <c r="B18" s="48" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
@@ -3278,7 +3284,7 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G18" s="49"/>
       <c r="I18" s="49"/>
@@ -3289,7 +3295,7 @@
     <row r="19" ht="13.5" customHeight="1" spans="1:12">
       <c r="A19" s="48"/>
       <c r="B19" s="48" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48" t="s">
@@ -3297,7 +3303,7 @@
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G19" s="49"/>
       <c r="I19" s="49"/>
@@ -3308,7 +3314,7 @@
     <row r="20" spans="1:12">
       <c r="A20" s="48"/>
       <c r="B20" s="48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
@@ -3316,7 +3322,7 @@
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G20" s="49"/>
       <c r="I20" s="49"/>
@@ -3327,7 +3333,7 @@
     <row r="21" spans="1:12">
       <c r="A21" s="48"/>
       <c r="B21" s="48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
@@ -3335,7 +3341,7 @@
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G21" s="49"/>
       <c r="I21" s="49"/>
@@ -3346,7 +3352,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="48"/>
       <c r="B22" s="48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="48"/>
       <c r="B23" s="48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -3369,14 +3375,14 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G23" s="49"/>
     </row>
     <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="48"/>
       <c r="B24" s="48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -3384,14 +3390,14 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="48"/>
       <c r="B25" s="48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -3399,14 +3405,14 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -3414,29 +3420,29 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="48" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="48"/>
       <c r="B28" s="48" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
@@ -3444,14 +3450,14 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G28" s="49"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:7">
       <c r="A29" s="48"/>
       <c r="B29" s="48" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
@@ -3459,7 +3465,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -3607,11 +3613,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
@@ -3643,7 +3649,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3661,7 +3667,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -3744,30 +3750,30 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="35"/>
@@ -3780,14 +3786,14 @@
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
@@ -3876,12 +3882,12 @@
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="35"/>
@@ -3894,12 +3900,12 @@
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G17" s="46"/>
       <c r="H17" s="35"/>
@@ -3912,12 +3918,12 @@
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="35"/>
@@ -3948,12 +3954,12 @@
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="35"/>
@@ -3966,12 +3972,12 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="35"/>
@@ -4123,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -4136,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4192,24 +4198,24 @@
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
       <c r="K9" s="49" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="49"/>
       <c r="I10" s="49"/>
@@ -4595,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -4608,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4616,7 +4622,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -4662,30 +4668,30 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="46"/>
       <c r="I10" s="49"/>
@@ -4696,7 +4702,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -4704,7 +4710,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -4715,7 +4721,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -4723,7 +4729,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -4734,7 +4740,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -4742,7 +4748,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -4753,7 +4759,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -4761,7 +4767,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -4772,7 +4778,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46" t="s">
@@ -4780,7 +4786,7 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G15" s="46"/>
       <c r="I15" s="49"/>
@@ -4799,7 +4805,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -4810,7 +4816,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -4818,7 +4824,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -4891,7 +4897,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -4899,7 +4905,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -4907,7 +4913,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -4915,7 +4921,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -4923,7 +4929,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -4931,7 +4937,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -4939,7 +4945,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -4947,7 +4953,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -4955,7 +4961,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -4963,14 +4969,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -4978,7 +4984,7 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="46" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G27" s="49"/>
     </row>
@@ -4993,7 +4999,7 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="49"/>
     </row>
@@ -5008,7 +5014,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -5038,7 +5044,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G31" s="49"/>
     </row>
@@ -5168,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -5181,7 +5187,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5234,22 +5240,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="25" t="s">
@@ -5300,7 +5306,7 @@
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:10">
       <c r="A12" s="26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -5313,15 +5319,15 @@
     <row r="13" ht="13.5" customHeight="1" spans="1:10">
       <c r="A13" s="27"/>
       <c r="B13" s="29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G13" s="26"/>
       <c r="J13" s="23"/>
@@ -5330,7 +5336,7 @@
       <c r="A14" s="12"/>
       <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
@@ -5344,7 +5350,7 @@
       <c r="A15" s="12"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>21</v>
@@ -5358,7 +5364,7 @@
       <c r="A16" s="12"/>
       <c r="B16" s="30"/>
       <c r="C16" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>21</v>
@@ -5371,7 +5377,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
@@ -5384,7 +5390,7 @@
       <c r="A18" s="12"/>
       <c r="B18" s="30"/>
       <c r="C18" s="13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>21</v>
@@ -5397,7 +5403,7 @@
       <c r="A19" s="12"/>
       <c r="B19" s="30"/>
       <c r="C19" s="13" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
@@ -5410,7 +5416,7 @@
       <c r="A20" s="12"/>
       <c r="B20" s="30"/>
       <c r="C20" s="13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
@@ -5423,7 +5429,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="30"/>
       <c r="C21" s="13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>24</v>
@@ -5436,7 +5442,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="30"/>
       <c r="C22" s="13" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>24</v>
@@ -5450,7 +5456,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="30"/>
       <c r="C23" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>24</v>
@@ -5463,7 +5469,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="30"/>
       <c r="C24" s="13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>24</v>
@@ -5476,7 +5482,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>24</v>
@@ -5489,7 +5495,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -5502,7 +5508,7 @@
       <c r="A27" s="32"/>
       <c r="B27" s="33"/>
       <c r="C27" s="13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>21</v>
@@ -5514,11 +5520,11 @@
     <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="32"/>
       <c r="B28" s="34" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="12"/>
@@ -5541,7 +5547,7 @@
       <c r="A30" s="32"/>
       <c r="B30" s="34"/>
       <c r="C30" s="13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -5554,7 +5560,7 @@
       <c r="A31" s="32"/>
       <c r="B31" s="34"/>
       <c r="C31" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -5567,7 +5573,7 @@
       <c r="A32" s="32"/>
       <c r="B32" s="34"/>
       <c r="C32" s="13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>21</v>
@@ -5580,7 +5586,7 @@
       <c r="A33" s="32"/>
       <c r="B33" s="34"/>
       <c r="C33" s="13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -5593,7 +5599,7 @@
       <c r="A34" s="32"/>
       <c r="B34" s="34"/>
       <c r="C34" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -5606,7 +5612,7 @@
       <c r="A35" s="32"/>
       <c r="B35" s="34"/>
       <c r="C35" s="13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>21</v>
@@ -5619,7 +5625,7 @@
       <c r="A36" s="32"/>
       <c r="B36" s="34"/>
       <c r="C36" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -5632,7 +5638,7 @@
       <c r="A37" s="32"/>
       <c r="B37" s="34"/>
       <c r="C37" s="13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -5645,7 +5651,7 @@
       <c r="A38" s="32"/>
       <c r="B38" s="34"/>
       <c r="C38" s="13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -5658,7 +5664,7 @@
       <c r="A39" s="32"/>
       <c r="B39" s="34"/>
       <c r="C39" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -5671,7 +5677,7 @@
       <c r="A40" s="32"/>
       <c r="B40" s="34"/>
       <c r="C40" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -5684,7 +5690,7 @@
       <c r="A41" s="32"/>
       <c r="B41" s="34"/>
       <c r="C41" s="13" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>21</v>
@@ -5697,7 +5703,7 @@
       <c r="A42" s="32"/>
       <c r="B42" s="34"/>
       <c r="C42" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -5710,7 +5716,7 @@
       <c r="A43" s="32"/>
       <c r="B43" s="34"/>
       <c r="C43" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>21</v>
@@ -5723,7 +5729,7 @@
       <c r="A44" s="32"/>
       <c r="B44" s="34"/>
       <c r="C44" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>21</v>
@@ -5749,7 +5755,7 @@
       <c r="A46" s="32"/>
       <c r="B46" s="34"/>
       <c r="C46" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -5762,7 +5768,7 @@
       <c r="A47" s="32"/>
       <c r="B47" s="34"/>
       <c r="C47" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>21</v>
@@ -5775,7 +5781,7 @@
       <c r="A48" s="32"/>
       <c r="B48" s="34"/>
       <c r="C48" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>21</v>
@@ -5788,7 +5794,7 @@
       <c r="A49" s="32"/>
       <c r="B49" s="34"/>
       <c r="C49" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>21</v>
@@ -5801,7 +5807,7 @@
       <c r="A50" s="32"/>
       <c r="B50" s="34"/>
       <c r="C50" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -5814,7 +5820,7 @@
       <c r="A51" s="32"/>
       <c r="B51" s="34"/>
       <c r="C51" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>21</v>
@@ -5827,7 +5833,7 @@
       <c r="A52" s="32"/>
       <c r="B52" s="34"/>
       <c r="C52" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>21</v>
@@ -5839,11 +5845,11 @@
     <row r="53" ht="14.25" spans="1:7">
       <c r="A53" s="32"/>
       <c r="B53" s="34" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="25" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="12"/>
@@ -5853,7 +5859,7 @@
       <c r="A54" s="32"/>
       <c r="B54" s="34"/>
       <c r="C54" s="13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>21</v>
@@ -5866,7 +5872,7 @@
       <c r="A55" s="32"/>
       <c r="B55" s="34"/>
       <c r="C55" s="13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>21</v>
@@ -5879,7 +5885,7 @@
       <c r="A56" s="32"/>
       <c r="B56" s="34"/>
       <c r="C56" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>21</v>
@@ -5892,7 +5898,7 @@
       <c r="A57" s="32"/>
       <c r="B57" s="34"/>
       <c r="C57" s="13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>21</v>
@@ -5905,7 +5911,7 @@
       <c r="A58" s="32"/>
       <c r="B58" s="34"/>
       <c r="C58" s="13" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>21</v>
@@ -5918,7 +5924,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="34"/>
       <c r="C59" s="13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>21</v>
@@ -5931,7 +5937,7 @@
       <c r="A60" s="32"/>
       <c r="B60" s="34"/>
       <c r="C60" s="13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>21</v>
@@ -5944,7 +5950,7 @@
       <c r="A61" s="32"/>
       <c r="B61" s="34"/>
       <c r="C61" s="13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>21</v>
@@ -5957,7 +5963,7 @@
       <c r="A62" s="32"/>
       <c r="B62" s="34"/>
       <c r="C62" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>21</v>
@@ -5970,7 +5976,7 @@
       <c r="A63" s="32"/>
       <c r="B63" s="34"/>
       <c r="C63" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>21</v>
@@ -5983,7 +5989,7 @@
       <c r="A64" s="32"/>
       <c r="B64" s="34"/>
       <c r="C64" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>21</v>
@@ -5996,7 +6002,7 @@
       <c r="A65" s="32"/>
       <c r="B65" s="34"/>
       <c r="C65" s="13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>21</v>
@@ -6009,7 +6015,7 @@
       <c r="A66" s="32"/>
       <c r="B66" s="34"/>
       <c r="C66" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>21</v>
@@ -6021,11 +6027,11 @@
     <row r="67" ht="14.25" spans="1:7">
       <c r="A67" s="32"/>
       <c r="B67" s="34" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="25" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="12"/>
@@ -6035,7 +6041,7 @@
       <c r="A68" s="32"/>
       <c r="B68" s="30"/>
       <c r="C68" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>21</v>
@@ -6048,7 +6054,7 @@
       <c r="A69" s="32"/>
       <c r="B69" s="30"/>
       <c r="C69" s="13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>21</v>
@@ -6061,7 +6067,7 @@
       <c r="A70" s="32"/>
       <c r="B70" s="30"/>
       <c r="C70" s="13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>21</v>
@@ -6109,14 +6115,14 @@
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G73" s="17"/>
     </row>
     <row r="74" customHeight="1" spans="1:7">
       <c r="A74" s="14"/>
       <c r="B74" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="13"/>
@@ -6166,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -6179,7 +6185,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6232,22 +6238,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -6296,7 +6302,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -6309,7 +6315,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
@@ -6337,7 +6343,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
@@ -6350,7 +6356,7 @@
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
@@ -6363,7 +6369,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
@@ -6376,7 +6382,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="12"/>
       <c r="B18" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
@@ -6389,7 +6395,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="12"/>
       <c r="B19" s="13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
@@ -6402,7 +6408,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
@@ -6415,11 +6421,11 @@
     <row r="21" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -6428,7 +6434,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
@@ -6441,7 +6447,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
@@ -6454,11 +6460,11 @@
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -6468,7 +6474,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>21</v>
@@ -6481,7 +6487,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -6494,7 +6500,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>21</v>
@@ -6507,7 +6513,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>21</v>
@@ -6520,7 +6526,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>21</v>
@@ -6533,7 +6539,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -6546,7 +6552,7 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -6559,7 +6565,7 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>21</v>
@@ -6572,7 +6578,7 @@
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -6585,7 +6591,7 @@
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -6597,11 +6603,11 @@
     <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="13" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -6611,7 +6617,7 @@
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -6624,7 +6630,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -6637,7 +6643,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -6650,7 +6656,7 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -6663,7 +6669,7 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -6675,11 +6681,11 @@
     <row r="41" spans="1:7">
       <c r="A41" s="12"/>
       <c r="B41" s="13" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -6689,7 +6695,7 @@
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -6728,7 +6734,7 @@
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>21</v>
@@ -6741,7 +6747,7 @@
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -6754,7 +6760,7 @@
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>21</v>
@@ -6780,7 +6786,7 @@
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>21</v>
@@ -6793,7 +6799,7 @@
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -6854,14 +6860,14 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G54" s="17"/>
     </row>
     <row r="55" customHeight="1" spans="1:7">
       <c r="A55" s="14"/>
       <c r="B55" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="13"/>
@@ -6911,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -6924,7 +6930,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6977,22 +6983,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -7042,11 +7048,11 @@
     <row r="12" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -7057,14 +7063,14 @@
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G13" s="14"/>
       <c r="J13" s="23"/>
@@ -7073,14 +7079,14 @@
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G14" s="14"/>
       <c r="J14" s="23"/>
@@ -7089,14 +7095,14 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -7104,14 +7110,14 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -7119,14 +7125,14 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G17" s="14"/>
     </row>
@@ -7169,14 +7175,14 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G20" s="17"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="14"/>
       <c r="B21" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="13"/>
@@ -7226,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -7239,7 +7245,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7247,7 +7253,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -7292,16 +7298,16 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" ht="15.95" customHeight="1" spans="1:12">
@@ -7326,7 +7332,7 @@
     <row r="10" ht="24" spans="1:12">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
@@ -7334,7 +7340,7 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G10" s="14"/>
       <c r="I10" s="20"/>
@@ -7345,7 +7351,7 @@
     <row r="11" ht="24" spans="1:12">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
@@ -7353,7 +7359,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="12" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G11" s="14"/>
       <c r="I11" s="20"/>
@@ -7398,15 +7404,15 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="15" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G14" s="14"/>
       <c r="J14" s="23"/>
@@ -7446,7 +7452,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="12" t="s">
@@ -7467,7 +7473,7 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G18" s="14"/>
     </row>
@@ -7475,14 +7481,14 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G19" s="14"/>
     </row>
@@ -7490,21 +7496,21 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="12" t="s">
@@ -7517,7 +7523,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="12" t="s">
@@ -7530,7 +7536,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="12" t="s">
@@ -7543,7 +7549,7 @@
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="12" t="s">
@@ -7551,14 +7557,14 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="12" t="s">
@@ -7571,7 +7577,7 @@
     <row r="26" spans="1:7">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="12" t="s">
@@ -7584,7 +7590,7 @@
     <row r="27" spans="1:7">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="12" t="s">
@@ -7597,7 +7603,7 @@
     <row r="28" spans="1:7">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="12" t="s">
@@ -7610,7 +7616,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="12" t="s">
@@ -7623,7 +7629,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="12" t="s">
@@ -7643,7 +7649,7 @@
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G31" s="14"/>
     </row>
@@ -7686,14 +7692,14 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G34" s="17"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="14"/>
       <c r="B35" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="13"/>
@@ -7734,10 +7740,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L27"/>
+  <dimension ref="A2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -8036,60 +8042,62 @@
       <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="49"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="39" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="49"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A25" s="42" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A26" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F26" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G26" s="44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="49"/>
-      <c r="B26" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="53"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="49"/>
@@ -8099,8 +8107,21 @@
       <c r="C27" s="53"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
-      <c r="F27" s="48"/>
+      <c r="F27" s="48" t="s">
+        <v>53</v>
+      </c>
       <c r="G27" s="53"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="49"/>
+      <c r="B28" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8108,8 +8129,8 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -8190,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -8291,46 +8312,46 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8343,16 +8364,16 @@
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
       <c r="I11" s="49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8367,13 +8388,13 @@
       <c r="G12" s="41"/>
       <c r="H12" s="35"/>
       <c r="I12" s="49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L12" s="49"/>
     </row>
@@ -8408,7 +8429,7 @@
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
       <c r="D14" s="57" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
@@ -8422,7 +8443,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -8446,7 +8467,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -8466,7 +8487,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -8479,7 +8500,7 @@
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>21</v>
@@ -8500,11 +8521,11 @@
         <v>43</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="35"/>
@@ -8517,7 +8538,7 @@
       <c r="A20" s="48"/>
       <c r="B20" s="46"/>
       <c r="C20" s="48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
@@ -8535,7 +8556,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
@@ -8553,7 +8574,7 @@
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
@@ -8571,14 +8592,14 @@
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="35"/>
@@ -8591,7 +8612,7 @@
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>24</v>
@@ -8609,7 +8630,7 @@
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>24</v>
@@ -8627,7 +8648,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>24</v>
@@ -8645,7 +8666,7 @@
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>24</v>
@@ -8663,7 +8684,7 @@
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>21</v>
@@ -8681,7 +8702,7 @@
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>21</v>
@@ -8699,14 +8720,14 @@
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="35"/>
@@ -8719,14 +8740,14 @@
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="35"/>
@@ -8880,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -8914,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -9015,63 +9036,63 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D11" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="49"/>
@@ -9140,7 +9161,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="48"/>
       <c r="B15" s="48" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
@@ -9159,12 +9180,12 @@
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -9177,12 +9198,12 @@
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -9194,7 +9215,7 @@
     <row r="18" spans="1:12">
       <c r="A18" s="48"/>
       <c r="B18" s="48" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
@@ -9213,12 +9234,12 @@
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="35"/>
@@ -9231,12 +9252,12 @@
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="35"/>
@@ -9391,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -9425,7 +9446,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -9443,7 +9464,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -9526,30 +9547,30 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="35"/>
@@ -9562,14 +9583,14 @@
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
@@ -9658,12 +9679,12 @@
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="35"/>
@@ -9676,12 +9697,12 @@
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G17" s="46"/>
       <c r="H17" s="35"/>
@@ -9694,12 +9715,12 @@
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="35"/>
@@ -9730,12 +9751,12 @@
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="35"/>
@@ -9748,12 +9769,12 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="35"/>
@@ -9914,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -9948,7 +9969,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -10049,40 +10070,40 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
@@ -10097,7 +10118,7 @@
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
       <c r="I11" s="49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
@@ -10115,16 +10136,16 @@
       <c r="G12" s="41"/>
       <c r="H12" s="35"/>
       <c r="I12" s="49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -10147,16 +10168,16 @@
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L13" s="56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -10166,27 +10187,27 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
       <c r="H14" s="35"/>
       <c r="I14" s="49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L14" s="49"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="48"/>
       <c r="B15" s="38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -10210,7 +10231,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -10230,7 +10251,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -10243,7 +10264,7 @@
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>21</v>
@@ -10264,7 +10285,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
@@ -10279,7 +10300,7 @@
       <c r="A20" s="48"/>
       <c r="B20" s="46"/>
       <c r="C20" s="48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
@@ -10297,7 +10318,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
@@ -10315,7 +10336,7 @@
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
@@ -10333,14 +10354,14 @@
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="35"/>
@@ -10353,7 +10374,7 @@
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>24</v>
@@ -10371,7 +10392,7 @@
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>24</v>
@@ -10389,7 +10410,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>24</v>
@@ -10407,7 +10428,7 @@
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>24</v>
@@ -10425,7 +10446,7 @@
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>21</v>
@@ -10443,7 +10464,7 @@
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>21</v>
@@ -10461,14 +10482,14 @@
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="35"/>
@@ -10481,14 +10502,14 @@
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="35"/>
@@ -10627,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -10640,7 +10661,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10648,7 +10669,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -10694,30 +10715,30 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="46"/>
       <c r="I10" s="49"/>
@@ -10728,7 +10749,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -10736,7 +10757,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -10747,7 +10768,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -10755,7 +10776,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -10766,7 +10787,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -10774,7 +10795,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -10785,7 +10806,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -10793,7 +10814,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -10804,7 +10825,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46" t="s">
@@ -10812,7 +10833,7 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G15" s="46"/>
       <c r="I15" s="49"/>
@@ -10831,7 +10852,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -10842,7 +10863,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -10850,7 +10871,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -10923,7 +10944,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -10931,7 +10952,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -10939,7 +10960,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -10947,7 +10968,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -10955,7 +10976,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -10963,7 +10984,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -10971,7 +10992,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -10979,7 +11000,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -10987,7 +11008,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -10995,14 +11016,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -11010,7 +11031,7 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="46" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G27" s="49"/>
     </row>
@@ -11025,7 +11046,7 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="49"/>
     </row>
@@ -11040,7 +11061,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -11070,7 +11091,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G31" s="49"/>
     </row>
@@ -11205,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -11218,7 +11239,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11226,7 +11247,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -11272,14 +11293,14 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -11291,14 +11312,14 @@
       <c r="F10" s="48"/>
       <c r="G10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -11356,7 +11377,7 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
@@ -11374,7 +11395,7 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G15" s="49"/>
       <c r="I15" s="38"/>
@@ -11382,11 +11403,11 @@
     <row r="16" spans="1:9">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
@@ -11397,14 +11418,14 @@
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G17" s="49"/>
       <c r="I17" s="38"/>
@@ -11420,7 +11441,7 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G18" s="49"/>
       <c r="I18" s="38"/>
@@ -11436,7 +11457,7 @@
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G19" s="49"/>
     </row>
@@ -11444,14 +11465,14 @@
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G20" s="49"/>
     </row>
@@ -11459,14 +11480,14 @@
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G21" s="49"/>
     </row>
@@ -11474,14 +11495,14 @@
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G22" s="49"/>
     </row>
@@ -11489,14 +11510,14 @@
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G23" s="49"/>
     </row>
@@ -11504,14 +11525,14 @@
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G24" s="49"/>
     </row>

--- a/docs/2程序设计/程序接口设计.xlsx
+++ b/docs/2程序设计/程序接口设计.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364">
   <si>
     <t>接口名</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>初始查询月份</t>
+  </si>
+  <si>
+    <t>mediaNm</t>
+  </si>
+  <si>
+    <t>新闻来源</t>
   </si>
   <si>
     <t>件数</t>
@@ -1244,9 +1250,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1312,79 +1318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1402,7 +1335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1410,15 +1343,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,9 +1364,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1453,6 +1407,56 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1488,7 +1492,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,7 +1522,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,13 +1552,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,73 +1576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,13 +1594,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,31 +1648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,6 +1667,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,21 +1753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1778,21 +1767,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1831,157 +1805,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3017,7 +3021,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3071,43 +3075,43 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3119,16 +3123,16 @@
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="I11" s="49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3142,14 +3146,14 @@
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
       <c r="I12" s="49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J12" s="49"/>
       <c r="K12" s="49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:12">
@@ -3171,16 +3175,16 @@
         <v>14</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3190,22 +3194,22 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
       <c r="I14" s="49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:12">
@@ -3219,26 +3223,26 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G15" s="49"/>
       <c r="I15" s="49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J15" s="49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
@@ -3246,7 +3250,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G16" s="49"/>
       <c r="I16" s="49"/>
@@ -3257,7 +3261,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="48"/>
       <c r="B17" s="48" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
@@ -3265,7 +3269,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G17" s="49"/>
       <c r="I17" s="49"/>
@@ -3276,7 +3280,7 @@
     <row r="18" customHeight="1" spans="1:12">
       <c r="A18" s="48"/>
       <c r="B18" s="48" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
@@ -3284,7 +3288,7 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G18" s="49"/>
       <c r="I18" s="49"/>
@@ -3295,7 +3299,7 @@
     <row r="19" ht="13.5" customHeight="1" spans="1:12">
       <c r="A19" s="48"/>
       <c r="B19" s="48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48" t="s">
@@ -3303,7 +3307,7 @@
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G19" s="49"/>
       <c r="I19" s="49"/>
@@ -3314,7 +3318,7 @@
     <row r="20" spans="1:12">
       <c r="A20" s="48"/>
       <c r="B20" s="48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
@@ -3322,7 +3326,7 @@
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G20" s="49"/>
       <c r="I20" s="49"/>
@@ -3333,7 +3337,7 @@
     <row r="21" spans="1:12">
       <c r="A21" s="48"/>
       <c r="B21" s="48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
@@ -3341,7 +3345,7 @@
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G21" s="49"/>
       <c r="I21" s="49"/>
@@ -3352,7 +3356,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="48"/>
       <c r="B22" s="48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -3360,14 +3364,14 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="48"/>
       <c r="B23" s="48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -3375,14 +3379,14 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G23" s="49"/>
     </row>
     <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="48"/>
       <c r="B24" s="48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -3390,14 +3394,14 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="48"/>
       <c r="B25" s="48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -3405,14 +3409,14 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="48" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -3420,29 +3424,29 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="48" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="48"/>
       <c r="B28" s="48" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
@@ -3450,14 +3454,14 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G28" s="49"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:7">
       <c r="A29" s="48"/>
       <c r="B29" s="48" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
@@ -3465,7 +3469,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -3613,11 +3617,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
@@ -3649,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3667,7 +3671,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -3750,30 +3754,30 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="35"/>
@@ -3786,14 +3790,14 @@
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
@@ -3882,12 +3886,12 @@
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="35"/>
@@ -3900,12 +3904,12 @@
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G17" s="46"/>
       <c r="H17" s="35"/>
@@ -3918,12 +3922,12 @@
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="35"/>
@@ -3954,12 +3958,12 @@
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="35"/>
@@ -3972,12 +3976,12 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="35"/>
@@ -4129,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -4142,7 +4146,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4198,24 +4202,24 @@
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
       <c r="K9" s="49" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="49"/>
       <c r="I10" s="49"/>
@@ -4601,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -4614,7 +4618,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4622,7 +4626,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -4668,30 +4672,30 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="46"/>
       <c r="I10" s="49"/>
@@ -4702,7 +4706,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -4710,7 +4714,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -4721,7 +4725,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -4729,7 +4733,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -4740,7 +4744,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -4748,7 +4752,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -4759,7 +4763,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -4767,7 +4771,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -4778,7 +4782,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46" t="s">
@@ -4786,7 +4790,7 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G15" s="46"/>
       <c r="I15" s="49"/>
@@ -4805,7 +4809,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -4816,7 +4820,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -4824,7 +4828,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -4897,7 +4901,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -4905,7 +4909,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -4913,7 +4917,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -4921,7 +4925,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -4929,7 +4933,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -4937,7 +4941,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -4945,7 +4949,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -4953,7 +4957,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -4961,7 +4965,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -4969,14 +4973,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -4984,7 +4988,7 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G27" s="49"/>
     </row>
@@ -4999,7 +5003,7 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="49"/>
     </row>
@@ -5014,7 +5018,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -5044,7 +5048,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G31" s="49"/>
     </row>
@@ -5174,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -5187,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5240,22 +5244,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="25" t="s">
@@ -5306,7 +5310,7 @@
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:10">
       <c r="A12" s="26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -5319,15 +5323,15 @@
     <row r="13" ht="13.5" customHeight="1" spans="1:10">
       <c r="A13" s="27"/>
       <c r="B13" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G13" s="26"/>
       <c r="J13" s="23"/>
@@ -5336,7 +5340,7 @@
       <c r="A14" s="12"/>
       <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
@@ -5350,7 +5354,7 @@
       <c r="A15" s="12"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>21</v>
@@ -5364,7 +5368,7 @@
       <c r="A16" s="12"/>
       <c r="B16" s="30"/>
       <c r="C16" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>21</v>
@@ -5377,7 +5381,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
@@ -5390,7 +5394,7 @@
       <c r="A18" s="12"/>
       <c r="B18" s="30"/>
       <c r="C18" s="13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>21</v>
@@ -5403,7 +5407,7 @@
       <c r="A19" s="12"/>
       <c r="B19" s="30"/>
       <c r="C19" s="13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
@@ -5416,7 +5420,7 @@
       <c r="A20" s="12"/>
       <c r="B20" s="30"/>
       <c r="C20" s="13" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
@@ -5429,7 +5433,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="30"/>
       <c r="C21" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>24</v>
@@ -5442,7 +5446,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="30"/>
       <c r="C22" s="13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>24</v>
@@ -5456,7 +5460,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="30"/>
       <c r="C23" s="13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>24</v>
@@ -5469,7 +5473,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="30"/>
       <c r="C24" s="13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>24</v>
@@ -5482,7 +5486,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>24</v>
@@ -5495,7 +5499,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -5508,7 +5512,7 @@
       <c r="A27" s="32"/>
       <c r="B27" s="33"/>
       <c r="C27" s="13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>21</v>
@@ -5520,11 +5524,11 @@
     <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="32"/>
       <c r="B28" s="34" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="12"/>
@@ -5547,7 +5551,7 @@
       <c r="A30" s="32"/>
       <c r="B30" s="34"/>
       <c r="C30" s="13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -5560,7 +5564,7 @@
       <c r="A31" s="32"/>
       <c r="B31" s="34"/>
       <c r="C31" s="13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -5573,7 +5577,7 @@
       <c r="A32" s="32"/>
       <c r="B32" s="34"/>
       <c r="C32" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>21</v>
@@ -5586,7 +5590,7 @@
       <c r="A33" s="32"/>
       <c r="B33" s="34"/>
       <c r="C33" s="13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -5599,7 +5603,7 @@
       <c r="A34" s="32"/>
       <c r="B34" s="34"/>
       <c r="C34" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -5612,7 +5616,7 @@
       <c r="A35" s="32"/>
       <c r="B35" s="34"/>
       <c r="C35" s="13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>21</v>
@@ -5625,7 +5629,7 @@
       <c r="A36" s="32"/>
       <c r="B36" s="34"/>
       <c r="C36" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -5638,7 +5642,7 @@
       <c r="A37" s="32"/>
       <c r="B37" s="34"/>
       <c r="C37" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -5651,7 +5655,7 @@
       <c r="A38" s="32"/>
       <c r="B38" s="34"/>
       <c r="C38" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -5664,7 +5668,7 @@
       <c r="A39" s="32"/>
       <c r="B39" s="34"/>
       <c r="C39" s="13" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -5677,7 +5681,7 @@
       <c r="A40" s="32"/>
       <c r="B40" s="34"/>
       <c r="C40" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -5690,7 +5694,7 @@
       <c r="A41" s="32"/>
       <c r="B41" s="34"/>
       <c r="C41" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>21</v>
@@ -5703,7 +5707,7 @@
       <c r="A42" s="32"/>
       <c r="B42" s="34"/>
       <c r="C42" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -5716,7 +5720,7 @@
       <c r="A43" s="32"/>
       <c r="B43" s="34"/>
       <c r="C43" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>21</v>
@@ -5729,7 +5733,7 @@
       <c r="A44" s="32"/>
       <c r="B44" s="34"/>
       <c r="C44" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>21</v>
@@ -5755,7 +5759,7 @@
       <c r="A46" s="32"/>
       <c r="B46" s="34"/>
       <c r="C46" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -5768,7 +5772,7 @@
       <c r="A47" s="32"/>
       <c r="B47" s="34"/>
       <c r="C47" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>21</v>
@@ -5781,7 +5785,7 @@
       <c r="A48" s="32"/>
       <c r="B48" s="34"/>
       <c r="C48" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>21</v>
@@ -5794,7 +5798,7 @@
       <c r="A49" s="32"/>
       <c r="B49" s="34"/>
       <c r="C49" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>21</v>
@@ -5807,7 +5811,7 @@
       <c r="A50" s="32"/>
       <c r="B50" s="34"/>
       <c r="C50" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -5820,7 +5824,7 @@
       <c r="A51" s="32"/>
       <c r="B51" s="34"/>
       <c r="C51" s="13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>21</v>
@@ -5833,7 +5837,7 @@
       <c r="A52" s="32"/>
       <c r="B52" s="34"/>
       <c r="C52" s="13" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>21</v>
@@ -5845,11 +5849,11 @@
     <row r="53" ht="14.25" spans="1:7">
       <c r="A53" s="32"/>
       <c r="B53" s="34" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="25" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="12"/>
@@ -5859,7 +5863,7 @@
       <c r="A54" s="32"/>
       <c r="B54" s="34"/>
       <c r="C54" s="13" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>21</v>
@@ -5872,7 +5876,7 @@
       <c r="A55" s="32"/>
       <c r="B55" s="34"/>
       <c r="C55" s="13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>21</v>
@@ -5885,7 +5889,7 @@
       <c r="A56" s="32"/>
       <c r="B56" s="34"/>
       <c r="C56" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>21</v>
@@ -5898,7 +5902,7 @@
       <c r="A57" s="32"/>
       <c r="B57" s="34"/>
       <c r="C57" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>21</v>
@@ -5911,7 +5915,7 @@
       <c r="A58" s="32"/>
       <c r="B58" s="34"/>
       <c r="C58" s="13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>21</v>
@@ -5924,7 +5928,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="34"/>
       <c r="C59" s="13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>21</v>
@@ -5937,7 +5941,7 @@
       <c r="A60" s="32"/>
       <c r="B60" s="34"/>
       <c r="C60" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>21</v>
@@ -5950,7 +5954,7 @@
       <c r="A61" s="32"/>
       <c r="B61" s="34"/>
       <c r="C61" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>21</v>
@@ -5963,7 +5967,7 @@
       <c r="A62" s="32"/>
       <c r="B62" s="34"/>
       <c r="C62" s="13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>21</v>
@@ -5976,7 +5980,7 @@
       <c r="A63" s="32"/>
       <c r="B63" s="34"/>
       <c r="C63" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>21</v>
@@ -5989,7 +5993,7 @@
       <c r="A64" s="32"/>
       <c r="B64" s="34"/>
       <c r="C64" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>21</v>
@@ -6002,7 +6006,7 @@
       <c r="A65" s="32"/>
       <c r="B65" s="34"/>
       <c r="C65" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>21</v>
@@ -6015,7 +6019,7 @@
       <c r="A66" s="32"/>
       <c r="B66" s="34"/>
       <c r="C66" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>21</v>
@@ -6027,11 +6031,11 @@
     <row r="67" ht="14.25" spans="1:7">
       <c r="A67" s="32"/>
       <c r="B67" s="34" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="25" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="12"/>
@@ -6041,7 +6045,7 @@
       <c r="A68" s="32"/>
       <c r="B68" s="30"/>
       <c r="C68" s="13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>21</v>
@@ -6054,7 +6058,7 @@
       <c r="A69" s="32"/>
       <c r="B69" s="30"/>
       <c r="C69" s="13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>21</v>
@@ -6067,7 +6071,7 @@
       <c r="A70" s="32"/>
       <c r="B70" s="30"/>
       <c r="C70" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>21</v>
@@ -6115,14 +6119,14 @@
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G73" s="17"/>
     </row>
     <row r="74" customHeight="1" spans="1:7">
       <c r="A74" s="14"/>
       <c r="B74" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="13"/>
@@ -6172,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -6185,7 +6189,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6238,22 +6242,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -6302,7 +6306,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -6315,7 +6319,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
@@ -6343,7 +6347,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
@@ -6356,7 +6360,7 @@
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
@@ -6369,7 +6373,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
@@ -6382,7 +6386,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="12"/>
       <c r="B18" s="13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
@@ -6395,7 +6399,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="12"/>
       <c r="B19" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
@@ -6408,7 +6412,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
@@ -6421,11 +6425,11 @@
     <row r="21" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -6434,7 +6438,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
@@ -6447,7 +6451,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
@@ -6460,11 +6464,11 @@
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -6474,7 +6478,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>21</v>
@@ -6487,7 +6491,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -6500,7 +6504,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>21</v>
@@ -6513,7 +6517,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>21</v>
@@ -6526,7 +6530,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>21</v>
@@ -6539,7 +6543,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -6552,7 +6556,7 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -6565,7 +6569,7 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>21</v>
@@ -6578,7 +6582,7 @@
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -6591,7 +6595,7 @@
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -6603,11 +6607,11 @@
     <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="13" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -6617,7 +6621,7 @@
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -6630,7 +6634,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -6643,7 +6647,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -6656,7 +6660,7 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -6669,7 +6673,7 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -6681,11 +6685,11 @@
     <row r="41" spans="1:7">
       <c r="A41" s="12"/>
       <c r="B41" s="13" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -6695,7 +6699,7 @@
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -6734,7 +6738,7 @@
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>21</v>
@@ -6747,7 +6751,7 @@
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -6760,7 +6764,7 @@
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>21</v>
@@ -6786,7 +6790,7 @@
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>21</v>
@@ -6799,7 +6803,7 @@
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -6860,14 +6864,14 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G54" s="17"/>
     </row>
     <row r="55" customHeight="1" spans="1:7">
       <c r="A55" s="14"/>
       <c r="B55" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="13"/>
@@ -6917,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -6930,7 +6934,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6983,22 +6987,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -7048,11 +7052,11 @@
     <row r="12" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -7063,14 +7067,14 @@
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G13" s="14"/>
       <c r="J13" s="23"/>
@@ -7079,14 +7083,14 @@
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G14" s="14"/>
       <c r="J14" s="23"/>
@@ -7095,14 +7099,14 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -7110,14 +7114,14 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -7125,14 +7129,14 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G17" s="14"/>
     </row>
@@ -7175,14 +7179,14 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G20" s="17"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="14"/>
       <c r="B21" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="13"/>
@@ -7232,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -7245,7 +7249,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7253,7 +7257,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -7298,16 +7302,16 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" ht="15.95" customHeight="1" spans="1:12">
@@ -7332,7 +7336,7 @@
     <row r="10" ht="24" spans="1:12">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
@@ -7340,7 +7344,7 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G10" s="14"/>
       <c r="I10" s="20"/>
@@ -7351,7 +7355,7 @@
     <row r="11" ht="24" spans="1:12">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
@@ -7359,7 +7363,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G11" s="14"/>
       <c r="I11" s="20"/>
@@ -7404,15 +7408,15 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="15" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G14" s="14"/>
       <c r="J14" s="23"/>
@@ -7452,7 +7456,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="12" t="s">
@@ -7473,7 +7477,7 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G18" s="14"/>
     </row>
@@ -7481,14 +7485,14 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G19" s="14"/>
     </row>
@@ -7496,21 +7500,21 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="12" t="s">
@@ -7523,7 +7527,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="12" t="s">
@@ -7536,7 +7540,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="12" t="s">
@@ -7549,7 +7553,7 @@
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="12" t="s">
@@ -7557,14 +7561,14 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="12" t="s">
@@ -7577,7 +7581,7 @@
     <row r="26" spans="1:7">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="12" t="s">
@@ -7590,7 +7594,7 @@
     <row r="27" spans="1:7">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="12" t="s">
@@ -7603,7 +7607,7 @@
     <row r="28" spans="1:7">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="12" t="s">
@@ -7616,7 +7620,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="12" t="s">
@@ -7629,7 +7633,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="12" t="s">
@@ -7649,7 +7653,7 @@
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G31" s="14"/>
     </row>
@@ -7692,14 +7696,14 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G34" s="17"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="14"/>
       <c r="B35" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="13"/>
@@ -7740,10 +7744,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L28"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -8016,101 +8020,103 @@
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="58"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="58"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="58"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58" t="s">
+      <c r="C23" s="48"/>
+      <c r="D23" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="49"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="49"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="39" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="49"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A26" s="42" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A27" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44" t="s">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E27" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F27" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G27" s="44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="49"/>
-      <c r="B27" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="53"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="49"/>
@@ -8120,8 +8126,21 @@
       <c r="C28" s="53"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
-      <c r="F28" s="48"/>
+      <c r="F28" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="G28" s="53"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="49"/>
+      <c r="B29" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="53"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8129,8 +8148,8 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -8211,7 +8230,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -8312,46 +8331,46 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8364,16 +8383,16 @@
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
       <c r="I11" s="49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8388,13 +8407,13 @@
       <c r="G12" s="41"/>
       <c r="H12" s="35"/>
       <c r="I12" s="49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L12" s="49"/>
     </row>
@@ -8429,7 +8448,7 @@
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
       <c r="D14" s="57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
@@ -8443,7 +8462,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -8467,7 +8486,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -8487,7 +8506,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -8500,7 +8519,7 @@
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>21</v>
@@ -8521,11 +8540,11 @@
         <v>43</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="35"/>
@@ -8538,7 +8557,7 @@
       <c r="A20" s="48"/>
       <c r="B20" s="46"/>
       <c r="C20" s="48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
@@ -8556,7 +8575,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
@@ -8574,7 +8593,7 @@
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
@@ -8592,14 +8611,14 @@
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="35"/>
@@ -8612,7 +8631,7 @@
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>24</v>
@@ -8630,7 +8649,7 @@
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>24</v>
@@ -8648,7 +8667,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>24</v>
@@ -8666,7 +8685,7 @@
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>24</v>
@@ -8684,7 +8703,7 @@
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>21</v>
@@ -8702,7 +8721,7 @@
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>21</v>
@@ -8720,14 +8739,14 @@
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="35"/>
@@ -8740,14 +8759,14 @@
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="35"/>
@@ -8901,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -8935,7 +8954,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -9036,63 +9055,63 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D11" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="49"/>
@@ -9161,7 +9180,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="48"/>
       <c r="B15" s="48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
@@ -9180,12 +9199,12 @@
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -9198,12 +9217,12 @@
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -9215,7 +9234,7 @@
     <row r="18" spans="1:12">
       <c r="A18" s="48"/>
       <c r="B18" s="48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
@@ -9234,12 +9253,12 @@
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="35"/>
@@ -9252,12 +9271,12 @@
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="35"/>
@@ -9412,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -9446,7 +9465,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -9464,7 +9483,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -9547,30 +9566,30 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="35"/>
@@ -9583,14 +9602,14 @@
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
@@ -9679,12 +9698,12 @@
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="35"/>
@@ -9697,12 +9716,12 @@
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G17" s="46"/>
       <c r="H17" s="35"/>
@@ -9715,12 +9734,12 @@
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="35"/>
@@ -9751,12 +9770,12 @@
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="35"/>
@@ -9769,12 +9788,12 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="35"/>
@@ -9935,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -9969,7 +9988,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -10070,40 +10089,40 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
@@ -10118,7 +10137,7 @@
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
       <c r="I11" s="49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
@@ -10136,16 +10155,16 @@
       <c r="G12" s="41"/>
       <c r="H12" s="35"/>
       <c r="I12" s="49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -10168,16 +10187,16 @@
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L13" s="56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -10187,27 +10206,27 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
       <c r="H14" s="35"/>
       <c r="I14" s="49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L14" s="49"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="48"/>
       <c r="B15" s="38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -10231,7 +10250,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -10251,7 +10270,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -10264,7 +10283,7 @@
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>21</v>
@@ -10285,7 +10304,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
@@ -10300,7 +10319,7 @@
       <c r="A20" s="48"/>
       <c r="B20" s="46"/>
       <c r="C20" s="48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
@@ -10318,7 +10337,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
@@ -10336,7 +10355,7 @@
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
@@ -10354,14 +10373,14 @@
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="35"/>
@@ -10374,7 +10393,7 @@
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>24</v>
@@ -10392,7 +10411,7 @@
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>24</v>
@@ -10410,7 +10429,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>24</v>
@@ -10428,7 +10447,7 @@
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>24</v>
@@ -10446,7 +10465,7 @@
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>21</v>
@@ -10464,7 +10483,7 @@
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>21</v>
@@ -10482,14 +10501,14 @@
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="35"/>
@@ -10502,14 +10521,14 @@
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="35"/>
@@ -10648,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -10661,7 +10680,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10669,7 +10688,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -10715,30 +10734,30 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="46"/>
       <c r="I10" s="49"/>
@@ -10749,7 +10768,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -10757,7 +10776,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -10768,7 +10787,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -10776,7 +10795,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -10787,7 +10806,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -10795,7 +10814,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -10806,7 +10825,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -10814,7 +10833,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -10825,7 +10844,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46" t="s">
@@ -10833,7 +10852,7 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G15" s="46"/>
       <c r="I15" s="49"/>
@@ -10852,7 +10871,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -10863,7 +10882,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -10871,7 +10890,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -10944,7 +10963,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -10952,7 +10971,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -10960,7 +10979,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -10968,7 +10987,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -10976,7 +10995,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -10984,7 +11003,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -10992,7 +11011,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -11000,7 +11019,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -11008,7 +11027,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -11016,14 +11035,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -11031,7 +11050,7 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G27" s="49"/>
     </row>
@@ -11046,7 +11065,7 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="49"/>
     </row>
@@ -11061,7 +11080,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -11091,7 +11110,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G31" s="49"/>
     </row>
@@ -11226,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -11239,7 +11258,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11247,7 +11266,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -11293,14 +11312,14 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -11312,14 +11331,14 @@
       <c r="F10" s="48"/>
       <c r="G10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -11377,7 +11396,7 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
@@ -11395,7 +11414,7 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G15" s="49"/>
       <c r="I15" s="38"/>
@@ -11403,11 +11422,11 @@
     <row r="16" spans="1:9">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
@@ -11418,14 +11437,14 @@
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G17" s="49"/>
       <c r="I17" s="38"/>
@@ -11441,7 +11460,7 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G18" s="49"/>
       <c r="I18" s="38"/>
@@ -11457,7 +11476,7 @@
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G19" s="49"/>
     </row>
@@ -11465,14 +11484,14 @@
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G20" s="49"/>
     </row>
@@ -11480,14 +11499,14 @@
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G21" s="49"/>
     </row>
@@ -11495,14 +11514,14 @@
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G22" s="49"/>
     </row>
@@ -11510,14 +11529,14 @@
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G23" s="49"/>
     </row>
@@ -11525,14 +11544,14 @@
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G24" s="49"/>
     </row>

--- a/docs/2程序设计/程序接口设计.xlsx
+++ b/docs/2程序设计/程序接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="demon" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366">
   <si>
     <t>接口名</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>负面新闻总量</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>负面新闻占比</t>
   </si>
   <si>
     <t>辖内风险TOP5</t>
@@ -1250,8 +1256,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1318,7 +1324,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1326,26 +1353,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1357,7 +1369,38 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1379,57 +1422,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1440,8 +1437,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,13 +1498,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,13 +1540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,7 +1552,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,25 +1612,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1582,13 +1636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,31 +1654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,37 +1672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,54 +1744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1802,6 +1760,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1835,6 +1808,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1843,10 +1849,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1855,16 +1861,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1874,122 +1880,122 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2163,9 +2169,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3021,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3075,22 +3078,22 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="38" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
@@ -3098,20 +3101,20 @@
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3123,16 +3126,16 @@
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="I11" s="49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3146,14 +3149,14 @@
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
       <c r="I12" s="49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J12" s="49"/>
       <c r="K12" s="49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:12">
@@ -3175,16 +3178,16 @@
         <v>14</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3194,22 +3197,22 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
       <c r="I14" s="49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:12">
@@ -3223,26 +3226,26 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G15" s="49"/>
       <c r="I15" s="49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J15" s="49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
@@ -3250,7 +3253,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G16" s="49"/>
       <c r="I16" s="49"/>
@@ -3261,7 +3264,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="48"/>
       <c r="B17" s="48" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
@@ -3269,7 +3272,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G17" s="49"/>
       <c r="I17" s="49"/>
@@ -3280,7 +3283,7 @@
     <row r="18" customHeight="1" spans="1:12">
       <c r="A18" s="48"/>
       <c r="B18" s="48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
@@ -3288,7 +3291,7 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G18" s="49"/>
       <c r="I18" s="49"/>
@@ -3299,7 +3302,7 @@
     <row r="19" ht="13.5" customHeight="1" spans="1:12">
       <c r="A19" s="48"/>
       <c r="B19" s="48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48" t="s">
@@ -3307,7 +3310,7 @@
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G19" s="49"/>
       <c r="I19" s="49"/>
@@ -3318,7 +3321,7 @@
     <row r="20" spans="1:12">
       <c r="A20" s="48"/>
       <c r="B20" s="48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
@@ -3326,7 +3329,7 @@
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G20" s="49"/>
       <c r="I20" s="49"/>
@@ -3337,7 +3340,7 @@
     <row r="21" spans="1:12">
       <c r="A21" s="48"/>
       <c r="B21" s="48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
@@ -3345,7 +3348,7 @@
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G21" s="49"/>
       <c r="I21" s="49"/>
@@ -3356,7 +3359,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="48"/>
       <c r="B22" s="48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -3364,14 +3367,14 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="48"/>
       <c r="B23" s="48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -3379,14 +3382,14 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G23" s="49"/>
     </row>
     <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="48"/>
       <c r="B24" s="48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -3394,14 +3397,14 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="48"/>
       <c r="B25" s="48" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -3409,14 +3412,14 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="48" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -3424,14 +3427,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="48" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -3439,14 +3442,14 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="48"/>
       <c r="B28" s="48" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
@@ -3454,14 +3457,14 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G28" s="49"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:7">
       <c r="A29" s="48"/>
       <c r="B29" s="48" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
@@ -3469,7 +3472,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -3617,11 +3620,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
@@ -4133,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -4146,7 +4149,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4202,16 +4205,16 @@
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
       <c r="K9" s="49" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
@@ -4605,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -4618,7 +4621,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4672,22 +4675,22 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
@@ -4706,7 +4709,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -4714,7 +4717,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -4725,7 +4728,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -4733,7 +4736,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -4744,7 +4747,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -4752,7 +4755,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -4763,7 +4766,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -4771,7 +4774,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -4809,7 +4812,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -4820,7 +4823,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -4828,7 +4831,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -4901,7 +4904,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -4909,7 +4912,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -4917,7 +4920,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -4925,7 +4928,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -4933,7 +4936,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -4941,7 +4944,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -4949,7 +4952,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -4957,7 +4960,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -4965,7 +4968,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -4973,14 +4976,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -4988,7 +4991,7 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G27" s="49"/>
     </row>
@@ -5003,7 +5006,7 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G28" s="49"/>
     </row>
@@ -5018,7 +5021,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -5048,7 +5051,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G31" s="49"/>
     </row>
@@ -5155,7 +5158,7 @@
   <sheetPr/>
   <dimension ref="A2:L74"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D68" sqref="D68:D70"/>
     </sheetView>
   </sheetViews>
@@ -5178,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -5191,7 +5194,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5244,22 +5247,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="25" t="s">
@@ -5310,7 +5313,7 @@
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:10">
       <c r="A12" s="26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -5323,15 +5326,15 @@
     <row r="13" ht="13.5" customHeight="1" spans="1:10">
       <c r="A13" s="27"/>
       <c r="B13" s="29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G13" s="26"/>
       <c r="J13" s="23"/>
@@ -5340,7 +5343,7 @@
       <c r="A14" s="12"/>
       <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
@@ -5354,7 +5357,7 @@
       <c r="A15" s="12"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>21</v>
@@ -5368,7 +5371,7 @@
       <c r="A16" s="12"/>
       <c r="B16" s="30"/>
       <c r="C16" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>21</v>
@@ -5381,7 +5384,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
@@ -5394,7 +5397,7 @@
       <c r="A18" s="12"/>
       <c r="B18" s="30"/>
       <c r="C18" s="13" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>21</v>
@@ -5407,7 +5410,7 @@
       <c r="A19" s="12"/>
       <c r="B19" s="30"/>
       <c r="C19" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
@@ -5420,7 +5423,7 @@
       <c r="A20" s="12"/>
       <c r="B20" s="30"/>
       <c r="C20" s="13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
@@ -5433,7 +5436,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="30"/>
       <c r="C21" s="13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>24</v>
@@ -5446,7 +5449,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="30"/>
       <c r="C22" s="13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>24</v>
@@ -5460,7 +5463,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="30"/>
       <c r="C23" s="13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>24</v>
@@ -5473,7 +5476,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="30"/>
       <c r="C24" s="13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>24</v>
@@ -5486,7 +5489,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>24</v>
@@ -5499,7 +5502,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -5512,7 +5515,7 @@
       <c r="A27" s="32"/>
       <c r="B27" s="33"/>
       <c r="C27" s="13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>21</v>
@@ -5524,11 +5527,11 @@
     <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="32"/>
       <c r="B28" s="34" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="12"/>
@@ -5551,7 +5554,7 @@
       <c r="A30" s="32"/>
       <c r="B30" s="34"/>
       <c r="C30" s="13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -5564,7 +5567,7 @@
       <c r="A31" s="32"/>
       <c r="B31" s="34"/>
       <c r="C31" s="13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -5577,7 +5580,7 @@
       <c r="A32" s="32"/>
       <c r="B32" s="34"/>
       <c r="C32" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>21</v>
@@ -5590,7 +5593,7 @@
       <c r="A33" s="32"/>
       <c r="B33" s="34"/>
       <c r="C33" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -5603,7 +5606,7 @@
       <c r="A34" s="32"/>
       <c r="B34" s="34"/>
       <c r="C34" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -5616,7 +5619,7 @@
       <c r="A35" s="32"/>
       <c r="B35" s="34"/>
       <c r="C35" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>21</v>
@@ -5629,7 +5632,7 @@
       <c r="A36" s="32"/>
       <c r="B36" s="34"/>
       <c r="C36" s="13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -5642,7 +5645,7 @@
       <c r="A37" s="32"/>
       <c r="B37" s="34"/>
       <c r="C37" s="13" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -5655,7 +5658,7 @@
       <c r="A38" s="32"/>
       <c r="B38" s="34"/>
       <c r="C38" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -5668,7 +5671,7 @@
       <c r="A39" s="32"/>
       <c r="B39" s="34"/>
       <c r="C39" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -5681,7 +5684,7 @@
       <c r="A40" s="32"/>
       <c r="B40" s="34"/>
       <c r="C40" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -5694,7 +5697,7 @@
       <c r="A41" s="32"/>
       <c r="B41" s="34"/>
       <c r="C41" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>21</v>
@@ -5707,7 +5710,7 @@
       <c r="A42" s="32"/>
       <c r="B42" s="34"/>
       <c r="C42" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -5720,7 +5723,7 @@
       <c r="A43" s="32"/>
       <c r="B43" s="34"/>
       <c r="C43" s="13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>21</v>
@@ -5733,7 +5736,7 @@
       <c r="A44" s="32"/>
       <c r="B44" s="34"/>
       <c r="C44" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>21</v>
@@ -5759,7 +5762,7 @@
       <c r="A46" s="32"/>
       <c r="B46" s="34"/>
       <c r="C46" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -5772,7 +5775,7 @@
       <c r="A47" s="32"/>
       <c r="B47" s="34"/>
       <c r="C47" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>21</v>
@@ -5785,7 +5788,7 @@
       <c r="A48" s="32"/>
       <c r="B48" s="34"/>
       <c r="C48" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>21</v>
@@ -5798,7 +5801,7 @@
       <c r="A49" s="32"/>
       <c r="B49" s="34"/>
       <c r="C49" s="13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>21</v>
@@ -5811,7 +5814,7 @@
       <c r="A50" s="32"/>
       <c r="B50" s="34"/>
       <c r="C50" s="13" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -5824,7 +5827,7 @@
       <c r="A51" s="32"/>
       <c r="B51" s="34"/>
       <c r="C51" s="13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>21</v>
@@ -5837,7 +5840,7 @@
       <c r="A52" s="32"/>
       <c r="B52" s="34"/>
       <c r="C52" s="13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>21</v>
@@ -5849,11 +5852,11 @@
     <row r="53" ht="14.25" spans="1:7">
       <c r="A53" s="32"/>
       <c r="B53" s="34" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="25" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="12"/>
@@ -5863,7 +5866,7 @@
       <c r="A54" s="32"/>
       <c r="B54" s="34"/>
       <c r="C54" s="13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>21</v>
@@ -5876,7 +5879,7 @@
       <c r="A55" s="32"/>
       <c r="B55" s="34"/>
       <c r="C55" s="13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>21</v>
@@ -5889,7 +5892,7 @@
       <c r="A56" s="32"/>
       <c r="B56" s="34"/>
       <c r="C56" s="13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>21</v>
@@ -5902,7 +5905,7 @@
       <c r="A57" s="32"/>
       <c r="B57" s="34"/>
       <c r="C57" s="13" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>21</v>
@@ -5915,7 +5918,7 @@
       <c r="A58" s="32"/>
       <c r="B58" s="34"/>
       <c r="C58" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>21</v>
@@ -5928,7 +5931,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="34"/>
       <c r="C59" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>21</v>
@@ -5941,7 +5944,7 @@
       <c r="A60" s="32"/>
       <c r="B60" s="34"/>
       <c r="C60" s="13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>21</v>
@@ -5954,7 +5957,7 @@
       <c r="A61" s="32"/>
       <c r="B61" s="34"/>
       <c r="C61" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>21</v>
@@ -5967,7 +5970,7 @@
       <c r="A62" s="32"/>
       <c r="B62" s="34"/>
       <c r="C62" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>21</v>
@@ -5980,7 +5983,7 @@
       <c r="A63" s="32"/>
       <c r="B63" s="34"/>
       <c r="C63" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>21</v>
@@ -6006,7 +6009,7 @@
       <c r="A65" s="32"/>
       <c r="B65" s="34"/>
       <c r="C65" s="13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>21</v>
@@ -6019,7 +6022,7 @@
       <c r="A66" s="32"/>
       <c r="B66" s="34"/>
       <c r="C66" s="13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>21</v>
@@ -6031,11 +6034,11 @@
     <row r="67" ht="14.25" spans="1:7">
       <c r="A67" s="32"/>
       <c r="B67" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="25" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="12"/>
@@ -6045,7 +6048,7 @@
       <c r="A68" s="32"/>
       <c r="B68" s="30"/>
       <c r="C68" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>21</v>
@@ -6058,7 +6061,7 @@
       <c r="A69" s="32"/>
       <c r="B69" s="30"/>
       <c r="C69" s="13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>21</v>
@@ -6071,7 +6074,7 @@
       <c r="A70" s="32"/>
       <c r="B70" s="30"/>
       <c r="C70" s="13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>21</v>
@@ -6176,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -6189,7 +6192,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6242,22 +6245,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -6306,7 +6309,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -6319,7 +6322,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
@@ -6347,7 +6350,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
@@ -6360,7 +6363,7 @@
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
@@ -6373,7 +6376,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
@@ -6386,7 +6389,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="12"/>
       <c r="B18" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
@@ -6399,7 +6402,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="12"/>
       <c r="B19" s="13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
@@ -6412,7 +6415,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
@@ -6425,11 +6428,11 @@
     <row r="21" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -6438,7 +6441,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
@@ -6451,7 +6454,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
@@ -6464,11 +6467,11 @@
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -6491,7 +6494,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -6504,7 +6507,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>21</v>
@@ -6517,7 +6520,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>21</v>
@@ -6530,7 +6533,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>21</v>
@@ -6543,7 +6546,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -6556,7 +6559,7 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -6569,7 +6572,7 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>21</v>
@@ -6582,7 +6585,7 @@
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -6595,7 +6598,7 @@
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -6607,11 +6610,11 @@
     <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="13" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -6634,7 +6637,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -6647,7 +6650,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -6660,7 +6663,7 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -6673,7 +6676,7 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -6685,11 +6688,11 @@
     <row r="41" spans="1:7">
       <c r="A41" s="12"/>
       <c r="B41" s="13" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -6751,7 +6754,7 @@
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -6790,7 +6793,7 @@
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>21</v>
@@ -6803,7 +6806,7 @@
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -6921,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -6934,7 +6937,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6987,22 +6990,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -7052,11 +7055,11 @@
     <row r="12" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="15" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -7067,14 +7070,14 @@
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G13" s="14"/>
       <c r="J13" s="23"/>
@@ -7083,14 +7086,14 @@
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G14" s="14"/>
       <c r="J14" s="23"/>
@@ -7099,14 +7102,14 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -7114,14 +7117,14 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -7129,14 +7132,14 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G17" s="14"/>
     </row>
@@ -7236,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -7249,7 +7252,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7257,7 +7260,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -7302,16 +7305,16 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" ht="15.95" customHeight="1" spans="1:12">
@@ -7336,7 +7339,7 @@
     <row r="10" ht="24" spans="1:12">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
@@ -7344,7 +7347,7 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G10" s="14"/>
       <c r="I10" s="20"/>
@@ -7355,7 +7358,7 @@
     <row r="11" ht="24" spans="1:12">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
@@ -7363,7 +7366,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G11" s="14"/>
       <c r="I11" s="20"/>
@@ -7408,15 +7411,15 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="15" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G14" s="14"/>
       <c r="J14" s="23"/>
@@ -7477,7 +7480,7 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G18" s="14"/>
     </row>
@@ -7485,14 +7488,14 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G19" s="14"/>
     </row>
@@ -7500,14 +7503,14 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="16" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G20" s="14"/>
     </row>
@@ -7561,7 +7564,7 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G24" s="14"/>
     </row>
@@ -7653,7 +7656,7 @@
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G31" s="14"/>
     </row>
@@ -7746,8 +7749,8 @@
   <sheetPr/>
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -7834,16 +7837,16 @@
       <c r="G8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="60" t="s">
+      <c r="K8" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="59" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7859,10 +7862,10 @@
         <v>36</v>
       </c>
       <c r="G9" s="49"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
@@ -7872,10 +7875,10 @@
       <c r="E10" s="46"/>
       <c r="F10" s="48"/>
       <c r="G10" s="49"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="39" t="s">
@@ -7887,10 +7890,10 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="41"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:7">
       <c r="A12" s="42" t="s">
@@ -8061,16 +8064,16 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="58"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="58"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58" t="s">
+      <c r="E24" s="48"/>
+      <c r="F24" s="48" t="s">
         <v>52</v>
       </c>
       <c r="G24" s="49"/>
@@ -9398,8 +9401,8 @@
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9805,10 +9808,16 @@
     <row r="22" spans="1:12">
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>21</v>
+      </c>
       <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="F22" s="46" t="s">
+        <v>137</v>
+      </c>
       <c r="G22" s="46"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
@@ -9954,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -9988,7 +9997,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -10119,10 +10128,10 @@
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
@@ -10137,7 +10146,7 @@
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
       <c r="I11" s="49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
@@ -10667,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -10680,7 +10689,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10734,22 +10743,22 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
@@ -10768,7 +10777,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -10776,7 +10785,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -10787,7 +10796,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -10795,7 +10804,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -10806,7 +10815,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -10814,7 +10823,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -10825,7 +10834,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -10833,7 +10842,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -10871,7 +10880,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -10882,7 +10891,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -10890,7 +10899,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -10963,7 +10972,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -10971,7 +10980,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -10979,7 +10988,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -10987,7 +10996,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -10995,7 +11004,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -11003,7 +11012,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -11011,7 +11020,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -11019,7 +11028,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -11027,7 +11036,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -11035,14 +11044,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -11050,7 +11059,7 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G27" s="49"/>
     </row>
@@ -11065,7 +11074,7 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G28" s="49"/>
     </row>
@@ -11080,7 +11089,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -11110,7 +11119,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G31" s="49"/>
     </row>
@@ -11245,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -11258,7 +11267,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11312,14 +11321,14 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -11331,14 +11340,14 @@
       <c r="F10" s="48"/>
       <c r="G10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -11396,7 +11405,7 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
@@ -11414,7 +11423,7 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G15" s="49"/>
       <c r="I15" s="38"/>
@@ -11422,11 +11431,11 @@
     <row r="16" spans="1:9">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
@@ -11444,7 +11453,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G17" s="49"/>
       <c r="I17" s="38"/>
@@ -11460,7 +11469,7 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G18" s="49"/>
       <c r="I18" s="38"/>
@@ -11476,7 +11485,7 @@
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G19" s="49"/>
     </row>
@@ -11491,7 +11500,7 @@
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G20" s="49"/>
     </row>
@@ -11499,14 +11508,14 @@
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G21" s="49"/>
     </row>
@@ -11521,7 +11530,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G22" s="49"/>
     </row>
@@ -11529,14 +11538,14 @@
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G23" s="49"/>
     </row>
@@ -11544,14 +11553,14 @@
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G24" s="49"/>
     </row>

--- a/docs/2程序设计/程序接口设计.xlsx
+++ b/docs/2程序设计/程序接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="5"/>
+    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="demon" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369">
   <si>
     <t>接口名</t>
   </si>
@@ -481,337 +481,346 @@
     <t>每天的负面新闻量</t>
   </si>
   <si>
+    <t>postDt</t>
+  </si>
+  <si>
+    <t>新闻日期</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>负面新闻占比</t>
+  </si>
+  <si>
+    <t>新闻总量</t>
+  </si>
+  <si>
+    <t>负面新闻总量</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>辖内风险TOP5</t>
+  </si>
+  <si>
+    <t>/creditWarning/riskTop5/{userId}</t>
+  </si>
+  <si>
+    <t>查询用户关注列表</t>
+  </si>
+  <si>
+    <t>查出用户关注公司ID列表</t>
+  </si>
+  <si>
+    <t>对比选出TOP5</t>
+  </si>
+  <si>
+    <t>新闻舆情风险TOP5</t>
+  </si>
+  <si>
+    <t>/newsWarning/news/NewsWarningInData.json</t>
+  </si>
+  <si>
+    <t>查询新闻</t>
+  </si>
+  <si>
+    <t>查询新闻详情信息[调用的外部接口]</t>
+  </si>
+  <si>
+    <t>NewsWarningController.getNewsCount</t>
+  </si>
+  <si>
+    <t>NewsWarningServices.findNewsFromSolr</t>
+  </si>
+  <si>
+    <t>compyId</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>关键字</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>新闻评价(1:正/2:负/3:中性）</t>
+  </si>
+  <si>
+    <t>relevance</t>
+  </si>
+  <si>
+    <t>相关性</t>
+  </si>
+  <si>
+    <t>warningType</t>
+  </si>
+  <si>
+    <t>事件分类</t>
+  </si>
+  <si>
+    <t>显示条数</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>页码</t>
+  </si>
+  <si>
+    <t>newsTitle</t>
+  </si>
+  <si>
+    <t>新闻标题</t>
+  </si>
+  <si>
+    <t>publishTime</t>
+  </si>
+  <si>
+    <t>发布时间</t>
+  </si>
+  <si>
+    <t>newsSource</t>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>文章路径ID</t>
+  </si>
+  <si>
+    <t>新闻总条数</t>
+  </si>
+  <si>
+    <t>事件风险公告TOP5</t>
+  </si>
+  <si>
+    <t>/creditWarning/announceAlarm/CreditWarningIn.Json</t>
+  </si>
+  <si>
+    <t>查询舆情公告条数</t>
+  </si>
+  <si>
+    <t>CreditWarningController.getAnnounceAlarm</t>
+  </si>
+  <si>
+    <t>CreditWarningServices.getAnnounceAlarmCount2</t>
+  </si>
+  <si>
+    <t>查询舆情公告详情</t>
+  </si>
+  <si>
+    <t>CreditWarningServices.getAnnounceAlarm2</t>
+  </si>
+  <si>
+    <t>AnnounceAlarmOutData</t>
+  </si>
+  <si>
+    <t>公告条数</t>
+  </si>
+  <si>
+    <t>infoList</t>
+  </si>
+  <si>
+    <t>List&lt;AnnounceAlarmInfoData&gt;</t>
+  </si>
+  <si>
+    <t>证券CD</t>
+  </si>
+  <si>
+    <t>公司Id</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>公告日期</t>
+  </si>
+  <si>
+    <t>srcType</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>noticeTitle</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>infoCd</t>
+  </si>
+  <si>
+    <t>公告CD</t>
+  </si>
+  <si>
+    <t>/companyInfo/company/{id}</t>
+  </si>
+  <si>
+    <t>查询公司详情</t>
+  </si>
+  <si>
+    <t>根据公司标识ID查询详情</t>
+  </si>
+  <si>
+    <t>CompanyInfoController.getCompanyBasicInfo</t>
+  </si>
+  <si>
+    <t>CompanyInfoServices.getCompanyBasicInfo</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>企业标识ID</t>
+  </si>
+  <si>
+    <t>查询实际控制人</t>
+  </si>
+  <si>
+    <t>查询出该公司实际控制人</t>
+  </si>
+  <si>
+    <t>CompanyInfoServices.getAffilparty</t>
+  </si>
+  <si>
+    <t>查询公司证券信息</t>
+  </si>
+  <si>
+    <t>查询证券代码证券全称</t>
+  </si>
+  <si>
+    <t>CompanyInfoServices.findSecurity</t>
+  </si>
+  <si>
+    <t>查询是否是城投公司</t>
+  </si>
+  <si>
+    <t>CacheServices.getPlatformCompanyIds.contains</t>
+  </si>
+  <si>
+    <t>获取行业</t>
+  </si>
+  <si>
+    <t>获取主板企业：按照申万行业分类的二级行业;新三板企业：按证监会行业分类三级行业分类</t>
+  </si>
+  <si>
+    <t>CompanyInfoServices.findIndustryFlg</t>
+  </si>
+  <si>
+    <t>CompanyOutData</t>
+  </si>
+  <si>
+    <t>获取申万一级行业和二级行业或者证监会行业</t>
+  </si>
+  <si>
+    <t>CompanyInfoServices.findSwIndustry(id, "1008")</t>
+  </si>
+  <si>
+    <t>CompanyInfoServices.findSwIndustry(id, "1011")</t>
+  </si>
+  <si>
+    <t>foundDt</t>
+  </si>
+  <si>
+    <t>成立日期</t>
+  </si>
+  <si>
+    <t>regCapital</t>
+  </si>
+  <si>
+    <t>注册资本</t>
+  </si>
+  <si>
+    <t>orgFormNm</t>
+  </si>
+  <si>
+    <t>企业性质</t>
+  </si>
+  <si>
+    <t>legRepresent</t>
+  </si>
+  <si>
+    <t>法定代表人</t>
+  </si>
+  <si>
+    <t>employNum</t>
+  </si>
+  <si>
+    <t>员工总数</t>
+  </si>
+  <si>
+    <t>officeAddr</t>
+  </si>
+  <si>
+    <t>地图地址</t>
+  </si>
+  <si>
+    <t>companyPh</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>companyWeb</t>
+  </si>
+  <si>
+    <t>公司网站</t>
+  </si>
+  <si>
+    <t>businScope</t>
+  </si>
+  <si>
+    <t>经营范围</t>
+  </si>
+  <si>
+    <t>mainBusin</t>
+  </si>
+  <si>
+    <t>主营产品</t>
+  </si>
+  <si>
+    <t>sharehdName</t>
+  </si>
+  <si>
+    <t>实际控制人</t>
+  </si>
+  <si>
+    <t>isPlatform</t>
+  </si>
+  <si>
+    <t>是否城投公司</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>所属行业</t>
+  </si>
+  <si>
+    <t>regAddr</t>
+  </si>
+  <si>
+    <t>注册地址</t>
+  </si>
+  <si>
+    <t>风险预警信息</t>
+  </si>
+  <si>
+    <t>采用和热点新闻趋势一样的图</t>
+  </si>
+  <si>
     <t>Post_Dt</t>
   </si>
   <si>
     <t>日期</t>
-  </si>
-  <si>
-    <t>新闻总量</t>
-  </si>
-  <si>
-    <t>负面新闻总量</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>负面新闻占比</t>
-  </si>
-  <si>
-    <t>辖内风险TOP5</t>
-  </si>
-  <si>
-    <t>/creditWarning/riskTop5/{userId}</t>
-  </si>
-  <si>
-    <t>查询用户关注列表</t>
-  </si>
-  <si>
-    <t>查出用户关注公司ID列表</t>
-  </si>
-  <si>
-    <t>对比选出TOP5</t>
-  </si>
-  <si>
-    <t>新闻舆情风险TOP5</t>
-  </si>
-  <si>
-    <t>/newsWarning/news/NewsWarningInData.json</t>
-  </si>
-  <si>
-    <t>查询新闻</t>
-  </si>
-  <si>
-    <t>查询新闻详情信息[调用的外部接口]</t>
-  </si>
-  <si>
-    <t>NewsWarningController.getNewsCount</t>
-  </si>
-  <si>
-    <t>NewsWarningServices.findNewsFromSolr</t>
-  </si>
-  <si>
-    <t>compyId</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>关键字</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>新闻评价(1:正/2:负/3:中性）</t>
-  </si>
-  <si>
-    <t>relevance</t>
-  </si>
-  <si>
-    <t>相关性</t>
-  </si>
-  <si>
-    <t>warningType</t>
-  </si>
-  <si>
-    <t>事件分类</t>
-  </si>
-  <si>
-    <t>显示条数</t>
-  </si>
-  <si>
-    <t>pageSize</t>
-  </si>
-  <si>
-    <t>页码</t>
-  </si>
-  <si>
-    <t>newsTitle</t>
-  </si>
-  <si>
-    <t>新闻标题</t>
-  </si>
-  <si>
-    <t>publishTime</t>
-  </si>
-  <si>
-    <t>发布时间</t>
-  </si>
-  <si>
-    <t>newsSource</t>
-  </si>
-  <si>
-    <t>来源</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>文章路径ID</t>
-  </si>
-  <si>
-    <t>新闻总条数</t>
-  </si>
-  <si>
-    <t>事件风险公告TOP5</t>
-  </si>
-  <si>
-    <t>/creditWarning/announceAlarm/CreditWarningIn.Json</t>
-  </si>
-  <si>
-    <t>查询舆情公告条数</t>
-  </si>
-  <si>
-    <t>CreditWarningController.getAnnounceAlarm</t>
-  </si>
-  <si>
-    <t>CreditWarningServices.getAnnounceAlarmCount2</t>
-  </si>
-  <si>
-    <t>查询舆情公告详情</t>
-  </si>
-  <si>
-    <t>CreditWarningServices.getAnnounceAlarm2</t>
-  </si>
-  <si>
-    <t>AnnounceAlarmOutData</t>
-  </si>
-  <si>
-    <t>公告条数</t>
-  </si>
-  <si>
-    <t>infoList</t>
-  </si>
-  <si>
-    <t>List&lt;AnnounceAlarmInfoData&gt;</t>
-  </si>
-  <si>
-    <t>证券CD</t>
-  </si>
-  <si>
-    <t>公司Id</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>公告日期</t>
-  </si>
-  <si>
-    <t>srcType</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
-    <t>noticeTitle</t>
-  </si>
-  <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>infoCd</t>
-  </si>
-  <si>
-    <t>公告CD</t>
-  </si>
-  <si>
-    <t>/companyInfo/company/{id}</t>
-  </si>
-  <si>
-    <t>查询公司详情</t>
-  </si>
-  <si>
-    <t>根据公司标识ID查询详情</t>
-  </si>
-  <si>
-    <t>CompanyInfoController.getCompanyBasicInfo</t>
-  </si>
-  <si>
-    <t>CompanyInfoServices.getCompanyBasicInfo</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>企业标识ID</t>
-  </si>
-  <si>
-    <t>查询实际控制人</t>
-  </si>
-  <si>
-    <t>查询出该公司实际控制人</t>
-  </si>
-  <si>
-    <t>CompanyInfoServices.getAffilparty</t>
-  </si>
-  <si>
-    <t>查询公司证券信息</t>
-  </si>
-  <si>
-    <t>查询证券代码证券全称</t>
-  </si>
-  <si>
-    <t>CompanyInfoServices.findSecurity</t>
-  </si>
-  <si>
-    <t>查询是否是城投公司</t>
-  </si>
-  <si>
-    <t>CacheServices.getPlatformCompanyIds.contains</t>
-  </si>
-  <si>
-    <t>获取行业</t>
-  </si>
-  <si>
-    <t>获取主板企业：按照申万行业分类的二级行业;新三板企业：按证监会行业分类三级行业分类</t>
-  </si>
-  <si>
-    <t>CompanyInfoServices.findIndustryFlg</t>
-  </si>
-  <si>
-    <t>CompanyOutData</t>
-  </si>
-  <si>
-    <t>获取申万一级行业和二级行业或者证监会行业</t>
-  </si>
-  <si>
-    <t>CompanyInfoServices.findSwIndustry(id, "1008")</t>
-  </si>
-  <si>
-    <t>CompanyInfoServices.findSwIndustry(id, "1011")</t>
-  </si>
-  <si>
-    <t>foundDt</t>
-  </si>
-  <si>
-    <t>成立日期</t>
-  </si>
-  <si>
-    <t>regCapital</t>
-  </si>
-  <si>
-    <t>注册资本</t>
-  </si>
-  <si>
-    <t>orgFormNm</t>
-  </si>
-  <si>
-    <t>企业性质</t>
-  </si>
-  <si>
-    <t>legRepresent</t>
-  </si>
-  <si>
-    <t>法定代表人</t>
-  </si>
-  <si>
-    <t>employNum</t>
-  </si>
-  <si>
-    <t>员工总数</t>
-  </si>
-  <si>
-    <t>officeAddr</t>
-  </si>
-  <si>
-    <t>地图地址</t>
-  </si>
-  <si>
-    <t>companyPh</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>companyWeb</t>
-  </si>
-  <si>
-    <t>公司网站</t>
-  </si>
-  <si>
-    <t>businScope</t>
-  </si>
-  <si>
-    <t>经营范围</t>
-  </si>
-  <si>
-    <t>mainBusin</t>
-  </si>
-  <si>
-    <t>主营产品</t>
-  </si>
-  <si>
-    <t>sharehdName</t>
-  </si>
-  <si>
-    <t>实际控制人</t>
-  </si>
-  <si>
-    <t>isPlatform</t>
-  </si>
-  <si>
-    <t>是否城投公司</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>所属行业</t>
-  </si>
-  <si>
-    <t>regAddr</t>
-  </si>
-  <si>
-    <t>注册地址</t>
-  </si>
-  <si>
-    <t>风险预警信息</t>
-  </si>
-  <si>
-    <t>采用和热点新闻趋势一样的图</t>
   </si>
   <si>
     <t>新闻热搜词</t>
@@ -1256,8 +1265,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1317,6 +1326,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1332,6 +1387,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1340,7 +1433,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1355,14 +1448,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1371,83 +1457,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1498,85 +1507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,7 +1531,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,31 +1597,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,37 +1687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,10 +1755,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1757,54 +1764,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1828,7 +1792,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1836,8 +1830,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1849,10 +1858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1861,16 +1870,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1880,115 +1889,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3024,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3078,22 +3087,22 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
@@ -3101,20 +3110,20 @@
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3126,16 +3135,16 @@
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="I11" s="49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3149,14 +3158,14 @@
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
       <c r="I12" s="49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J12" s="49"/>
       <c r="K12" s="49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:12">
@@ -3178,16 +3187,16 @@
         <v>14</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3197,22 +3206,22 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
       <c r="I14" s="49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:12">
@@ -3226,26 +3235,26 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G15" s="49"/>
       <c r="I15" s="49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J15" s="49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
@@ -3253,7 +3262,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G16" s="49"/>
       <c r="I16" s="49"/>
@@ -3264,7 +3273,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="48"/>
       <c r="B17" s="48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
@@ -3272,7 +3281,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G17" s="49"/>
       <c r="I17" s="49"/>
@@ -3283,7 +3292,7 @@
     <row r="18" customHeight="1" spans="1:12">
       <c r="A18" s="48"/>
       <c r="B18" s="48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
@@ -3291,7 +3300,7 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G18" s="49"/>
       <c r="I18" s="49"/>
@@ -3302,7 +3311,7 @@
     <row r="19" ht="13.5" customHeight="1" spans="1:12">
       <c r="A19" s="48"/>
       <c r="B19" s="48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48" t="s">
@@ -3310,7 +3319,7 @@
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G19" s="49"/>
       <c r="I19" s="49"/>
@@ -3321,7 +3330,7 @@
     <row r="20" spans="1:12">
       <c r="A20" s="48"/>
       <c r="B20" s="48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
@@ -3329,7 +3338,7 @@
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G20" s="49"/>
       <c r="I20" s="49"/>
@@ -3340,7 +3349,7 @@
     <row r="21" spans="1:12">
       <c r="A21" s="48"/>
       <c r="B21" s="48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
@@ -3348,7 +3357,7 @@
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G21" s="49"/>
       <c r="I21" s="49"/>
@@ -3359,7 +3368,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="48"/>
       <c r="B22" s="48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -3367,14 +3376,14 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="48"/>
       <c r="B23" s="48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -3382,14 +3391,14 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G23" s="49"/>
     </row>
     <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="48"/>
       <c r="B24" s="48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -3397,14 +3406,14 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="48"/>
       <c r="B25" s="48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -3412,14 +3421,14 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -3427,14 +3436,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -3442,14 +3451,14 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="48"/>
       <c r="B28" s="48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
@@ -3457,14 +3466,14 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G28" s="49"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:7">
       <c r="A29" s="48"/>
       <c r="B29" s="48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
@@ -3472,7 +3481,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -3620,11 +3629,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
@@ -3925,12 +3934,12 @@
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="35"/>
@@ -3966,7 +3975,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="35"/>
@@ -3984,7 +3993,7 @@
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="35"/>
@@ -4136,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -4149,7 +4158,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4205,16 +4214,16 @@
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
       <c r="K9" s="49" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
@@ -4608,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -4621,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4675,22 +4684,22 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
@@ -4709,7 +4718,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -4717,7 +4726,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -4728,7 +4737,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -4736,7 +4745,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -4747,7 +4756,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -4755,7 +4764,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -4766,7 +4775,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -4774,7 +4783,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -4812,7 +4821,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -4823,7 +4832,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -4831,7 +4840,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -4904,7 +4913,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -4912,7 +4921,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -4920,7 +4929,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -4928,7 +4937,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -4936,7 +4945,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -4944,7 +4953,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -4952,7 +4961,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -4960,7 +4969,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -4968,7 +4977,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -4976,14 +4985,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -4991,7 +5000,7 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G27" s="49"/>
     </row>
@@ -5006,7 +5015,7 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G28" s="49"/>
     </row>
@@ -5021,7 +5030,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -5051,7 +5060,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G31" s="49"/>
     </row>
@@ -5181,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -5194,7 +5203,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5247,22 +5256,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="25" t="s">
@@ -5313,7 +5322,7 @@
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:10">
       <c r="A12" s="26" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -5326,15 +5335,15 @@
     <row r="13" ht="13.5" customHeight="1" spans="1:10">
       <c r="A13" s="27"/>
       <c r="B13" s="29" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="28" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G13" s="26"/>
       <c r="J13" s="23"/>
@@ -5343,7 +5352,7 @@
       <c r="A14" s="12"/>
       <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
@@ -5357,7 +5366,7 @@
       <c r="A15" s="12"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>21</v>
@@ -5371,7 +5380,7 @@
       <c r="A16" s="12"/>
       <c r="B16" s="30"/>
       <c r="C16" s="12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>21</v>
@@ -5384,7 +5393,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
@@ -5397,7 +5406,7 @@
       <c r="A18" s="12"/>
       <c r="B18" s="30"/>
       <c r="C18" s="13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>21</v>
@@ -5410,7 +5419,7 @@
       <c r="A19" s="12"/>
       <c r="B19" s="30"/>
       <c r="C19" s="13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
@@ -5423,7 +5432,7 @@
       <c r="A20" s="12"/>
       <c r="B20" s="30"/>
       <c r="C20" s="13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
@@ -5436,7 +5445,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="30"/>
       <c r="C21" s="13" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>24</v>
@@ -5449,7 +5458,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="30"/>
       <c r="C22" s="13" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>24</v>
@@ -5463,7 +5472,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="30"/>
       <c r="C23" s="13" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>24</v>
@@ -5476,7 +5485,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="30"/>
       <c r="C24" s="13" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>24</v>
@@ -5489,7 +5498,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>24</v>
@@ -5502,7 +5511,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -5515,7 +5524,7 @@
       <c r="A27" s="32"/>
       <c r="B27" s="33"/>
       <c r="C27" s="13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>21</v>
@@ -5527,11 +5536,11 @@
     <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="32"/>
       <c r="B28" s="34" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="12"/>
@@ -5554,7 +5563,7 @@
       <c r="A30" s="32"/>
       <c r="B30" s="34"/>
       <c r="C30" s="13" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -5567,7 +5576,7 @@
       <c r="A31" s="32"/>
       <c r="B31" s="34"/>
       <c r="C31" s="13" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -5580,7 +5589,7 @@
       <c r="A32" s="32"/>
       <c r="B32" s="34"/>
       <c r="C32" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>21</v>
@@ -5593,7 +5602,7 @@
       <c r="A33" s="32"/>
       <c r="B33" s="34"/>
       <c r="C33" s="13" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -5606,7 +5615,7 @@
       <c r="A34" s="32"/>
       <c r="B34" s="34"/>
       <c r="C34" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -5619,7 +5628,7 @@
       <c r="A35" s="32"/>
       <c r="B35" s="34"/>
       <c r="C35" s="13" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>21</v>
@@ -5632,7 +5641,7 @@
       <c r="A36" s="32"/>
       <c r="B36" s="34"/>
       <c r="C36" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -5645,7 +5654,7 @@
       <c r="A37" s="32"/>
       <c r="B37" s="34"/>
       <c r="C37" s="13" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -5658,7 +5667,7 @@
       <c r="A38" s="32"/>
       <c r="B38" s="34"/>
       <c r="C38" s="13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -5671,7 +5680,7 @@
       <c r="A39" s="32"/>
       <c r="B39" s="34"/>
       <c r="C39" s="13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -5684,7 +5693,7 @@
       <c r="A40" s="32"/>
       <c r="B40" s="34"/>
       <c r="C40" s="13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -5697,7 +5706,7 @@
       <c r="A41" s="32"/>
       <c r="B41" s="34"/>
       <c r="C41" s="13" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>21</v>
@@ -5710,7 +5719,7 @@
       <c r="A42" s="32"/>
       <c r="B42" s="34"/>
       <c r="C42" s="13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -5723,7 +5732,7 @@
       <c r="A43" s="32"/>
       <c r="B43" s="34"/>
       <c r="C43" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>21</v>
@@ -5736,7 +5745,7 @@
       <c r="A44" s="32"/>
       <c r="B44" s="34"/>
       <c r="C44" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>21</v>
@@ -5762,7 +5771,7 @@
       <c r="A46" s="32"/>
       <c r="B46" s="34"/>
       <c r="C46" s="13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -5775,7 +5784,7 @@
       <c r="A47" s="32"/>
       <c r="B47" s="34"/>
       <c r="C47" s="13" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>21</v>
@@ -5788,7 +5797,7 @@
       <c r="A48" s="32"/>
       <c r="B48" s="34"/>
       <c r="C48" s="13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>21</v>
@@ -5801,7 +5810,7 @@
       <c r="A49" s="32"/>
       <c r="B49" s="34"/>
       <c r="C49" s="13" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>21</v>
@@ -5814,7 +5823,7 @@
       <c r="A50" s="32"/>
       <c r="B50" s="34"/>
       <c r="C50" s="13" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -5827,7 +5836,7 @@
       <c r="A51" s="32"/>
       <c r="B51" s="34"/>
       <c r="C51" s="13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>21</v>
@@ -5840,7 +5849,7 @@
       <c r="A52" s="32"/>
       <c r="B52" s="34"/>
       <c r="C52" s="13" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>21</v>
@@ -5852,11 +5861,11 @@
     <row r="53" ht="14.25" spans="1:7">
       <c r="A53" s="32"/>
       <c r="B53" s="34" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="25" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="12"/>
@@ -5866,7 +5875,7 @@
       <c r="A54" s="32"/>
       <c r="B54" s="34"/>
       <c r="C54" s="13" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>21</v>
@@ -5879,7 +5888,7 @@
       <c r="A55" s="32"/>
       <c r="B55" s="34"/>
       <c r="C55" s="13" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>21</v>
@@ -5892,7 +5901,7 @@
       <c r="A56" s="32"/>
       <c r="B56" s="34"/>
       <c r="C56" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>21</v>
@@ -5905,7 +5914,7 @@
       <c r="A57" s="32"/>
       <c r="B57" s="34"/>
       <c r="C57" s="13" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>21</v>
@@ -5918,7 +5927,7 @@
       <c r="A58" s="32"/>
       <c r="B58" s="34"/>
       <c r="C58" s="13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>21</v>
@@ -5931,7 +5940,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="34"/>
       <c r="C59" s="13" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>21</v>
@@ -5944,7 +5953,7 @@
       <c r="A60" s="32"/>
       <c r="B60" s="34"/>
       <c r="C60" s="13" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>21</v>
@@ -5957,7 +5966,7 @@
       <c r="A61" s="32"/>
       <c r="B61" s="34"/>
       <c r="C61" s="13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>21</v>
@@ -5970,7 +5979,7 @@
       <c r="A62" s="32"/>
       <c r="B62" s="34"/>
       <c r="C62" s="13" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>21</v>
@@ -5983,7 +5992,7 @@
       <c r="A63" s="32"/>
       <c r="B63" s="34"/>
       <c r="C63" s="13" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>21</v>
@@ -6009,7 +6018,7 @@
       <c r="A65" s="32"/>
       <c r="B65" s="34"/>
       <c r="C65" s="13" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>21</v>
@@ -6022,7 +6031,7 @@
       <c r="A66" s="32"/>
       <c r="B66" s="34"/>
       <c r="C66" s="13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>21</v>
@@ -6034,11 +6043,11 @@
     <row r="67" ht="14.25" spans="1:7">
       <c r="A67" s="32"/>
       <c r="B67" s="34" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="25" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="12"/>
@@ -6048,7 +6057,7 @@
       <c r="A68" s="32"/>
       <c r="B68" s="30"/>
       <c r="C68" s="13" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>21</v>
@@ -6061,7 +6070,7 @@
       <c r="A69" s="32"/>
       <c r="B69" s="30"/>
       <c r="C69" s="13" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>21</v>
@@ -6074,7 +6083,7 @@
       <c r="A70" s="32"/>
       <c r="B70" s="30"/>
       <c r="C70" s="13" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>21</v>
@@ -6179,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -6192,7 +6201,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6245,22 +6254,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -6309,7 +6318,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -6322,7 +6331,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
@@ -6350,7 +6359,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
@@ -6363,7 +6372,7 @@
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
@@ -6376,7 +6385,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
@@ -6389,7 +6398,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="12"/>
       <c r="B18" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
@@ -6402,7 +6411,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="12"/>
       <c r="B19" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
@@ -6415,7 +6424,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
@@ -6428,11 +6437,11 @@
     <row r="21" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -6441,7 +6450,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
@@ -6454,7 +6463,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
@@ -6467,11 +6476,11 @@
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -6494,7 +6503,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -6507,7 +6516,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>21</v>
@@ -6520,7 +6529,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>21</v>
@@ -6533,7 +6542,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>21</v>
@@ -6546,7 +6555,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -6559,7 +6568,7 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -6572,7 +6581,7 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>21</v>
@@ -6585,7 +6594,7 @@
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -6598,7 +6607,7 @@
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -6610,11 +6619,11 @@
     <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -6637,7 +6646,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -6650,7 +6659,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -6663,7 +6672,7 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="12" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -6676,7 +6685,7 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -6688,11 +6697,11 @@
     <row r="41" spans="1:7">
       <c r="A41" s="12"/>
       <c r="B41" s="13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -6754,7 +6763,7 @@
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -6793,7 +6802,7 @@
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>21</v>
@@ -6806,7 +6815,7 @@
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -6924,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -6937,7 +6946,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6990,22 +6999,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -7055,11 +7064,11 @@
     <row r="12" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="15" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -7070,14 +7079,14 @@
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G13" s="14"/>
       <c r="J13" s="23"/>
@@ -7086,14 +7095,14 @@
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G14" s="14"/>
       <c r="J14" s="23"/>
@@ -7102,14 +7111,14 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -7117,14 +7126,14 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -7132,14 +7141,14 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G17" s="14"/>
     </row>
@@ -7239,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -7252,7 +7261,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7260,7 +7269,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -7305,16 +7314,16 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" ht="15.95" customHeight="1" spans="1:12">
@@ -7339,7 +7348,7 @@
     <row r="10" ht="24" spans="1:12">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
@@ -7347,7 +7356,7 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="12" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G10" s="14"/>
       <c r="I10" s="20"/>
@@ -7358,7 +7367,7 @@
     <row r="11" ht="24" spans="1:12">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
@@ -7366,7 +7375,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="12" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G11" s="14"/>
       <c r="I11" s="20"/>
@@ -7411,15 +7420,15 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="15" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G14" s="14"/>
       <c r="J14" s="23"/>
@@ -7480,7 +7489,7 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G18" s="14"/>
     </row>
@@ -7488,14 +7497,14 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="16" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G19" s="14"/>
     </row>
@@ -7503,14 +7512,14 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="16" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G20" s="14"/>
     </row>
@@ -7564,7 +7573,7 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G24" s="14"/>
     </row>
@@ -7656,7 +7665,7 @@
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G31" s="14"/>
     </row>
@@ -9399,10 +9408,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9753,33 +9762,33 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="46"/>
-      <c r="B19" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46" t="s">
-        <v>26</v>
-      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="46"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="F19" s="46" t="s">
+        <v>135</v>
+      </c>
       <c r="G19" s="46"/>
       <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46" t="s">
+        <v>26</v>
+      </c>
       <c r="E20" s="46"/>
-      <c r="F20" s="46" t="s">
-        <v>134</v>
-      </c>
+      <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
@@ -9791,12 +9800,12 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="35"/>
@@ -9809,11 +9818,9 @@
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>21</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D22" s="46"/>
       <c r="E22" s="46"/>
       <c r="F22" s="46" t="s">
         <v>137</v>
@@ -9828,10 +9835,16 @@
     <row r="23" spans="1:12">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>21</v>
+      </c>
       <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="F23" s="46" t="s">
+        <v>135</v>
+      </c>
       <c r="G23" s="46"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
@@ -9840,15 +9853,13 @@
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
@@ -9856,23 +9867,15 @@
       <c r="L24" s="35"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>14</v>
-      </c>
+      <c r="A25" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
@@ -9880,35 +9883,59 @@
       <c r="L25" s="35"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="49"/>
-      <c r="B26" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="53"/>
+      <c r="A26" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>14</v>
+      </c>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:12">
       <c r="A27" s="49"/>
       <c r="B27" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C27" s="53"/>
       <c r="D27" s="48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="48"/>
       <c r="G27" s="53"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="49"/>
+      <c r="B28" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9916,8 +9943,8 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -9963,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -9997,7 +10024,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -10128,10 +10155,10 @@
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
@@ -10146,7 +10173,7 @@
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
       <c r="I11" s="49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
@@ -10676,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -10689,7 +10716,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10743,22 +10770,22 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
@@ -10777,7 +10804,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -10785,7 +10812,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -10796,7 +10823,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -10804,7 +10831,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -10815,7 +10842,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -10823,7 +10850,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -10834,7 +10861,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -10842,7 +10869,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -10880,7 +10907,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -10891,7 +10918,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -10899,7 +10926,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -10972,7 +10999,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -10980,7 +11007,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -10988,7 +11015,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -10996,7 +11023,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -11004,7 +11031,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -11012,7 +11039,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -11020,7 +11047,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -11028,7 +11055,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -11036,7 +11063,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -11044,14 +11071,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -11059,7 +11086,7 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G27" s="49"/>
     </row>
@@ -11074,7 +11101,7 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G28" s="49"/>
     </row>
@@ -11089,7 +11116,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -11119,7 +11146,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G31" s="49"/>
     </row>
@@ -11254,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -11267,7 +11294,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11321,14 +11348,14 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -11340,14 +11367,14 @@
       <c r="F10" s="48"/>
       <c r="G10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -11405,7 +11432,7 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
@@ -11423,7 +11450,7 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G15" s="49"/>
       <c r="I15" s="38"/>
@@ -11431,11 +11458,11 @@
     <row r="16" spans="1:9">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
@@ -11453,7 +11480,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G17" s="49"/>
       <c r="I17" s="38"/>
@@ -11469,7 +11496,7 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G18" s="49"/>
       <c r="I18" s="38"/>
@@ -11485,7 +11512,7 @@
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G19" s="49"/>
     </row>
@@ -11500,7 +11527,7 @@
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G20" s="49"/>
     </row>
@@ -11508,14 +11535,14 @@
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G21" s="49"/>
     </row>
@@ -11530,7 +11557,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G22" s="49"/>
     </row>
@@ -11538,14 +11565,14 @@
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G23" s="49"/>
     </row>
@@ -11553,14 +11580,14 @@
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G24" s="49"/>
     </row>

--- a/docs/2程序设计/程序接口设计.xlsx
+++ b/docs/2程序设计/程序接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="demon" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386">
   <si>
     <t>接口名</t>
   </si>
@@ -117,10 +117,97 @@
     <t>负面新闻跟踪接口</t>
   </si>
   <si>
+    <t>/#urlregionRisk/lastingBondViolation/{page}</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>当前页数,一页10条</t>
+  </si>
+  <si>
+    <t>BaseOutData</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>List&lt;Object&gt;</t>
+  </si>
+  <si>
+    <t>companyId</t>
+  </si>
+  <si>
+    <t>相关公司id</t>
+  </si>
+  <si>
+    <t>companyNm</t>
+  </si>
+  <si>
+    <t>相关公司</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>newsCode</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>重要度</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>cnn_score</t>
+  </si>
+  <si>
+    <t>selectDate</t>
+  </si>
+  <si>
+    <t>初始查询月份</t>
+  </si>
+  <si>
+    <t>mediaNm</t>
+  </si>
+  <si>
+    <t>新闻来源</t>
+  </si>
+  <si>
+    <t>件数</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>1：成功，2：失败</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>注意：</t>
+  </si>
+  <si>
+    <t>以下为后台参考用，前台使用上面的</t>
+  </si>
+  <si>
     <t>/creditWarning/lastingBondViolation/{page}</t>
-  </si>
-  <si>
-    <t>Get</t>
   </si>
   <si>
     <t>control</t>
@@ -139,70 +226,7 @@
     <t>CreditWarningServicesImpl.getLastingBondViolationNews</t>
   </si>
   <si>
-    <t>page</t>
-  </si>
-  <si>
     <t>当前页数</t>
-  </si>
-  <si>
-    <t>companyId</t>
-  </si>
-  <si>
-    <t>相关公司id</t>
-  </si>
-  <si>
-    <t>companyNm</t>
-  </si>
-  <si>
-    <t>相关公司</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>newsCode</t>
-  </si>
-  <si>
-    <t>importance</t>
-  </si>
-  <si>
-    <t>重要度</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>cnn_score</t>
-  </si>
-  <si>
-    <t>selectDate</t>
-  </si>
-  <si>
-    <t>初始查询月份</t>
-  </si>
-  <si>
-    <t>mediaNm</t>
-  </si>
-  <si>
-    <t>新闻来源</t>
-  </si>
-  <si>
-    <t>件数</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>1：成功，2：失败</t>
-  </si>
-  <si>
-    <t>msg</t>
   </si>
   <si>
     <t>/creditWarning/warningTop5/{userId}</t>
@@ -448,6 +472,72 @@
     <t>POST</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>时间分类(1:日/2:月/3:季)</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>conent</t>
+  </si>
+  <si>
+    <t>totalCount</t>
+  </si>
+  <si>
+    <t>月新闻总量</t>
+  </si>
+  <si>
+    <t>negativeTotalCount</t>
+  </si>
+  <si>
+    <t>月负面新闻总量</t>
+  </si>
+  <si>
+    <t>totalRatio</t>
+  </si>
+  <si>
+    <t>月负面新闻占比</t>
+  </si>
+  <si>
+    <t>countDate</t>
+  </si>
+  <si>
+    <t>哪年哪月的数据</t>
+  </si>
+  <si>
+    <t>singleNews</t>
+  </si>
+  <si>
+    <t>新闻统计信息</t>
+  </si>
+  <si>
+    <t>newscount</t>
+  </si>
+  <si>
+    <t>每天的新闻量</t>
+  </si>
+  <si>
+    <t>negativeNewsCount</t>
+  </si>
+  <si>
+    <t>每天的负面新闻量</t>
+  </si>
+  <si>
+    <t>postDt</t>
+  </si>
+  <si>
+    <t>新闻日期</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>负面新闻占比</t>
+  </si>
+  <si>
     <t>查询新闻资料</t>
   </si>
   <si>
@@ -458,39 +548,6 @@
   </si>
   <si>
     <t>NewsWarningServices.findchartGroup</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>时间分类(1:日/2:月/3:季)</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>newscount</t>
-  </si>
-  <si>
-    <t>每天的新闻量</t>
-  </si>
-  <si>
-    <t>negativeNewsCount</t>
-  </si>
-  <si>
-    <t>每天的负面新闻量</t>
-  </si>
-  <si>
-    <t>postDt</t>
-  </si>
-  <si>
-    <t>新闻日期</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>负面新闻占比</t>
   </si>
   <si>
     <t>新闻总量</t>
@@ -1043,9 +1100,6 @@
     <t>CompanyInfoServicesImpl.getRptDtChk</t>
   </si>
   <si>
-    <t>Object</t>
-  </si>
-  <si>
     <t>companyCd</t>
   </si>
   <si>
@@ -1059,9 +1113,6 @@
   </si>
   <si>
     <t>compyGuaranteeOutData</t>
-  </si>
-  <si>
-    <t>List&lt;Object&gt;</t>
   </si>
   <si>
     <t>guarEndDt</t>
@@ -1269,7 +1320,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1327,8 +1378,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1342,24 +1393,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1379,6 +1414,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1387,7 +1453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1418,6 +1484,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1425,40 +1507,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1507,12 +1566,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1525,7 +1578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,7 +1602,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,19 +1644,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,13 +1674,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,13 +1704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,37 +1722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,37 +1734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,11 +1847,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1812,41 +1901,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1858,10 +1917,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1870,16 +1929,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1889,122 +1948,122 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2176,17 +2235,38 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3033,7 +3113,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3087,43 +3167,43 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="38" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3135,16 +3215,16 @@
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="I11" s="49" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3158,14 +3238,14 @@
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
       <c r="I12" s="49" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J12" s="49"/>
       <c r="K12" s="49" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:12">
@@ -3187,16 +3267,16 @@
         <v>14</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3206,22 +3286,22 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="38" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
       <c r="I14" s="49" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:12">
@@ -3235,26 +3315,26 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G15" s="49"/>
       <c r="I15" s="49" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J15" s="49" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
@@ -3262,7 +3342,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="G16" s="49"/>
       <c r="I16" s="49"/>
@@ -3273,7 +3353,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="48"/>
       <c r="B17" s="48" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
@@ -3281,7 +3361,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G17" s="49"/>
       <c r="I17" s="49"/>
@@ -3292,7 +3372,7 @@
     <row r="18" customHeight="1" spans="1:12">
       <c r="A18" s="48"/>
       <c r="B18" s="48" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
@@ -3300,7 +3380,7 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G18" s="49"/>
       <c r="I18" s="49"/>
@@ -3311,7 +3391,7 @@
     <row r="19" ht="13.5" customHeight="1" spans="1:12">
       <c r="A19" s="48"/>
       <c r="B19" s="48" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48" t="s">
@@ -3319,7 +3399,7 @@
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="G19" s="49"/>
       <c r="I19" s="49"/>
@@ -3330,7 +3410,7 @@
     <row r="20" spans="1:12">
       <c r="A20" s="48"/>
       <c r="B20" s="48" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
@@ -3338,7 +3418,7 @@
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G20" s="49"/>
       <c r="I20" s="49"/>
@@ -3349,7 +3429,7 @@
     <row r="21" spans="1:12">
       <c r="A21" s="48"/>
       <c r="B21" s="48" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
@@ -3357,7 +3437,7 @@
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G21" s="49"/>
       <c r="I21" s="49"/>
@@ -3368,7 +3448,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="48"/>
       <c r="B22" s="48" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -3376,14 +3456,14 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="48"/>
       <c r="B23" s="48" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -3391,14 +3471,14 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="G23" s="49"/>
     </row>
     <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="48"/>
       <c r="B24" s="48" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -3406,14 +3486,14 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="48"/>
       <c r="B25" s="48" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -3421,14 +3501,14 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="48" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="48" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -3436,29 +3516,29 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="48" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="48"/>
       <c r="B28" s="48" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
@@ -3466,14 +3546,14 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G28" s="49"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:7">
       <c r="A29" s="48"/>
       <c r="B29" s="48" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
@@ -3481,7 +3561,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -3629,11 +3709,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
@@ -3665,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3683,7 +3763,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -3766,30 +3846,30 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="35"/>
@@ -3802,14 +3882,14 @@
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="48" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
@@ -3898,12 +3978,12 @@
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="35"/>
@@ -3916,12 +3996,12 @@
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G17" s="46"/>
       <c r="H17" s="35"/>
@@ -3934,12 +4014,12 @@
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="35"/>
@@ -3970,12 +4050,12 @@
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="46" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="35"/>
@@ -3988,12 +4068,12 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="35"/>
@@ -4145,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -4158,7 +4238,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4214,24 +4294,24 @@
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
       <c r="K9" s="49" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G10" s="49"/>
       <c r="I10" s="49"/>
@@ -4617,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -4630,7 +4710,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4638,7 +4718,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -4684,30 +4764,30 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G10" s="46"/>
       <c r="I10" s="49"/>
@@ -4718,7 +4798,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -4726,7 +4806,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -4737,7 +4817,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -4745,7 +4825,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -4756,7 +4836,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -4764,7 +4844,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -4775,7 +4855,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -4783,7 +4863,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -4794,7 +4874,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46" t="s">
@@ -4802,7 +4882,7 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G15" s="46"/>
       <c r="I15" s="49"/>
@@ -4813,7 +4893,7 @@
     <row r="16" spans="1:12">
       <c r="A16" s="46"/>
       <c r="B16" s="46" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46" t="s">
@@ -4821,7 +4901,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -4832,7 +4912,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -4840,7 +4920,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -4898,7 +4978,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
@@ -4913,7 +4993,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -4921,7 +5001,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -4929,7 +5009,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -4937,7 +5017,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -4945,7 +5025,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -4953,7 +5033,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -4961,7 +5041,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -4969,7 +5049,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -4977,7 +5057,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -4985,14 +5065,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -5000,14 +5080,14 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="46" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="48"/>
       <c r="B28" s="46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
@@ -5015,14 +5095,14 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="46" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="48"/>
       <c r="B29" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
@@ -5030,14 +5110,14 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="46" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="48"/>
       <c r="B30" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
@@ -5045,7 +5125,7 @@
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="49"/>
     </row>
@@ -5060,7 +5140,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G31" s="49"/>
     </row>
@@ -5190,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -5203,7 +5283,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5231,7 +5311,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>11</v>
@@ -5256,22 +5336,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="25" t="s">
@@ -5322,7 +5402,7 @@
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:10">
       <c r="A12" s="26" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -5335,15 +5415,15 @@
     <row r="13" ht="13.5" customHeight="1" spans="1:10">
       <c r="A13" s="27"/>
       <c r="B13" s="29" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="28" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="G13" s="26"/>
       <c r="J13" s="23"/>
@@ -5352,7 +5432,7 @@
       <c r="A14" s="12"/>
       <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
@@ -5366,7 +5446,7 @@
       <c r="A15" s="12"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>21</v>
@@ -5380,7 +5460,7 @@
       <c r="A16" s="12"/>
       <c r="B16" s="30"/>
       <c r="C16" s="12" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>21</v>
@@ -5393,7 +5473,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
@@ -5406,7 +5486,7 @@
       <c r="A18" s="12"/>
       <c r="B18" s="30"/>
       <c r="C18" s="13" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>21</v>
@@ -5419,7 +5499,7 @@
       <c r="A19" s="12"/>
       <c r="B19" s="30"/>
       <c r="C19" s="13" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
@@ -5432,7 +5512,7 @@
       <c r="A20" s="12"/>
       <c r="B20" s="30"/>
       <c r="C20" s="13" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
@@ -5445,7 +5525,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="30"/>
       <c r="C21" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>24</v>
@@ -5458,7 +5538,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="30"/>
       <c r="C22" s="13" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>24</v>
@@ -5472,7 +5552,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="30"/>
       <c r="C23" s="13" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>24</v>
@@ -5485,7 +5565,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="30"/>
       <c r="C24" s="13" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>24</v>
@@ -5498,7 +5578,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>24</v>
@@ -5511,7 +5591,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -5524,7 +5604,7 @@
       <c r="A27" s="32"/>
       <c r="B27" s="33"/>
       <c r="C27" s="13" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>21</v>
@@ -5536,11 +5616,11 @@
     <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="32"/>
       <c r="B28" s="34" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="12"/>
@@ -5563,7 +5643,7 @@
       <c r="A30" s="32"/>
       <c r="B30" s="34"/>
       <c r="C30" s="13" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -5576,7 +5656,7 @@
       <c r="A31" s="32"/>
       <c r="B31" s="34"/>
       <c r="C31" s="13" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -5589,7 +5669,7 @@
       <c r="A32" s="32"/>
       <c r="B32" s="34"/>
       <c r="C32" s="13" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>21</v>
@@ -5602,7 +5682,7 @@
       <c r="A33" s="32"/>
       <c r="B33" s="34"/>
       <c r="C33" s="13" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -5615,7 +5695,7 @@
       <c r="A34" s="32"/>
       <c r="B34" s="34"/>
       <c r="C34" s="13" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -5628,7 +5708,7 @@
       <c r="A35" s="32"/>
       <c r="B35" s="34"/>
       <c r="C35" s="13" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>21</v>
@@ -5641,7 +5721,7 @@
       <c r="A36" s="32"/>
       <c r="B36" s="34"/>
       <c r="C36" s="13" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -5654,7 +5734,7 @@
       <c r="A37" s="32"/>
       <c r="B37" s="34"/>
       <c r="C37" s="13" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -5667,7 +5747,7 @@
       <c r="A38" s="32"/>
       <c r="B38" s="34"/>
       <c r="C38" s="13" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -5680,7 +5760,7 @@
       <c r="A39" s="32"/>
       <c r="B39" s="34"/>
       <c r="C39" s="13" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -5693,7 +5773,7 @@
       <c r="A40" s="32"/>
       <c r="B40" s="34"/>
       <c r="C40" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -5706,7 +5786,7 @@
       <c r="A41" s="32"/>
       <c r="B41" s="34"/>
       <c r="C41" s="13" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>21</v>
@@ -5719,7 +5799,7 @@
       <c r="A42" s="32"/>
       <c r="B42" s="34"/>
       <c r="C42" s="13" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -5732,7 +5812,7 @@
       <c r="A43" s="32"/>
       <c r="B43" s="34"/>
       <c r="C43" s="13" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>21</v>
@@ -5745,7 +5825,7 @@
       <c r="A44" s="32"/>
       <c r="B44" s="34"/>
       <c r="C44" s="13" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>21</v>
@@ -5771,7 +5851,7 @@
       <c r="A46" s="32"/>
       <c r="B46" s="34"/>
       <c r="C46" s="13" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -5784,7 +5864,7 @@
       <c r="A47" s="32"/>
       <c r="B47" s="34"/>
       <c r="C47" s="13" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>21</v>
@@ -5797,7 +5877,7 @@
       <c r="A48" s="32"/>
       <c r="B48" s="34"/>
       <c r="C48" s="13" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>21</v>
@@ -5810,7 +5890,7 @@
       <c r="A49" s="32"/>
       <c r="B49" s="34"/>
       <c r="C49" s="13" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>21</v>
@@ -5823,7 +5903,7 @@
       <c r="A50" s="32"/>
       <c r="B50" s="34"/>
       <c r="C50" s="13" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -5836,7 +5916,7 @@
       <c r="A51" s="32"/>
       <c r="B51" s="34"/>
       <c r="C51" s="13" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>21</v>
@@ -5849,7 +5929,7 @@
       <c r="A52" s="32"/>
       <c r="B52" s="34"/>
       <c r="C52" s="13" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>21</v>
@@ -5861,11 +5941,11 @@
     <row r="53" ht="14.25" spans="1:7">
       <c r="A53" s="32"/>
       <c r="B53" s="34" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="25" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="12"/>
@@ -5875,7 +5955,7 @@
       <c r="A54" s="32"/>
       <c r="B54" s="34"/>
       <c r="C54" s="13" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>21</v>
@@ -5888,7 +5968,7 @@
       <c r="A55" s="32"/>
       <c r="B55" s="34"/>
       <c r="C55" s="13" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>21</v>
@@ -5901,7 +5981,7 @@
       <c r="A56" s="32"/>
       <c r="B56" s="34"/>
       <c r="C56" s="13" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>21</v>
@@ -5914,7 +5994,7 @@
       <c r="A57" s="32"/>
       <c r="B57" s="34"/>
       <c r="C57" s="13" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>21</v>
@@ -5927,7 +6007,7 @@
       <c r="A58" s="32"/>
       <c r="B58" s="34"/>
       <c r="C58" s="13" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>21</v>
@@ -5940,7 +6020,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="34"/>
       <c r="C59" s="13" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>21</v>
@@ -5953,7 +6033,7 @@
       <c r="A60" s="32"/>
       <c r="B60" s="34"/>
       <c r="C60" s="13" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>21</v>
@@ -5966,7 +6046,7 @@
       <c r="A61" s="32"/>
       <c r="B61" s="34"/>
       <c r="C61" s="13" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>21</v>
@@ -5979,7 +6059,7 @@
       <c r="A62" s="32"/>
       <c r="B62" s="34"/>
       <c r="C62" s="13" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>21</v>
@@ -5992,7 +6072,7 @@
       <c r="A63" s="32"/>
       <c r="B63" s="34"/>
       <c r="C63" s="13" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>21</v>
@@ -6005,7 +6085,7 @@
       <c r="A64" s="32"/>
       <c r="B64" s="34"/>
       <c r="C64" s="13" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>21</v>
@@ -6018,7 +6098,7 @@
       <c r="A65" s="32"/>
       <c r="B65" s="34"/>
       <c r="C65" s="13" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>21</v>
@@ -6031,7 +6111,7 @@
       <c r="A66" s="32"/>
       <c r="B66" s="34"/>
       <c r="C66" s="13" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>21</v>
@@ -6043,11 +6123,11 @@
     <row r="67" ht="14.25" spans="1:7">
       <c r="A67" s="32"/>
       <c r="B67" s="34" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="25" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="12"/>
@@ -6057,7 +6137,7 @@
       <c r="A68" s="32"/>
       <c r="B68" s="30"/>
       <c r="C68" s="13" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>21</v>
@@ -6070,7 +6150,7 @@
       <c r="A69" s="32"/>
       <c r="B69" s="30"/>
       <c r="C69" s="13" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>21</v>
@@ -6083,7 +6163,7 @@
       <c r="A70" s="32"/>
       <c r="B70" s="30"/>
       <c r="C70" s="13" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>21</v>
@@ -6131,14 +6211,14 @@
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G73" s="17"/>
     </row>
     <row r="74" customHeight="1" spans="1:7">
       <c r="A74" s="14"/>
       <c r="B74" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="13"/>
@@ -6188,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -6201,7 +6281,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6229,7 +6309,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>11</v>
@@ -6254,22 +6334,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -6318,7 +6398,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
-        <v>314</v>
+        <v>33</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -6331,7 +6411,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
@@ -6359,7 +6439,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
@@ -6372,7 +6452,7 @@
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
@@ -6385,7 +6465,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
@@ -6398,7 +6478,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="12"/>
       <c r="B18" s="13" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
@@ -6411,7 +6491,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="12"/>
       <c r="B19" s="13" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
@@ -6424,7 +6504,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
@@ -6437,11 +6517,11 @@
     <row r="21" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -6450,7 +6530,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
@@ -6463,7 +6543,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
@@ -6476,11 +6556,11 @@
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -6490,7 +6570,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>21</v>
@@ -6503,7 +6583,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -6516,7 +6596,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>21</v>
@@ -6529,7 +6609,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>21</v>
@@ -6542,7 +6622,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>21</v>
@@ -6555,7 +6635,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -6568,7 +6648,7 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -6581,7 +6661,7 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>21</v>
@@ -6594,7 +6674,7 @@
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -6607,7 +6687,7 @@
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -6619,11 +6699,11 @@
     <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="13" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -6633,7 +6713,7 @@
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -6646,7 +6726,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -6659,7 +6739,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -6672,7 +6752,7 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="12" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -6685,7 +6765,7 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="12" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -6697,11 +6777,11 @@
     <row r="41" spans="1:7">
       <c r="A41" s="12"/>
       <c r="B41" s="13" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -6711,7 +6791,7 @@
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -6750,7 +6830,7 @@
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="24" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>21</v>
@@ -6763,7 +6843,7 @@
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="24" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -6776,7 +6856,7 @@
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="15" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>21</v>
@@ -6802,7 +6882,7 @@
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="24" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>21</v>
@@ -6815,7 +6895,7 @@
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="24" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -6828,7 +6908,7 @@
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>21</v>
@@ -6876,14 +6956,14 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G54" s="17"/>
     </row>
     <row r="55" customHeight="1" spans="1:7">
       <c r="A55" s="14"/>
       <c r="B55" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="13"/>
@@ -6933,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -6946,7 +7026,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6974,7 +7054,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>11</v>
@@ -6999,22 +7079,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -7064,11 +7144,11 @@
     <row r="12" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="15" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -7079,14 +7159,14 @@
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="G13" s="14"/>
       <c r="J13" s="23"/>
@@ -7095,14 +7175,14 @@
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="G14" s="14"/>
       <c r="J14" s="23"/>
@@ -7111,14 +7191,14 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -7126,14 +7206,14 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -7141,14 +7221,14 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="G17" s="14"/>
     </row>
@@ -7191,14 +7271,14 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="17"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="14"/>
       <c r="B21" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="13"/>
@@ -7225,7 +7305,7 @@
   <sheetPr/>
   <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -7248,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -7261,7 +7341,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7269,7 +7349,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -7289,7 +7369,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>11</v>
@@ -7314,22 +7394,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" ht="15.95" customHeight="1" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13" t="s">
@@ -7337,7 +7417,7 @@
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="12" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G9" s="14"/>
       <c r="I9" s="20"/>
@@ -7348,7 +7428,7 @@
     <row r="10" ht="24" spans="1:12">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
@@ -7356,7 +7436,7 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="12" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="G10" s="14"/>
       <c r="I10" s="20"/>
@@ -7367,7 +7447,7 @@
     <row r="11" ht="24" spans="1:12">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
@@ -7375,7 +7455,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="12" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="G11" s="14"/>
       <c r="I11" s="20"/>
@@ -7420,15 +7500,15 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="15" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="G14" s="14"/>
       <c r="J14" s="23"/>
@@ -7468,7 +7548,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="12" t="s">
@@ -7481,7 +7561,7 @@
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="12" t="s">
@@ -7489,7 +7569,7 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="G18" s="14"/>
     </row>
@@ -7497,14 +7577,14 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="16" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="G19" s="14"/>
     </row>
@@ -7512,21 +7592,21 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="16" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="12" t="s">
@@ -7539,7 +7619,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="12" t="s">
@@ -7552,7 +7632,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="12" t="s">
@@ -7565,7 +7645,7 @@
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="12" t="s">
@@ -7573,14 +7653,14 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="12" t="s">
@@ -7593,7 +7673,7 @@
     <row r="26" spans="1:7">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="12" t="s">
@@ -7606,7 +7686,7 @@
     <row r="27" spans="1:7">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="12" t="s">
@@ -7619,7 +7699,7 @@
     <row r="28" spans="1:7">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="12" t="s">
@@ -7632,7 +7712,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="12" t="s">
@@ -7645,7 +7725,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="12" t="s">
@@ -7665,7 +7745,7 @@
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G31" s="14"/>
     </row>
@@ -7708,14 +7788,14 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="17"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="14"/>
       <c r="B35" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="13"/>
@@ -7756,338 +7836,330 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L29"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="7" style="35" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="35" customWidth="1"/>
     <col min="2" max="2" width="18" style="35" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="35" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="35" customWidth="1"/>
-    <col min="7" max="8" width="9" style="35"/>
-    <col min="9" max="9" width="11.375" style="35" customWidth="1"/>
-    <col min="10" max="10" width="38.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="35"/>
+    <col min="3" max="4" width="13.875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="35" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="35" customWidth="1"/>
+    <col min="8" max="9" width="9" style="35"/>
+    <col min="10" max="10" width="11.375" style="35" customWidth="1"/>
+    <col min="11" max="11" width="38.375" style="35" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" s="36" t="s">
+    <row r="1" s="35" customFormat="1" spans="1:2">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B1" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="12.75" spans="1:1">
+    <row r="2" s="35" customFormat="1" ht="12.75" spans="1:1">
+      <c r="A2" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="35" customFormat="1" ht="13.5" spans="1:2">
       <c r="A3" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" spans="1:2">
-      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="35" t="s">
+    <row r="4" s="35" customFormat="1" spans="1:2">
+      <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B4" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="39" t="s">
+    <row r="6" s="35" customFormat="1" spans="1:13">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="I7" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="52" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+    </row>
+    <row r="7" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:13">
+      <c r="A7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="H7" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+    </row>
+    <row r="8" s="35" customFormat="1" spans="1:13">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A8" s="42" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+    </row>
+    <row r="9" s="35" customFormat="1" spans="1:13">
+      <c r="A9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+    </row>
+    <row r="10" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="F10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="G10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="H10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="59" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="E11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="59" t="s">
+    </row>
+    <row r="12" s="35" customFormat="1" spans="2:8">
+      <c r="B12" s="48" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" s="35" customFormat="1" spans="1:8">
+      <c r="A13" s="48"/>
+      <c r="C13" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="48" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A12" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" s="35" customFormat="1" spans="1:8">
       <c r="A14" s="48"/>
-      <c r="B14" s="48" t="s">
+      <c r="D14" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48" t="s">
+      <c r="E14" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="49"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="49"/>
+    </row>
+    <row r="15" s="35" customFormat="1" spans="1:8">
       <c r="A15" s="48"/>
-      <c r="B15" s="48" t="s">
+      <c r="D15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48" t="s">
+      <c r="E15" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="49"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="49"/>
+    </row>
+    <row r="16" s="35" customFormat="1" spans="1:8">
       <c r="A16" s="48"/>
-      <c r="B16" s="48" t="s">
+      <c r="D16" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="48"/>
+      <c r="E16" s="48" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:7">
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" s="35" customFormat="1" customHeight="1" spans="1:8">
       <c r="A17" s="48"/>
-      <c r="B17" s="48" t="s">
+      <c r="D17" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="48" t="s">
+        <v>21</v>
+      </c>
       <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" s="35" customFormat="1" spans="1:8">
       <c r="A18" s="48"/>
-      <c r="B18" s="46" t="s">
+      <c r="D18" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+    </row>
+    <row r="19" s="35" customFormat="1" spans="1:8">
+      <c r="A19" s="48"/>
+      <c r="D19" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="48"/>
-      <c r="B19" s="46" t="s">
+      <c r="E19" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
+    </row>
+    <row r="20" s="35" customFormat="1" spans="1:8">
+      <c r="A20" s="48"/>
+      <c r="D20" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="48"/>
-      <c r="B20" s="46" t="s">
+      <c r="E20" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48" t="s">
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" s="35" customFormat="1" spans="1:8">
+      <c r="A21" s="48"/>
+      <c r="D21" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="49"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="48"/>
-      <c r="B21" s="46" t="s">
+      <c r="E21" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" s="35" customFormat="1" spans="1:8">
+      <c r="A22" s="48"/>
+      <c r="D22" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="48"/>
-      <c r="B22" s="46" t="s">
+      <c r="E22" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" s="35" customFormat="1" spans="1:8">
+      <c r="A23" s="48"/>
+      <c r="D23" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="48"/>
-      <c r="B23" s="46" t="s">
+      <c r="E23" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48" t="s">
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" s="35" customFormat="1" spans="1:8">
+      <c r="A24" s="48"/>
+      <c r="D24" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="48"/>
-      <c r="B24" s="46" t="s">
+      <c r="E24" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="49"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="49"/>
+    </row>
+    <row r="25" s="35" customFormat="1" spans="1:8">
       <c r="A25" s="46" t="s">
         <v>22</v>
       </c>
@@ -8095,73 +8167,462 @@
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="49"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" s="46"/>
+      <c r="G25" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="49"/>
+    </row>
+    <row r="26" s="35" customFormat="1" spans="1:8">
       <c r="A26" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="43"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="44"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1" spans="1:7">
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
       <c r="A27" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="64"/>
+      <c r="E27" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="F27" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="G27" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="H27" s="44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" s="35" customFormat="1" customHeight="1" spans="1:8">
       <c r="A28" s="49"/>
       <c r="B28" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:7">
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" s="35" customFormat="1" customHeight="1" spans="1:8">
       <c r="A29" s="49"/>
       <c r="B29" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="53"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="53"/>
+      <c r="B52" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="60"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" ht="12.75" spans="1:1">
+      <c r="A55" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" spans="1:2">
+      <c r="A56" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="41"/>
+      <c r="J59" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="M59" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" customHeight="1" spans="1:13">
+      <c r="A60" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="L60" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="M60" s="67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="48"/>
+      <c r="B61" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="48"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="49"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="49"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="41"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+    </row>
+    <row r="64" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A64" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="49"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="48"/>
+      <c r="B66" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="49"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="48"/>
+      <c r="B67" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" s="49"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="48"/>
+      <c r="B68" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="49"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:8">
+      <c r="A69" s="48"/>
+      <c r="B69" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="49"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="48"/>
+      <c r="B70" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="49"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="48"/>
+      <c r="B71" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="49"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="48"/>
+      <c r="B72" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="49"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="48"/>
+      <c r="B73" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="49"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="48"/>
+      <c r="B74" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="49"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H75" s="49"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+    </row>
+    <row r="77" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A77" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:8">
+      <c r="A78" s="49"/>
+      <c r="B78" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="53"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" s="53"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:8">
+      <c r="A79" s="49"/>
+      <c r="B79" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="53"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:C12"/>
+  <mergeCells count="12">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -8242,7 +8703,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -8343,46 +8804,46 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8395,16 +8856,16 @@
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
       <c r="I11" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>60</v>
-      </c>
       <c r="L11" s="49" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8419,13 +8880,13 @@
       <c r="G12" s="41"/>
       <c r="H12" s="35"/>
       <c r="I12" s="49" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L12" s="49"/>
     </row>
@@ -8459,8 +8920,8 @@
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="57" t="s">
-        <v>74</v>
+      <c r="D14" s="63" t="s">
+        <v>82</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
@@ -8473,8 +8934,8 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
-      <c r="B15" s="57" t="s">
-        <v>75</v>
+      <c r="B15" s="63" t="s">
+        <v>83</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -8498,7 +8959,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -8518,7 +8979,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -8531,7 +8992,7 @@
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>21</v>
@@ -8549,14 +9010,14 @@
       <c r="A19" s="48"/>
       <c r="B19" s="46"/>
       <c r="C19" s="48" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="35"/>
@@ -8569,7 +9030,7 @@
       <c r="A20" s="48"/>
       <c r="B20" s="46"/>
       <c r="C20" s="48" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
@@ -8587,7 +9048,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="48" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
@@ -8605,7 +9066,7 @@
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="48" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
@@ -8623,14 +9084,14 @@
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="48" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="35"/>
@@ -8643,7 +9104,7 @@
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="48" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>24</v>
@@ -8661,7 +9122,7 @@
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="48" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>24</v>
@@ -8679,7 +9140,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="48" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>24</v>
@@ -8697,7 +9158,7 @@
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="48" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>24</v>
@@ -8715,7 +9176,7 @@
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="48" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>21</v>
@@ -8733,7 +9194,7 @@
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="48" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>21</v>
@@ -8751,14 +9212,14 @@
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="48" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="46" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="35"/>
@@ -8771,14 +9232,14 @@
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="48" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="46" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="35"/>
@@ -8932,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -8966,7 +9427,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -9067,63 +9528,63 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D11" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="49"/>
@@ -9192,7 +9653,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="48"/>
       <c r="B15" s="48" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
@@ -9211,12 +9672,12 @@
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -9229,12 +9690,12 @@
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -9246,7 +9707,7 @@
     <row r="18" spans="1:12">
       <c r="A18" s="48"/>
       <c r="B18" s="48" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
@@ -9265,12 +9726,12 @@
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="35"/>
@@ -9283,12 +9744,12 @@
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="35"/>
@@ -9408,25 +9869,32 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="37" customWidth="1"/>
-    <col min="11" max="11" width="35" customWidth="1"/>
-    <col min="12" max="12" width="31.375" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="37" customWidth="1"/>
+    <col min="12" max="12" width="35" customWidth="1"/>
+    <col min="13" max="13" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>126</v>
+      </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
@@ -9437,14 +9905,13 @@
       <c r="J1" s="35"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>118</v>
-      </c>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -9455,13 +9922,16 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="47"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
@@ -9471,15 +9941,16 @@
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="35"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="38"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
@@ -9489,14 +9960,11 @@
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>120</v>
-      </c>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -9507,8 +9975,9 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
       <c r="L5" s="35"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -9518,433 +9987,970 @@
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="J6" s="38"/>
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="39" t="s">
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="50" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="44" t="s">
+      <c r="H8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="I8" s="35"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="48" t="s">
-        <v>125</v>
-      </c>
+      <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="49"/>
+        <v>70</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="49"/>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="49"/>
+      <c r="M10" s="49"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="42" t="s">
+      <c r="M11" s="49"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="F12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="G12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="H12" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="46"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46" t="s">
+        <v>132</v>
+      </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="46"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="46" t="s">
+        <v>36</v>
+      </c>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="35"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="38"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" ht="14" customHeight="1" spans="1:13">
       <c r="A15" s="46"/>
-      <c r="B15" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46" t="s">
-        <v>26</v>
-      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="57"/>
       <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="35"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" ht="14" customHeight="1" spans="1:13">
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="46"/>
+        <v>135</v>
+      </c>
+      <c r="D16" s="57"/>
       <c r="E16" s="46"/>
-      <c r="F16" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="35"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" ht="14" customHeight="1" spans="1:13">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="46"/>
+        <v>137</v>
+      </c>
+      <c r="D17" s="57"/>
       <c r="E17" s="46"/>
-      <c r="F17" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="35"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="46"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" ht="14" customHeight="1" spans="1:13">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="46"/>
+        <v>139</v>
+      </c>
+      <c r="D18" s="57"/>
       <c r="E18" s="46"/>
-      <c r="F18" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="35"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="46"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="38"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" ht="14" customHeight="1" spans="1:13">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="35"/>
+        <v>141</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="38"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" ht="14" customHeight="1" spans="1:13">
       <c r="A20" s="46"/>
-      <c r="B20" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="46" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="35"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="46"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="38"/>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="35"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="46"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="46" t="s">
+        <v>145</v>
+      </c>
       <c r="E21" s="46"/>
-      <c r="F21" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="35"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="46"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="35"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="46"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="46" t="s">
+        <v>147</v>
+      </c>
       <c r="E22" s="46"/>
-      <c r="F22" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="35"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="46"/>
       <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="38"/>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="35"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="46" t="s">
-        <v>138</v>
-      </c>
+      <c r="C23" s="57"/>
       <c r="D23" s="46" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="E23" s="46"/>
-      <c r="F23" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="35"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="46"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="38"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="35"/>
+      <c r="M23" s="35"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="35"/>
+      <c r="M24" s="35"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>14</v>
+      </c>
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="35"/>
+      <c r="M25" s="35"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="49"/>
+      <c r="B26" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="35"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:8">
       <c r="A27" s="49"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="60"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="42"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="35"/>
+      <c r="J59" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="K59" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="L59" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="M59" s="38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="49"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" s="46"/>
+      <c r="G61" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="49"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="35"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H66" s="46"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" s="46"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H68" s="46"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" s="46"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="46"/>
+      <c r="B70" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="46"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="H71" s="46"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="H72" s="46"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="46"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H73" s="46"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="49"/>
+      <c r="B77" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="49"/>
-      <c r="B28" s="53" t="s">
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="46"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="49"/>
+      <c r="B78" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="48" t="s">
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="53"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
+  <mergeCells count="12">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -9990,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -10024,7 +11030,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -10125,40 +11131,40 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="55" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
@@ -10173,7 +11179,7 @@
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
       <c r="I11" s="49" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
@@ -10191,16 +11197,16 @@
       <c r="G12" s="41"/>
       <c r="H12" s="35"/>
       <c r="I12" s="49" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -10223,16 +11229,16 @@
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="56" t="s">
-        <v>60</v>
-      </c>
       <c r="L13" s="56" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -10242,27 +11248,27 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="38" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
       <c r="H14" s="35"/>
       <c r="I14" s="49" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L14" s="49"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="48"/>
       <c r="B15" s="38" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -10286,7 +11292,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -10306,7 +11312,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -10319,7 +11325,7 @@
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>21</v>
@@ -10337,10 +11343,10 @@
       <c r="A19" s="48"/>
       <c r="B19" s="46"/>
       <c r="C19" s="48" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
@@ -10355,7 +11361,7 @@
       <c r="A20" s="48"/>
       <c r="B20" s="46"/>
       <c r="C20" s="48" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
@@ -10373,7 +11379,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="48" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
@@ -10391,7 +11397,7 @@
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="48" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
@@ -10409,14 +11415,14 @@
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="48" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="35"/>
@@ -10429,7 +11435,7 @@
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="48" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>24</v>
@@ -10447,7 +11453,7 @@
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="48" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>24</v>
@@ -10465,7 +11471,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="48" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>24</v>
@@ -10483,7 +11489,7 @@
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="48" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>24</v>
@@ -10501,7 +11507,7 @@
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="48" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>21</v>
@@ -10519,7 +11525,7 @@
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="48" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>21</v>
@@ -10537,14 +11543,14 @@
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="48" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="46" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="35"/>
@@ -10557,14 +11563,14 @@
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="48" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="46" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="35"/>
@@ -10703,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -10716,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10724,7 +11730,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -10770,30 +11776,30 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G10" s="46"/>
       <c r="I10" s="49"/>
@@ -10804,7 +11810,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -10812,7 +11818,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -10823,7 +11829,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -10831,7 +11837,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -10842,7 +11848,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -10850,7 +11856,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -10861,7 +11867,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -10869,7 +11875,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -10880,7 +11886,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46" t="s">
@@ -10888,7 +11894,7 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G15" s="46"/>
       <c r="I15" s="49"/>
@@ -10899,7 +11905,7 @@
     <row r="16" spans="1:12">
       <c r="A16" s="46"/>
       <c r="B16" s="46" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46" t="s">
@@ -10907,7 +11913,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -10918,7 +11924,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -10926,7 +11932,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -10984,7 +11990,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
@@ -10999,7 +12005,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -11007,7 +12013,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -11015,7 +12021,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -11023,7 +12029,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -11031,7 +12037,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -11039,7 +12045,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -11047,7 +12053,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -11055,7 +12061,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -11063,7 +12069,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -11071,14 +12077,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -11086,14 +12092,14 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="46" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="48"/>
       <c r="B28" s="46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
@@ -11101,14 +12107,14 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="46" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="48"/>
       <c r="B29" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
@@ -11116,14 +12122,14 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="46" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="48"/>
       <c r="B30" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
@@ -11131,7 +12137,7 @@
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="49"/>
     </row>
@@ -11146,7 +12152,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G31" s="49"/>
     </row>
@@ -11281,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -11294,7 +12300,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11302,7 +12308,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -11348,14 +12354,14 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="49" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -11367,14 +12373,14 @@
       <c r="F10" s="48"/>
       <c r="G10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="49" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -11432,7 +12438,7 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
@@ -11450,7 +12456,7 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G15" s="49"/>
       <c r="I15" s="38"/>
@@ -11458,11 +12464,11 @@
     <row r="16" spans="1:9">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
@@ -11473,14 +12479,14 @@
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G17" s="49"/>
       <c r="I17" s="38"/>
@@ -11496,7 +12502,7 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G18" s="49"/>
       <c r="I18" s="38"/>
@@ -11512,7 +12518,7 @@
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G19" s="49"/>
     </row>
@@ -11520,14 +12526,14 @@
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G20" s="49"/>
     </row>
@@ -11535,14 +12541,14 @@
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G21" s="49"/>
     </row>
@@ -11550,14 +12556,14 @@
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G22" s="49"/>
     </row>
@@ -11565,14 +12571,14 @@
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G23" s="49"/>
     </row>
@@ -11580,14 +12586,14 @@
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G24" s="49"/>
     </row>

--- a/docs/2程序设计/程序接口设计.xlsx
+++ b/docs/2程序设计/程序接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="5"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="demon" sheetId="1" r:id="rId1"/>
@@ -1386,37 +1386,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1438,8 +1425,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1453,24 +1447,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1490,6 +1477,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1500,9 +1501,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1510,14 +1518,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1566,13 +1566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,13 +1584,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,19 +1638,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,79 +1728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,37 +1740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,17 +1821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1865,8 +1854,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,8 +1893,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,10 +1917,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1929,16 +1929,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1948,122 +1948,122 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2256,14 +2256,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7838,8 +7832,8 @@
   <sheetPr/>
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -7886,275 +7880,301 @@
       </c>
     </row>
     <row r="6" s="35" customFormat="1" spans="1:13">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
     </row>
     <row r="7" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:13">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="64"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="59" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="35"/>
       <c r="J7" s="62"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" s="35" customFormat="1" spans="1:13">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="65"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="46" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="49"/>
-      <c r="I8" s="35"/>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="62"/>
       <c r="M8" s="62"/>
     </row>
     <row r="9" s="35" customFormat="1" spans="1:13">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="35"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
     </row>
     <row r="10" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="64"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="59" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" s="35" customFormat="1" spans="2:8">
-      <c r="B12" s="48" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+    </row>
+    <row r="12" s="35" customFormat="1" spans="1:8">
+      <c r="A12" s="64"/>
+      <c r="B12" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="49"/>
     </row>
     <row r="13" s="35" customFormat="1" spans="1:8">
-      <c r="A13" s="48"/>
-      <c r="C13" s="48" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="49"/>
     </row>
     <row r="14" s="35" customFormat="1" spans="1:8">
-      <c r="A14" s="48"/>
-      <c r="D14" s="48" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48" t="s">
+      <c r="E14" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="49"/>
     </row>
     <row r="15" s="35" customFormat="1" spans="1:8">
-      <c r="A15" s="48"/>
-      <c r="D15" s="48" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48" t="s">
+      <c r="E15" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="49"/>
     </row>
     <row r="16" s="35" customFormat="1" spans="1:8">
-      <c r="A16" s="48"/>
-      <c r="D16" s="48" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="E16" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="49"/>
     </row>
     <row r="17" s="35" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A17" s="48"/>
-      <c r="D17" s="48" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="E17" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="49"/>
     </row>
     <row r="18" s="35" customFormat="1" spans="1:8">
-      <c r="A18" s="48"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="E18" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="49"/>
     </row>
     <row r="19" s="35" customFormat="1" spans="1:8">
-      <c r="A19" s="48"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
+      <c r="E19" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="49"/>
     </row>
     <row r="20" s="35" customFormat="1" spans="1:8">
-      <c r="A20" s="48"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48" t="s">
+      <c r="E20" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46" t="s">
         <v>45</v>
       </c>
       <c r="H20" s="49"/>
     </row>
     <row r="21" s="35" customFormat="1" spans="1:8">
-      <c r="A21" s="48"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+      <c r="E21" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="49"/>
     </row>
     <row r="22" s="35" customFormat="1" spans="1:8">
-      <c r="A22" s="48"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="E22" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="49"/>
     </row>
     <row r="23" s="35" customFormat="1" spans="1:8">
-      <c r="A23" s="48"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48" t="s">
+      <c r="E23" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46" t="s">
         <v>49</v>
       </c>
       <c r="H23" s="49"/>
     </row>
     <row r="24" s="35" customFormat="1" spans="1:8">
-      <c r="A24" s="48"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48" t="s">
+      <c r="E24" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46" t="s">
         <v>51</v>
       </c>
       <c r="H24" s="49"/>
@@ -8191,7 +8211,7 @@
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="64"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="44" t="s">
         <v>12</v>
       </c>
@@ -8211,7 +8231,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="53"/>
-      <c r="D28" s="66"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
       <c r="G28" s="48" t="s">
@@ -8225,7 +8245,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="53"/>
-      <c r="D29" s="66"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
       <c r="G29" s="48"/>
@@ -8299,7 +8319,7 @@
       </c>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
-      <c r="D60" s="64"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="44" t="s">
         <v>12</v>
       </c>
@@ -8315,13 +8335,13 @@
       <c r="J60" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="K60" s="67" t="s">
+      <c r="K60" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="L60" s="67" t="s">
+      <c r="L60" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="M60" s="67" t="s">
+      <c r="M60" s="65" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8331,7 +8351,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="48"/>
-      <c r="D61" s="65"/>
+      <c r="D61" s="48"/>
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
       <c r="G61" s="48" t="s">
@@ -8347,7 +8367,7 @@
       <c r="A62" s="48"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
-      <c r="D62" s="65"/>
+      <c r="D62" s="48"/>
       <c r="E62" s="46"/>
       <c r="F62" s="46"/>
       <c r="G62" s="48"/>
@@ -8379,7 +8399,7 @@
       </c>
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
-      <c r="D64" s="64"/>
+      <c r="D64" s="43"/>
       <c r="E64" s="44" t="s">
         <v>12</v>
       </c>
@@ -8569,7 +8589,7 @@
       </c>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
-      <c r="D77" s="64"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="44" t="s">
         <v>12</v>
       </c>
@@ -8589,7 +8609,7 @@
         <v>53</v>
       </c>
       <c r="C78" s="53"/>
-      <c r="D78" s="66"/>
+      <c r="D78" s="53"/>
       <c r="E78" s="46"/>
       <c r="F78" s="46"/>
       <c r="G78" s="48" t="s">
@@ -8603,7 +8623,7 @@
         <v>55</v>
       </c>
       <c r="C79" s="53"/>
-      <c r="D79" s="66"/>
+      <c r="D79" s="53"/>
       <c r="E79" s="46"/>
       <c r="F79" s="46"/>
       <c r="G79" s="48"/>
@@ -9871,7 +9891,7 @@
   <sheetPr/>
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/docs/2程序设计/程序接口设计.xlsx
+++ b/docs/2程序设计/程序接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="demon" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382">
   <si>
     <t>接口名</t>
   </si>
@@ -129,12 +129,6 @@
     <t>当前页数,一页10条</t>
   </si>
   <si>
-    <t>BaseOutData</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -210,20 +204,16 @@
     <t>/creditWarning/lastingBondViolation/{page}</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>查询新闻数据</t>
-  </si>
-  <si>
-    <t>查询新闻服务器的应用服务接口
-String uri = Contants.NEWS_SERVER_URL + "q=cnn_score:[-2%20TO%20-…..</t>
-  </si>
-  <si>
-    <t>CreditWarningController.getViolation</t>
-  </si>
-  <si>
-    <t>CreditWarningServicesImpl.getLastingBondViolationNews</t>
+    <t>查询新闻资料</t>
+  </si>
+  <si>
+    <t>查询新闻量，负面新闻量，日期</t>
+  </si>
+  <si>
+    <t>NewsWarningController.getChartGroup</t>
+  </si>
+  <si>
+    <t>NewsWarningServices.findchartGroup</t>
   </si>
   <si>
     <t>当前页数</t>
@@ -466,90 +456,81 @@
     <t>热点新闻趋势图</t>
   </si>
   <si>
+    <t>#urlregionRisk/newsChart/TendencyChartInData.Json</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>时间分类(1:日/2:月/3:季)</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>conent</t>
+  </si>
+  <si>
+    <t>totalCount</t>
+  </si>
+  <si>
+    <t>月新闻总量</t>
+  </si>
+  <si>
+    <t>negativeTotalCount</t>
+  </si>
+  <si>
+    <t>月负面新闻总量</t>
+  </si>
+  <si>
+    <t>totalRatio</t>
+  </si>
+  <si>
+    <t>月负面新闻占比</t>
+  </si>
+  <si>
+    <t>countDate</t>
+  </si>
+  <si>
+    <t>哪年哪月的数据</t>
+  </si>
+  <si>
+    <t>singleNews</t>
+  </si>
+  <si>
+    <t>新闻统计信息</t>
+  </si>
+  <si>
+    <t>newscount</t>
+  </si>
+  <si>
+    <t>每天的新闻量</t>
+  </si>
+  <si>
+    <t>negativeNewsCount</t>
+  </si>
+  <si>
+    <t>每天的负面新闻量</t>
+  </si>
+  <si>
+    <t>postDt</t>
+  </si>
+  <si>
+    <t>新闻日期</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>负面新闻占比</t>
+  </si>
+  <si>
     <t>/newsWarning/chartGroup/NewsWarningInData.Json</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>时间分类(1:日/2:月/3:季)</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>conent</t>
-  </si>
-  <si>
-    <t>totalCount</t>
-  </si>
-  <si>
-    <t>月新闻总量</t>
-  </si>
-  <si>
-    <t>negativeTotalCount</t>
-  </si>
-  <si>
-    <t>月负面新闻总量</t>
-  </si>
-  <si>
-    <t>totalRatio</t>
-  </si>
-  <si>
-    <t>月负面新闻占比</t>
-  </si>
-  <si>
-    <t>countDate</t>
-  </si>
-  <si>
-    <t>哪年哪月的数据</t>
-  </si>
-  <si>
-    <t>singleNews</t>
-  </si>
-  <si>
-    <t>新闻统计信息</t>
-  </si>
-  <si>
-    <t>newscount</t>
-  </si>
-  <si>
-    <t>每天的新闻量</t>
-  </si>
-  <si>
-    <t>negativeNewsCount</t>
-  </si>
-  <si>
-    <t>每天的负面新闻量</t>
-  </si>
-  <si>
-    <t>postDt</t>
-  </si>
-  <si>
-    <t>新闻日期</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>负面新闻占比</t>
-  </si>
-  <si>
-    <t>查询新闻资料</t>
-  </si>
-  <si>
-    <t>查询新闻量，负面新闻量，日期</t>
-  </si>
-  <si>
-    <t>NewsWarningController.getChartGroup</t>
-  </si>
-  <si>
-    <t>NewsWarningServices.findchartGroup</t>
-  </si>
-  <si>
     <t>新闻总量</t>
   </si>
   <si>
@@ -899,6 +880,9 @@
   </si>
   <si>
     <t>#urlpfund/info/{compyId}</t>
+  </si>
+  <si>
+    <t>control</t>
   </si>
   <si>
     <t>司法风险Top5</t>
@@ -1098,6 +1082,9 @@
   </si>
   <si>
     <t>CompanyInfoServicesImpl.getRptDtChk</t>
+  </si>
+  <si>
+    <t>Object</t>
   </si>
   <si>
     <t>companyCd</t>
@@ -1386,26 +1373,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1416,76 +1387,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1508,9 +1412,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1533,7 +1520,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1566,7 +1553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,7 +1565,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,31 +1601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,13 +1619,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,31 +1655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,61 +1667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,6 +1680,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1812,15 +1805,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1832,6 +1816,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1855,7 +1850,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1901,11 +1896,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1920,7 +1913,7 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1929,16 +1922,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1948,122 +1941,122 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2256,11 +2249,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3107,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3161,43 +3166,43 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="38" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K10" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="49" t="s">
         <v>214</v>
-      </c>
-      <c r="L10" s="49" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3209,16 +3214,16 @@
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="I11" s="49" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3232,14 +3237,14 @@
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
       <c r="I12" s="49" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J12" s="49"/>
       <c r="K12" s="49" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:12">
@@ -3261,16 +3266,16 @@
         <v>14</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3280,28 +3285,28 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="38" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
       <c r="I14" s="49" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:12">
       <c r="A15" s="48"/>
       <c r="B15" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
@@ -3309,26 +3314,26 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G15" s="49"/>
       <c r="I15" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" s="49" t="s">
         <v>226</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="L15" s="49" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
@@ -3336,7 +3341,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G16" s="49"/>
       <c r="I16" s="49"/>
@@ -3347,7 +3352,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="48"/>
       <c r="B17" s="48" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
@@ -3355,7 +3360,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G17" s="49"/>
       <c r="I17" s="49"/>
@@ -3366,7 +3371,7 @@
     <row r="18" customHeight="1" spans="1:12">
       <c r="A18" s="48"/>
       <c r="B18" s="48" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
@@ -3374,7 +3379,7 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G18" s="49"/>
       <c r="I18" s="49"/>
@@ -3385,7 +3390,7 @@
     <row r="19" ht="13.5" customHeight="1" spans="1:12">
       <c r="A19" s="48"/>
       <c r="B19" s="48" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48" t="s">
@@ -3393,7 +3398,7 @@
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G19" s="49"/>
       <c r="I19" s="49"/>
@@ -3404,7 +3409,7 @@
     <row r="20" spans="1:12">
       <c r="A20" s="48"/>
       <c r="B20" s="48" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
@@ -3412,7 +3417,7 @@
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G20" s="49"/>
       <c r="I20" s="49"/>
@@ -3423,7 +3428,7 @@
     <row r="21" spans="1:12">
       <c r="A21" s="48"/>
       <c r="B21" s="48" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
@@ -3431,7 +3436,7 @@
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G21" s="49"/>
       <c r="I21" s="49"/>
@@ -3442,7 +3447,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="48"/>
       <c r="B22" s="48" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -3450,14 +3455,14 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="48"/>
       <c r="B23" s="48" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -3465,14 +3470,14 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G23" s="49"/>
     </row>
     <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="48"/>
       <c r="B24" s="48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -3480,14 +3485,14 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="48"/>
       <c r="B25" s="48" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -3495,14 +3500,14 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="48" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="48" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -3510,29 +3515,29 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="48" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="48"/>
       <c r="B28" s="48" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
@@ -3540,14 +3545,14 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G28" s="49"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:7">
       <c r="A29" s="48"/>
       <c r="B29" s="48" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
@@ -3555,7 +3560,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G29" s="49"/>
     </row>
@@ -3703,11 +3708,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
@@ -3739,7 +3744,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3757,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -3840,30 +3845,30 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="35"/>
@@ -3876,14 +3881,14 @@
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
@@ -3972,12 +3977,12 @@
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="35"/>
@@ -3990,12 +3995,12 @@
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G17" s="46"/>
       <c r="H17" s="35"/>
@@ -4008,12 +4013,12 @@
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="35"/>
@@ -4044,12 +4049,12 @@
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="46" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="35"/>
@@ -4062,12 +4067,12 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="35"/>
@@ -4219,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -4232,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4288,24 +4293,24 @@
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
       <c r="K9" s="49" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" s="49"/>
       <c r="I10" s="49"/>
@@ -4691,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -4704,7 +4709,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4712,7 +4717,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -4758,30 +4763,30 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" s="46"/>
       <c r="I10" s="49"/>
@@ -4792,7 +4797,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -4800,7 +4805,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -4811,7 +4816,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -4819,7 +4824,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -4830,7 +4835,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -4838,7 +4843,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -4849,7 +4854,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -4857,7 +4862,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -4868,7 +4873,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46" t="s">
@@ -4876,7 +4881,7 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G15" s="46"/>
       <c r="I15" s="49"/>
@@ -4895,7 +4900,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -4906,7 +4911,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -4914,7 +4919,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -4972,7 +4977,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
@@ -4987,7 +4992,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -4995,7 +5000,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -5003,7 +5008,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -5011,7 +5016,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -5019,7 +5024,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -5027,7 +5032,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -5035,7 +5040,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -5043,7 +5048,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -5051,7 +5056,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -5059,14 +5064,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -5074,14 +5079,14 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="46" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="48"/>
       <c r="B28" s="46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
@@ -5089,14 +5094,14 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="46" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="48"/>
       <c r="B29" s="46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
@@ -5104,14 +5109,14 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="46" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="48"/>
       <c r="B30" s="48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
@@ -5119,7 +5124,7 @@
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G30" s="49"/>
     </row>
@@ -5134,7 +5139,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G31" s="49"/>
     </row>
@@ -5264,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -5277,7 +5282,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5305,7 +5310,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>11</v>
@@ -5330,22 +5335,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="25" t="s">
@@ -5396,7 +5401,7 @@
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:10">
       <c r="A12" s="26" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -5409,15 +5414,15 @@
     <row r="13" ht="13.5" customHeight="1" spans="1:10">
       <c r="A13" s="27"/>
       <c r="B13" s="29" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="28" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G13" s="26"/>
       <c r="J13" s="23"/>
@@ -5426,7 +5431,7 @@
       <c r="A14" s="12"/>
       <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
@@ -5440,7 +5445,7 @@
       <c r="A15" s="12"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>21</v>
@@ -5454,7 +5459,7 @@
       <c r="A16" s="12"/>
       <c r="B16" s="30"/>
       <c r="C16" s="12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>21</v>
@@ -5467,7 +5472,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
@@ -5480,7 +5485,7 @@
       <c r="A18" s="12"/>
       <c r="B18" s="30"/>
       <c r="C18" s="13" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>21</v>
@@ -5493,7 +5498,7 @@
       <c r="A19" s="12"/>
       <c r="B19" s="30"/>
       <c r="C19" s="13" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
@@ -5506,7 +5511,7 @@
       <c r="A20" s="12"/>
       <c r="B20" s="30"/>
       <c r="C20" s="13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
@@ -5519,7 +5524,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="30"/>
       <c r="C21" s="13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>24</v>
@@ -5532,7 +5537,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="30"/>
       <c r="C22" s="13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>24</v>
@@ -5546,7 +5551,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="30"/>
       <c r="C23" s="13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>24</v>
@@ -5559,7 +5564,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="30"/>
       <c r="C24" s="13" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>24</v>
@@ -5572,7 +5577,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>24</v>
@@ -5585,7 +5590,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -5598,7 +5603,7 @@
       <c r="A27" s="32"/>
       <c r="B27" s="33"/>
       <c r="C27" s="13" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>21</v>
@@ -5610,11 +5615,11 @@
     <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="32"/>
       <c r="B28" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="12"/>
@@ -5624,7 +5629,7 @@
       <c r="A29" s="32"/>
       <c r="B29" s="34"/>
       <c r="C29" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>21</v>
@@ -5637,7 +5642,7 @@
       <c r="A30" s="32"/>
       <c r="B30" s="34"/>
       <c r="C30" s="13" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -5650,7 +5655,7 @@
       <c r="A31" s="32"/>
       <c r="B31" s="34"/>
       <c r="C31" s="13" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -5663,7 +5668,7 @@
       <c r="A32" s="32"/>
       <c r="B32" s="34"/>
       <c r="C32" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>21</v>
@@ -5676,7 +5681,7 @@
       <c r="A33" s="32"/>
       <c r="B33" s="34"/>
       <c r="C33" s="13" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -5689,7 +5694,7 @@
       <c r="A34" s="32"/>
       <c r="B34" s="34"/>
       <c r="C34" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -5702,7 +5707,7 @@
       <c r="A35" s="32"/>
       <c r="B35" s="34"/>
       <c r="C35" s="13" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>21</v>
@@ -5715,7 +5720,7 @@
       <c r="A36" s="32"/>
       <c r="B36" s="34"/>
       <c r="C36" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -5728,7 +5733,7 @@
       <c r="A37" s="32"/>
       <c r="B37" s="34"/>
       <c r="C37" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -5741,7 +5746,7 @@
       <c r="A38" s="32"/>
       <c r="B38" s="34"/>
       <c r="C38" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -5754,7 +5759,7 @@
       <c r="A39" s="32"/>
       <c r="B39" s="34"/>
       <c r="C39" s="13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -5767,7 +5772,7 @@
       <c r="A40" s="32"/>
       <c r="B40" s="34"/>
       <c r="C40" s="13" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -5780,7 +5785,7 @@
       <c r="A41" s="32"/>
       <c r="B41" s="34"/>
       <c r="C41" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>21</v>
@@ -5793,7 +5798,7 @@
       <c r="A42" s="32"/>
       <c r="B42" s="34"/>
       <c r="C42" s="13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -5806,7 +5811,7 @@
       <c r="A43" s="32"/>
       <c r="B43" s="34"/>
       <c r="C43" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>21</v>
@@ -5819,7 +5824,7 @@
       <c r="A44" s="32"/>
       <c r="B44" s="34"/>
       <c r="C44" s="13" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>21</v>
@@ -5832,7 +5837,7 @@
       <c r="A45" s="32"/>
       <c r="B45" s="34"/>
       <c r="C45" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>21</v>
@@ -5845,7 +5850,7 @@
       <c r="A46" s="32"/>
       <c r="B46" s="34"/>
       <c r="C46" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -5858,7 +5863,7 @@
       <c r="A47" s="32"/>
       <c r="B47" s="34"/>
       <c r="C47" s="13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>21</v>
@@ -5871,7 +5876,7 @@
       <c r="A48" s="32"/>
       <c r="B48" s="34"/>
       <c r="C48" s="13" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>21</v>
@@ -5884,7 +5889,7 @@
       <c r="A49" s="32"/>
       <c r="B49" s="34"/>
       <c r="C49" s="13" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>21</v>
@@ -5897,7 +5902,7 @@
       <c r="A50" s="32"/>
       <c r="B50" s="34"/>
       <c r="C50" s="13" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -5910,7 +5915,7 @@
       <c r="A51" s="32"/>
       <c r="B51" s="34"/>
       <c r="C51" s="13" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>21</v>
@@ -5923,7 +5928,7 @@
       <c r="A52" s="32"/>
       <c r="B52" s="34"/>
       <c r="C52" s="13" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>21</v>
@@ -5935,11 +5940,11 @@
     <row r="53" ht="14.25" spans="1:7">
       <c r="A53" s="32"/>
       <c r="B53" s="34" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="12"/>
@@ -5949,7 +5954,7 @@
       <c r="A54" s="32"/>
       <c r="B54" s="34"/>
       <c r="C54" s="13" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>21</v>
@@ -5962,7 +5967,7 @@
       <c r="A55" s="32"/>
       <c r="B55" s="34"/>
       <c r="C55" s="13" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>21</v>
@@ -5975,7 +5980,7 @@
       <c r="A56" s="32"/>
       <c r="B56" s="34"/>
       <c r="C56" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>21</v>
@@ -5988,7 +5993,7 @@
       <c r="A57" s="32"/>
       <c r="B57" s="34"/>
       <c r="C57" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>21</v>
@@ -6001,7 +6006,7 @@
       <c r="A58" s="32"/>
       <c r="B58" s="34"/>
       <c r="C58" s="13" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>21</v>
@@ -6014,7 +6019,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="34"/>
       <c r="C59" s="13" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>21</v>
@@ -6027,7 +6032,7 @@
       <c r="A60" s="32"/>
       <c r="B60" s="34"/>
       <c r="C60" s="13" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>21</v>
@@ -6040,7 +6045,7 @@
       <c r="A61" s="32"/>
       <c r="B61" s="34"/>
       <c r="C61" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>21</v>
@@ -6053,7 +6058,7 @@
       <c r="A62" s="32"/>
       <c r="B62" s="34"/>
       <c r="C62" s="13" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>21</v>
@@ -6066,7 +6071,7 @@
       <c r="A63" s="32"/>
       <c r="B63" s="34"/>
       <c r="C63" s="13" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>21</v>
@@ -6079,7 +6084,7 @@
       <c r="A64" s="32"/>
       <c r="B64" s="34"/>
       <c r="C64" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>21</v>
@@ -6092,7 +6097,7 @@
       <c r="A65" s="32"/>
       <c r="B65" s="34"/>
       <c r="C65" s="13" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>21</v>
@@ -6105,7 +6110,7 @@
       <c r="A66" s="32"/>
       <c r="B66" s="34"/>
       <c r="C66" s="13" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>21</v>
@@ -6117,11 +6122,11 @@
     <row r="67" ht="14.25" spans="1:7">
       <c r="A67" s="32"/>
       <c r="B67" s="34" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="25" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="12"/>
@@ -6131,7 +6136,7 @@
       <c r="A68" s="32"/>
       <c r="B68" s="30"/>
       <c r="C68" s="13" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>21</v>
@@ -6144,7 +6149,7 @@
       <c r="A69" s="32"/>
       <c r="B69" s="30"/>
       <c r="C69" s="13" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>21</v>
@@ -6157,7 +6162,7 @@
       <c r="A70" s="32"/>
       <c r="B70" s="30"/>
       <c r="C70" s="13" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>21</v>
@@ -6205,14 +6210,14 @@
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G73" s="17"/>
     </row>
     <row r="74" customHeight="1" spans="1:7">
       <c r="A74" s="14"/>
       <c r="B74" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="13"/>
@@ -6262,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -6275,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6303,7 +6308,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>11</v>
@@ -6328,22 +6333,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -6392,7 +6397,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -6405,7 +6410,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
@@ -6419,7 +6424,7 @@
     <row r="14" spans="1:10">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="s">
@@ -6433,7 +6438,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
@@ -6446,7 +6451,7 @@
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
@@ -6459,7 +6464,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
@@ -6472,7 +6477,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="12"/>
       <c r="B18" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
@@ -6485,7 +6490,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="12"/>
       <c r="B19" s="13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
@@ -6498,7 +6503,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
@@ -6511,11 +6516,11 @@
     <row r="21" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -6524,7 +6529,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
@@ -6537,7 +6542,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
@@ -6550,11 +6555,11 @@
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -6564,7 +6569,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>21</v>
@@ -6577,7 +6582,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -6590,7 +6595,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>21</v>
@@ -6603,7 +6608,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>21</v>
@@ -6616,7 +6621,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>21</v>
@@ -6629,7 +6634,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -6642,7 +6647,7 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -6655,7 +6660,7 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>21</v>
@@ -6668,7 +6673,7 @@
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -6681,7 +6686,7 @@
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -6693,11 +6698,11 @@
     <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="13" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -6707,7 +6712,7 @@
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -6720,7 +6725,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -6733,7 +6738,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -6746,7 +6751,7 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -6759,7 +6764,7 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -6771,11 +6776,11 @@
     <row r="41" spans="1:7">
       <c r="A41" s="12"/>
       <c r="B41" s="13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -6785,7 +6790,7 @@
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -6798,7 +6803,7 @@
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>21</v>
@@ -6811,7 +6816,7 @@
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>21</v>
@@ -6824,7 +6829,7 @@
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>21</v>
@@ -6837,7 +6842,7 @@
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -6850,7 +6855,7 @@
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>21</v>
@@ -6863,7 +6868,7 @@
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>21</v>
@@ -6876,7 +6881,7 @@
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="24" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>21</v>
@@ -6889,7 +6894,7 @@
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="24" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -6902,7 +6907,7 @@
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>21</v>
@@ -6950,14 +6955,14 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G54" s="17"/>
     </row>
     <row r="55" customHeight="1" spans="1:7">
       <c r="A55" s="14"/>
       <c r="B55" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="13"/>
@@ -7007,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -7020,7 +7025,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7048,7 +7053,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>11</v>
@@ -7073,22 +7078,22 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -7138,11 +7143,11 @@
     <row r="12" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="15" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -7153,14 +7158,14 @@
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G13" s="14"/>
       <c r="J13" s="23"/>
@@ -7169,14 +7174,14 @@
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G14" s="14"/>
       <c r="J14" s="23"/>
@@ -7185,14 +7190,14 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -7200,14 +7205,14 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -7215,14 +7220,14 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G17" s="14"/>
     </row>
@@ -7265,14 +7270,14 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G20" s="17"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="14"/>
       <c r="B21" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="13"/>
@@ -7322,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -7335,7 +7340,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7343,7 +7348,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -7363,7 +7368,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>11</v>
@@ -7388,16 +7393,16 @@
         <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" ht="15.95" customHeight="1" spans="1:12">
@@ -7411,7 +7416,7 @@
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G9" s="14"/>
       <c r="I9" s="20"/>
@@ -7422,7 +7427,7 @@
     <row r="10" ht="24" spans="1:12">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
@@ -7430,7 +7435,7 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G10" s="14"/>
       <c r="I10" s="20"/>
@@ -7441,7 +7446,7 @@
     <row r="11" ht="24" spans="1:12">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
@@ -7449,7 +7454,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G11" s="14"/>
       <c r="I11" s="20"/>
@@ -7494,15 +7499,15 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="15" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G14" s="14"/>
       <c r="J14" s="23"/>
@@ -7510,7 +7515,7 @@
     <row r="15" spans="1:10">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="12" t="s">
@@ -7518,7 +7523,7 @@
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="14"/>
       <c r="J15" s="23"/>
@@ -7526,7 +7531,7 @@
     <row r="16" spans="1:10">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="12" t="s">
@@ -7534,7 +7539,7 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G16" s="14"/>
       <c r="J16" s="23"/>
@@ -7542,7 +7547,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="12" t="s">
@@ -7555,7 +7560,7 @@
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="12" t="s">
@@ -7563,7 +7568,7 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G18" s="14"/>
     </row>
@@ -7571,14 +7576,14 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G19" s="14"/>
     </row>
@@ -7586,21 +7591,21 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="16" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="12" t="s">
@@ -7613,7 +7618,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="12" t="s">
@@ -7626,7 +7631,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="12" t="s">
@@ -7639,7 +7644,7 @@
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="12" t="s">
@@ -7647,14 +7652,14 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="12" t="s">
@@ -7667,7 +7672,7 @@
     <row r="26" spans="1:7">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="12" t="s">
@@ -7680,7 +7685,7 @@
     <row r="27" spans="1:7">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="12" t="s">
@@ -7693,7 +7698,7 @@
     <row r="28" spans="1:7">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="12" t="s">
@@ -7706,7 +7711,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="12" t="s">
@@ -7719,7 +7724,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="12" t="s">
@@ -7739,7 +7744,7 @@
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G31" s="14"/>
     </row>
@@ -7782,14 +7787,14 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G34" s="17"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="14"/>
       <c r="B35" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="13"/>
@@ -7830,56 +7835,86 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I58" sqref="I58:L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11.5" style="35" customWidth="1"/>
     <col min="2" max="2" width="18" style="35" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="35" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="35" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="35" customWidth="1"/>
-    <col min="8" max="9" width="9" style="35"/>
-    <col min="10" max="10" width="11.375" style="35" customWidth="1"/>
-    <col min="11" max="11" width="38.375" style="35" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="35"/>
+    <col min="3" max="3" width="13.875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="35" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="35" customWidth="1"/>
+    <col min="7" max="8" width="9" style="35"/>
+    <col min="9" max="9" width="11.375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="38.375" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="1" spans="1:2">
-      <c r="A1" s="36" t="s">
+    <row r="1" s="35" customFormat="1" spans="1:7">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="65" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" s="35" customFormat="1" ht="12.75" spans="1:1">
-      <c r="A2" s="37" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" s="35" customFormat="1" ht="12.75" spans="1:7">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" s="35" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A3" s="37" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+    </row>
+    <row r="3" s="35" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="67" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" s="35" customFormat="1" spans="1:2">
-      <c r="A4" s="35" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4" s="35" customFormat="1" spans="1:7">
+      <c r="A4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="65" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" s="35" customFormat="1" spans="1:13">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" s="35" customFormat="1" spans="1:7">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+    </row>
+    <row r="6" s="35" customFormat="1" spans="1:12">
       <c r="A6" s="58" t="s">
         <v>7</v>
       </c>
@@ -7889,37 +7924,37 @@
       <c r="E6" s="58"/>
       <c r="F6" s="58"/>
       <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-    </row>
-    <row r="7" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:13">
+    </row>
+    <row r="7" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:12">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="D7" s="44" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="F7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-    </row>
-    <row r="8" s="35" customFormat="1" spans="1:13">
+      <c r="H7" s="35"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+    </row>
+    <row r="8" s="35" customFormat="1" spans="1:12">
       <c r="A8" s="46"/>
       <c r="B8" s="46" t="s">
         <v>30</v>
@@ -7927,17 +7962,17 @@
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46" t="s">
+      <c r="F8" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="62"/>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-    </row>
-    <row r="9" s="35" customFormat="1" spans="1:13">
+    </row>
+    <row r="9" s="35" customFormat="1" spans="1:12">
       <c r="A9" s="58" t="s">
         <v>15</v>
       </c>
@@ -7947,702 +7982,663 @@
       <c r="E9" s="58"/>
       <c r="F9" s="58"/>
       <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-    </row>
-    <row r="10" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+    </row>
+    <row r="10" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A10" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="D10" s="44" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="F10" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="G10" s="44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="64" t="s">
+    <row r="11" s="35" customFormat="1" spans="1:7">
+      <c r="A11" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+    </row>
+    <row r="12" s="35" customFormat="1" spans="1:7">
+      <c r="A12" s="65"/>
+      <c r="B12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-    </row>
-    <row r="12" s="35" customFormat="1" spans="1:8">
-      <c r="A12" s="64"/>
-      <c r="B12" s="46" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46" t="s">
-        <v>26</v>
-      </c>
+      <c r="E12" s="46"/>
       <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="49"/>
-    </row>
-    <row r="13" s="35" customFormat="1" spans="1:8">
-      <c r="A13" s="46"/>
-      <c r="B13" s="64"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" s="35" customFormat="1" spans="1:7">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46" t="s">
+      <c r="D13" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="49"/>
-    </row>
-    <row r="14" s="35" customFormat="1" spans="1:8">
-      <c r="A14" s="46"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" s="35" customFormat="1" spans="1:7">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="46" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="49"/>
-    </row>
-    <row r="15" s="35" customFormat="1" spans="1:8">
-      <c r="A15" s="46"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15" s="35" customFormat="1" spans="1:7">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="46" t="s">
+        <v>39</v>
+      </c>
       <c r="D15" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E15" s="46"/>
       <c r="F15" s="46"/>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16" s="35" customFormat="1" spans="1:7">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="49"/>
-    </row>
-    <row r="16" s="35" customFormat="1" spans="1:8">
-      <c r="A16" s="46"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
       <c r="D16" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="49"/>
+    </row>
+    <row r="17" s="35" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="18" s="35" customFormat="1" spans="1:7">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="49"/>
-    </row>
-    <row r="17" s="35" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A17" s="46"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="46" t="s">
+      <c r="D18" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="49"/>
+    </row>
+    <row r="19" s="35" customFormat="1" spans="1:7">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="49"/>
-    </row>
-    <row r="18" s="35" customFormat="1" spans="1:8">
-      <c r="A18" s="46"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="49"/>
-    </row>
-    <row r="19" s="35" customFormat="1" spans="1:8">
-      <c r="A19" s="46"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
       <c r="D19" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="49"/>
-    </row>
-    <row r="20" s="35" customFormat="1" spans="1:8">
-      <c r="A20" s="46"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
+      <c r="G19" s="49"/>
+    </row>
+    <row r="20" s="35" customFormat="1" spans="1:7">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="46" t="s">
+        <v>44</v>
+      </c>
       <c r="D20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E20" s="46"/>
       <c r="F20" s="46"/>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="49"/>
+    </row>
+    <row r="21" s="35" customFormat="1" spans="1:7">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="49"/>
-    </row>
-    <row r="21" s="35" customFormat="1" spans="1:8">
-      <c r="A21" s="46"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
       <c r="D21" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="49"/>
+    </row>
+    <row r="22" s="35" customFormat="1" spans="1:7">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="49"/>
-    </row>
-    <row r="22" s="35" customFormat="1" spans="1:8">
-      <c r="A22" s="46"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
       <c r="D22" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="49"/>
-    </row>
-    <row r="23" s="35" customFormat="1" spans="1:8">
-      <c r="A23" s="46"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
+      <c r="G22" s="49"/>
+    </row>
+    <row r="23" s="35" customFormat="1" spans="1:7">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="46" t="s">
+        <v>48</v>
+      </c>
       <c r="D23" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="49"/>
-    </row>
-    <row r="24" s="35" customFormat="1" spans="1:8">
-      <c r="A24" s="46"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="46" t="s">
+      <c r="G23" s="49"/>
+    </row>
+    <row r="24" s="35" customFormat="1" spans="1:7">
+      <c r="A24" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="49"/>
+    </row>
+    <row r="25" s="35" customFormat="1" spans="1:7">
+      <c r="A25" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A26" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" s="35" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A27" s="49"/>
+      <c r="B27" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="49"/>
-    </row>
-    <row r="25" s="35" customFormat="1" spans="1:8">
-      <c r="A25" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="49"/>
-    </row>
-    <row r="26" s="35" customFormat="1" spans="1:8">
-      <c r="A26" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A27" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" s="35" customFormat="1" customHeight="1" spans="1:8">
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" s="35" customFormat="1" customHeight="1" spans="1:7">
       <c r="A28" s="49"/>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="46"/>
+    </row>
+    <row r="51" s="35" customFormat="1" spans="1:3">
+      <c r="A51" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="53"/>
-    </row>
-    <row r="29" s="35" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A29" s="49"/>
-      <c r="B29" s="53" t="s">
+      <c r="B51" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="53"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="60" t="s">
+      <c r="C51" s="60"/>
+    </row>
+    <row r="53" s="35" customFormat="1" spans="1:2">
+      <c r="A53" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" s="35" customFormat="1" ht="12.75" spans="1:1">
+      <c r="A54" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" s="35" customFormat="1" ht="13.5" spans="1:2">
+      <c r="A55" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="60" t="s">
+    </row>
+    <row r="56" s="35" customFormat="1" spans="1:2">
+      <c r="A56" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" s="35" customFormat="1" spans="1:14">
+      <c r="A58" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+    </row>
+    <row r="59" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:14">
+      <c r="A59" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="35"/>
+      <c r="I59" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="60"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" ht="12.75" spans="1:1">
-      <c r="A55" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" ht="13.5" spans="1:2">
-      <c r="A56" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="J59" s="49" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="41"/>
-      <c r="J59" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="52" t="s">
+      <c r="K59" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="L59" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+    </row>
+    <row r="60" s="35" customFormat="1" spans="1:14">
+      <c r="A60" s="48"/>
+      <c r="B60" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="48"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="49"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+    </row>
+    <row r="61" s="35" customFormat="1" spans="1:14">
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+    </row>
+    <row r="62" s="35" customFormat="1" spans="1:14">
+      <c r="A62" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
+    </row>
+    <row r="63" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A63" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="M59" s="52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" ht="13.5" customHeight="1" spans="1:13">
-      <c r="A60" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="44" t="s">
+      <c r="G63" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J60" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="K60" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="L60" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="M60" s="65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="H61" s="49"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="49"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="41"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-    </row>
-    <row r="64" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A64" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="48" t="s">
+    </row>
+    <row r="64" s="35" customFormat="1" spans="1:7">
+      <c r="A64" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="48"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="49"/>
+    </row>
+    <row r="65" s="35" customFormat="1" spans="1:7">
+      <c r="A65" s="48"/>
+      <c r="B65" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
+      <c r="D65" s="48" t="s">
+        <v>21</v>
+      </c>
       <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="49"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="F65" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="49"/>
+    </row>
+    <row r="66" s="35" customFormat="1" spans="1:7">
       <c r="A66" s="48"/>
       <c r="B66" s="48" t="s">
         <v>37</v>
       </c>
       <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48" t="s">
+      <c r="D66" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="49"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="G66" s="49"/>
+    </row>
+    <row r="67" s="35" customFormat="1" spans="1:7">
       <c r="A67" s="48"/>
       <c r="B67" s="48" t="s">
         <v>39</v>
       </c>
       <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48" t="s">
-        <v>21</v>
-      </c>
+      <c r="D67" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="48"/>
       <c r="F67" s="48"/>
-      <c r="G67" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H67" s="49"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="G67" s="49"/>
+    </row>
+    <row r="68" s="35" customFormat="1" customHeight="1" spans="1:7">
       <c r="A68" s="48"/>
       <c r="B68" s="48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48" t="s">
-        <v>21</v>
-      </c>
+      <c r="D68" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="48"/>
       <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="49"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:8">
+      <c r="G68" s="49"/>
+    </row>
+    <row r="69" s="35" customFormat="1" spans="1:7">
       <c r="A69" s="48"/>
-      <c r="B69" s="48" t="s">
-        <v>42</v>
+      <c r="B69" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48" t="s">
-        <v>21</v>
-      </c>
+      <c r="D69" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="48"/>
       <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="49"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="G69" s="49"/>
+    </row>
+    <row r="70" s="35" customFormat="1" spans="1:7">
       <c r="A70" s="48"/>
       <c r="B70" s="46" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48" t="s">
-        <v>21</v>
-      </c>
+      <c r="D70" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="48"/>
       <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="49"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="G70" s="49"/>
+    </row>
+    <row r="71" s="35" customFormat="1" spans="1:7">
       <c r="A71" s="48"/>
       <c r="B71" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="49"/>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="G71" s="49"/>
+    </row>
+    <row r="72" s="35" customFormat="1" spans="1:7">
       <c r="A72" s="48"/>
       <c r="B72" s="46" t="s">
         <v>44</v>
       </c>
       <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48" t="s">
-        <v>21</v>
-      </c>
+      <c r="D72" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="48"/>
       <c r="F72" s="48"/>
-      <c r="G72" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" s="49"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="G72" s="49"/>
+    </row>
+    <row r="73" s="35" customFormat="1" spans="1:7">
       <c r="A73" s="48"/>
       <c r="B73" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48" t="s">
-        <v>21</v>
-      </c>
+      <c r="D73" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="48"/>
       <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="49"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="48"/>
-      <c r="B74" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="49"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="46" t="s">
+      <c r="G73" s="49"/>
+    </row>
+    <row r="74" s="35" customFormat="1" spans="1:7">
+      <c r="A74" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46" t="s">
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" s="49"/>
+    </row>
+    <row r="75" s="35" customFormat="1" spans="1:7">
+      <c r="A75" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+    </row>
+    <row r="76" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A76" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" s="35" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A77" s="49"/>
+      <c r="B77" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="53"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="H75" s="49"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-    </row>
-    <row r="77" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A77" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:8">
+      <c r="G77" s="53"/>
+    </row>
+    <row r="78" s="35" customFormat="1" customHeight="1" spans="1:7">
       <c r="A78" s="49"/>
       <c r="B78" s="53" t="s">
         <v>53</v>
       </c>
       <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
+      <c r="D78" s="46"/>
       <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="H78" s="53"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:8">
-      <c r="A79" s="49"/>
-      <c r="B79" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="53"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A75:C75"/>
     <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -8723,7 +8719,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -8824,46 +8820,46 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="49" t="s">
         <v>66</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8876,16 +8872,16 @@
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
       <c r="I11" s="49" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8900,13 +8896,13 @@
       <c r="G12" s="41"/>
       <c r="H12" s="35"/>
       <c r="I12" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L12" s="49"/>
     </row>
@@ -8941,7 +8937,7 @@
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
       <c r="D14" s="63" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
@@ -8955,7 +8951,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -8972,14 +8968,14 @@
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -8992,14 +8988,14 @@
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -9012,7 +9008,7 @@
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>21</v>
@@ -9030,14 +9026,14 @@
       <c r="A19" s="48"/>
       <c r="B19" s="46"/>
       <c r="C19" s="48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="35"/>
@@ -9050,7 +9046,7 @@
       <c r="A20" s="48"/>
       <c r="B20" s="46"/>
       <c r="C20" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
@@ -9068,7 +9064,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
@@ -9086,7 +9082,7 @@
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
@@ -9104,14 +9100,14 @@
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="35"/>
@@ -9124,7 +9120,7 @@
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>24</v>
@@ -9142,7 +9138,7 @@
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>24</v>
@@ -9160,7 +9156,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>24</v>
@@ -9178,7 +9174,7 @@
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>24</v>
@@ -9196,7 +9192,7 @@
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>21</v>
@@ -9214,7 +9210,7 @@
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>21</v>
@@ -9232,14 +9228,14 @@
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="35"/>
@@ -9252,14 +9248,14 @@
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="35"/>
@@ -9413,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -9447,7 +9443,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -9548,63 +9544,63 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="49" t="s">
         <v>107</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D11" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="49"/>
@@ -9673,7 +9669,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="48"/>
       <c r="B15" s="48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
@@ -9692,12 +9688,12 @@
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -9710,12 +9706,12 @@
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -9727,7 +9723,7 @@
     <row r="18" spans="1:12">
       <c r="A18" s="48"/>
       <c r="B18" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
@@ -9746,12 +9742,12 @@
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="35"/>
@@ -9764,12 +9760,12 @@
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="35"/>
@@ -9891,8 +9887,8 @@
   <sheetPr/>
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9913,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -9949,7 +9945,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="47"/>
       <c r="D3" s="35"/>
@@ -9968,7 +9964,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="35"/>
@@ -10057,14 +10053,14 @@
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E9" s="48" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="35"/>
@@ -10078,14 +10074,14 @@
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F10" s="46"/>
       <c r="G10" s="48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H10" s="49"/>
       <c r="I10" s="35"/>
@@ -10158,12 +10154,12 @@
     <row r="14" spans="1:13">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="57"/>
       <c r="E14" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
@@ -10178,13 +10174,13 @@
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="46"/>
       <c r="F15" s="57"/>
       <c r="G15" s="46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="35"/>
@@ -10197,13 +10193,13 @@
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="46"/>
       <c r="F16" s="57"/>
       <c r="G16" s="46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="35"/>
@@ -10216,13 +10212,13 @@
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="46"/>
       <c r="F17" s="57"/>
       <c r="G17" s="46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="35"/>
@@ -10235,13 +10231,13 @@
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="46"/>
       <c r="F18" s="57"/>
       <c r="G18" s="46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="35"/>
@@ -10254,15 +10250,15 @@
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="35"/>
@@ -10276,12 +10272,12 @@
       <c r="B20" s="46"/>
       <c r="C20" s="57"/>
       <c r="D20" s="46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="57"/>
       <c r="G20" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="35"/>
@@ -10295,12 +10291,12 @@
       <c r="B21" s="46"/>
       <c r="C21" s="57"/>
       <c r="D21" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="57"/>
       <c r="G21" s="46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="35"/>
@@ -10314,12 +10310,12 @@
       <c r="B22" s="46"/>
       <c r="C22" s="57"/>
       <c r="D22" s="46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="57"/>
       <c r="G22" s="46" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="35"/>
@@ -10333,12 +10329,12 @@
       <c r="B23" s="46"/>
       <c r="C23" s="57"/>
       <c r="D23" s="46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="57"/>
       <c r="G23" s="46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="35"/>
@@ -10424,10 +10420,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="60"/>
     </row>
@@ -10436,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
@@ -10472,7 +10468,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="35"/>
@@ -10491,7 +10487,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="35"/>
@@ -10579,16 +10575,16 @@
       </c>
       <c r="I59" s="35"/>
       <c r="J59" s="49" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="K59" s="49" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="L59" s="38" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="M59" s="38" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -10596,14 +10592,14 @@
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E60" s="48" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="46"/>
       <c r="G60" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H60" s="49"/>
       <c r="I60" s="35"/>
@@ -10617,14 +10613,14 @@
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
       <c r="D61" s="48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F61" s="46"/>
       <c r="G61" s="48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H61" s="49"/>
       <c r="I61" s="35"/>
@@ -10718,12 +10714,12 @@
       <c r="B66" s="46"/>
       <c r="C66" s="46"/>
       <c r="D66" s="46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H66" s="46"/>
       <c r="I66" s="35"/>
@@ -10737,12 +10733,12 @@
       <c r="B67" s="46"/>
       <c r="C67" s="46"/>
       <c r="D67" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E67" s="46"/>
       <c r="F67" s="46"/>
       <c r="G67" s="46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H67" s="46"/>
       <c r="I67" s="35"/>
@@ -10756,12 +10752,12 @@
       <c r="B68" s="46"/>
       <c r="C68" s="46"/>
       <c r="D68" s="46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E68" s="46"/>
       <c r="F68" s="46"/>
       <c r="G68" s="46" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H68" s="46"/>
       <c r="I68" s="35"/>
@@ -10775,12 +10771,12 @@
       <c r="B69" s="46"/>
       <c r="C69" s="46"/>
       <c r="D69" s="46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E69" s="46"/>
       <c r="F69" s="46"/>
       <c r="G69" s="46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H69" s="46"/>
       <c r="I69" s="35"/>
@@ -10813,12 +10809,12 @@
       <c r="B71" s="46"/>
       <c r="C71" s="46"/>
       <c r="D71" s="46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E71" s="46"/>
       <c r="F71" s="46"/>
       <c r="G71" s="46" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H71" s="46"/>
       <c r="I71" s="35"/>
@@ -10832,12 +10828,12 @@
       <c r="B72" s="46"/>
       <c r="C72" s="46"/>
       <c r="D72" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E72" s="46"/>
       <c r="F72" s="46"/>
       <c r="G72" s="46" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H72" s="46"/>
       <c r="I72" s="35"/>
@@ -10851,14 +10847,14 @@
       <c r="B73" s="46"/>
       <c r="C73" s="46"/>
       <c r="D73" s="46" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E73" s="46" t="s">
         <v>21</v>
       </c>
       <c r="F73" s="46"/>
       <c r="G73" s="46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H73" s="46"/>
       <c r="I73" s="35"/>
@@ -11016,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -11050,7 +11046,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -11151,40 +11147,40 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="55" t="s">
         <v>66</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
@@ -11199,7 +11195,7 @@
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
       <c r="I11" s="49" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
@@ -11217,16 +11213,16 @@
       <c r="G12" s="41"/>
       <c r="H12" s="35"/>
       <c r="I12" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -11249,16 +11245,16 @@
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="56" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L13" s="56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -11268,27 +11264,27 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
       <c r="H14" s="35"/>
       <c r="I14" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L14" s="49"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="48"/>
       <c r="B15" s="38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -11305,14 +11301,14 @@
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -11325,14 +11321,14 @@
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -11345,7 +11341,7 @@
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>21</v>
@@ -11363,10 +11359,10 @@
       <c r="A19" s="48"/>
       <c r="B19" s="46"/>
       <c r="C19" s="48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
@@ -11381,7 +11377,7 @@
       <c r="A20" s="48"/>
       <c r="B20" s="46"/>
       <c r="C20" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
@@ -11399,7 +11395,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
@@ -11417,7 +11413,7 @@
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
@@ -11435,14 +11431,14 @@
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="35"/>
@@ -11455,7 +11451,7 @@
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>24</v>
@@ -11473,7 +11469,7 @@
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>24</v>
@@ -11491,7 +11487,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>24</v>
@@ -11509,7 +11505,7 @@
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>24</v>
@@ -11527,7 +11523,7 @@
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>21</v>
@@ -11545,7 +11541,7 @@
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>21</v>
@@ -11563,14 +11559,14 @@
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="35"/>
@@ -11583,14 +11579,14 @@
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="35"/>
@@ -11729,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -11742,7 +11738,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11750,7 +11746,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -11796,30 +11792,30 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" s="46"/>
       <c r="I10" s="49"/>
@@ -11830,7 +11826,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -11838,7 +11834,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -11849,7 +11845,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -11857,7 +11853,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -11868,7 +11864,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -11876,7 +11872,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -11887,7 +11883,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -11895,7 +11891,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -11906,7 +11902,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46" t="s">
@@ -11914,7 +11910,7 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G15" s="46"/>
       <c r="I15" s="49"/>
@@ -11933,7 +11929,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -11944,7 +11940,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -11952,7 +11948,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -12010,7 +12006,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
@@ -12025,7 +12021,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -12033,7 +12029,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -12041,7 +12037,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -12049,7 +12045,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -12057,7 +12053,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -12065,7 +12061,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -12073,7 +12069,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -12081,7 +12077,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -12089,7 +12085,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -12097,14 +12093,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -12112,14 +12108,14 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="46" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="48"/>
       <c r="B28" s="46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
@@ -12127,14 +12123,14 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="46" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="48"/>
       <c r="B29" s="46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
@@ -12142,14 +12138,14 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="46" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="48"/>
       <c r="B30" s="48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
@@ -12157,7 +12153,7 @@
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G30" s="49"/>
     </row>
@@ -12172,7 +12168,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G31" s="49"/>
     </row>
@@ -12307,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -12320,7 +12316,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -12328,7 +12324,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -12374,14 +12370,14 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="49" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12393,14 +12389,14 @@
       <c r="F10" s="48"/>
       <c r="G10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="49" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12458,7 +12454,7 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
@@ -12476,7 +12472,7 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G15" s="49"/>
       <c r="I15" s="38"/>
@@ -12484,11 +12480,11 @@
     <row r="16" spans="1:9">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
@@ -12499,14 +12495,14 @@
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G17" s="49"/>
       <c r="I17" s="38"/>
@@ -12515,14 +12511,14 @@
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G18" s="49"/>
       <c r="I18" s="38"/>
@@ -12531,14 +12527,14 @@
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G19" s="49"/>
     </row>
@@ -12546,14 +12542,14 @@
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G20" s="49"/>
     </row>
@@ -12561,14 +12557,14 @@
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G21" s="49"/>
     </row>
@@ -12576,14 +12572,14 @@
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G22" s="49"/>
     </row>
@@ -12591,14 +12587,14 @@
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G23" s="49"/>
     </row>
@@ -12606,14 +12602,14 @@
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G24" s="49"/>
     </row>

--- a/docs/2程序设计/程序接口设计.xlsx
+++ b/docs/2程序设计/程序接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="5"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="demon" sheetId="1" r:id="rId1"/>
@@ -156,67 +156,73 @@
     <t>url</t>
   </si>
   <si>
+    <t>plainText</t>
+  </si>
+  <si>
+    <t>relevance</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>重要度</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>发布日期</t>
+  </si>
+  <si>
+    <t>cnn_score</t>
+  </si>
+  <si>
+    <t>负面新闻标识</t>
+  </si>
+  <si>
+    <t>newsSource</t>
+  </si>
+  <si>
+    <t>新闻来源</t>
+  </si>
+  <si>
+    <t>件数</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>1：成功，2：失败</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>注意：</t>
+  </si>
+  <si>
+    <t>以下为后台参考用，前台使用上面的</t>
+  </si>
+  <si>
+    <t>/creditWarning/lastingBondViolation/{page}</t>
+  </si>
+  <si>
+    <t>查询新闻资料</t>
+  </si>
+  <si>
+    <t>查询新闻量，负面新闻量，日期</t>
+  </si>
+  <si>
+    <t>NewsWarningController.getChartGroup</t>
+  </si>
+  <si>
+    <t>NewsWarningServices.findchartGroup</t>
+  </si>
+  <si>
+    <t>当前页数</t>
+  </si>
+  <si>
     <t>newsCode</t>
-  </si>
-  <si>
-    <t>importance</t>
-  </si>
-  <si>
-    <t>重要度</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>cnn_score</t>
-  </si>
-  <si>
-    <t>selectDate</t>
-  </si>
-  <si>
-    <t>初始查询月份</t>
-  </si>
-  <si>
-    <t>mediaNm</t>
-  </si>
-  <si>
-    <t>新闻来源</t>
-  </si>
-  <si>
-    <t>件数</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>1：成功，2：失败</t>
-  </si>
-  <si>
-    <t>msg</t>
-  </si>
-  <si>
-    <t>注意：</t>
-  </si>
-  <si>
-    <t>以下为后台参考用，前台使用上面的</t>
-  </si>
-  <si>
-    <t>/creditWarning/lastingBondViolation/{page}</t>
-  </si>
-  <si>
-    <t>查询新闻资料</t>
-  </si>
-  <si>
-    <t>查询新闻量，负面新闻量，日期</t>
-  </si>
-  <si>
-    <t>NewsWarningController.getChartGroup</t>
-  </si>
-  <si>
-    <t>NewsWarningServices.findchartGroup</t>
-  </si>
-  <si>
-    <t>当前页数</t>
   </si>
   <si>
     <t>/creditWarning/warningTop5/{userId}</t>
@@ -588,9 +594,6 @@
     <t>新闻评价(1:正/2:负/3:中性）</t>
   </si>
   <si>
-    <t>relevance</t>
-  </si>
-  <si>
     <t>相关性</t>
   </si>
   <si>
@@ -619,9 +622,6 @@
   </si>
   <si>
     <t>发布时间</t>
-  </si>
-  <si>
-    <t>newsSource</t>
   </si>
   <si>
     <t>来源</t>
@@ -1303,8 +1303,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1372,45 +1372,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1425,51 +1386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1478,9 +1394,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1501,10 +1454,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1520,7 +1520,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1553,7 +1553,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,19 +1643,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,13 +1679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,55 +1697,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1667,79 +1727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,6 +1799,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1822,26 +1851,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1870,35 +1882,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1910,10 +1904,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1922,16 +1916,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1941,115 +1935,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2264,7 +2258,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3185,7 +3179,7 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
@@ -3526,7 +3520,7 @@
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48" t="s">
@@ -3744,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3762,7 +3756,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -3845,30 +3839,30 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="35"/>
@@ -3881,14 +3875,14 @@
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
@@ -3977,12 +3971,12 @@
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="35"/>
@@ -3995,12 +3989,12 @@
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G17" s="46"/>
       <c r="H17" s="35"/>
@@ -4049,12 +4043,12 @@
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="35"/>
@@ -4067,12 +4061,12 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="35"/>
@@ -4306,11 +4300,11 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G10" s="49"/>
       <c r="I10" s="49"/>
@@ -4709,7 +4703,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4717,7 +4711,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -4763,30 +4757,30 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G10" s="46"/>
       <c r="I10" s="49"/>
@@ -4797,7 +4791,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -4805,7 +4799,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -4816,7 +4810,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -4824,7 +4818,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -4835,7 +4829,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -4843,7 +4837,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -4854,7 +4848,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -4862,7 +4856,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -4873,7 +4867,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46" t="s">
@@ -4881,7 +4875,7 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G15" s="46"/>
       <c r="I15" s="49"/>
@@ -4900,7 +4894,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -4911,7 +4905,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -4919,7 +4913,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -4992,7 +4986,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -5000,7 +4994,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -5008,7 +5002,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -5016,7 +5010,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -5024,7 +5018,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -5032,7 +5026,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -5040,7 +5034,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -5048,7 +5042,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -5056,7 +5050,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -5064,14 +5058,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -5101,7 +5095,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="48"/>
       <c r="B29" s="46" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
@@ -5116,7 +5110,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="48"/>
       <c r="B30" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
@@ -5124,7 +5118,7 @@
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G30" s="49"/>
     </row>
@@ -5350,7 +5344,7 @@
     <row r="9" ht="14.25" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="25" t="s">
@@ -6084,7 +6078,7 @@
       <c r="A64" s="32"/>
       <c r="B64" s="34"/>
       <c r="C64" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>21</v>
@@ -6210,14 +6204,14 @@
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G73" s="17"/>
     </row>
     <row r="74" customHeight="1" spans="1:7">
       <c r="A74" s="14"/>
       <c r="B74" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="13"/>
@@ -6348,7 +6342,7 @@
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -6569,7 +6563,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>21</v>
@@ -6712,7 +6706,7 @@
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -6790,7 +6784,7 @@
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -6829,7 +6823,7 @@
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>21</v>
@@ -6855,7 +6849,7 @@
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>21</v>
@@ -6907,7 +6901,7 @@
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>21</v>
@@ -6955,14 +6949,14 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G54" s="17"/>
     </row>
     <row r="55" customHeight="1" spans="1:7">
       <c r="A55" s="14"/>
       <c r="B55" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="13"/>
@@ -7093,7 +7087,7 @@
     <row r="9" spans="1:12">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -7270,14 +7264,14 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20" s="17"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="14"/>
       <c r="B21" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="13"/>
@@ -7416,7 +7410,7 @@
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="14"/>
       <c r="I9" s="20"/>
@@ -7446,7 +7440,7 @@
     <row r="11" ht="24" spans="1:12">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
@@ -7547,7 +7541,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="12" t="s">
@@ -7605,7 +7599,7 @@
     <row r="21" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="12" t="s">
@@ -7618,7 +7612,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="12" t="s">
@@ -7631,7 +7625,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="12" t="s">
@@ -7644,7 +7638,7 @@
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="12" t="s">
@@ -7659,7 +7653,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="12" t="s">
@@ -7672,7 +7666,7 @@
     <row r="26" spans="1:7">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="12" t="s">
@@ -7685,7 +7679,7 @@
     <row r="27" spans="1:7">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="12" t="s">
@@ -7698,7 +7692,7 @@
     <row r="28" spans="1:7">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="12" t="s">
@@ -7711,7 +7705,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="12" t="s">
@@ -7724,7 +7718,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="12" t="s">
@@ -7787,14 +7781,14 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G34" s="17"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="14"/>
       <c r="B35" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="13"/>
@@ -7835,10 +7829,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I58" sqref="I58:L62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -7924,7 +7918,6 @@
       <c r="E6" s="58"/>
       <c r="F6" s="58"/>
       <c r="G6" s="58"/>
-      <c r="H6" s="35"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -7948,7 +7941,6 @@
       <c r="G7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="35"/>
       <c r="I7" s="62"/>
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
@@ -7966,7 +7958,6 @@
         <v>31</v>
       </c>
       <c r="G8" s="49"/>
-      <c r="H8" s="35"/>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
@@ -7982,7 +7973,6 @@
       <c r="E9" s="58"/>
       <c r="F9" s="58"/>
       <c r="G9" s="58"/>
-      <c r="H9" s="35"/>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
@@ -8093,7 +8083,7 @@
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="46" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>21</v>
@@ -8106,7 +8096,7 @@
       <c r="A18" s="65"/>
       <c r="B18" s="65"/>
       <c r="C18" s="46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>21</v>
@@ -8119,14 +8109,14 @@
       <c r="A19" s="65"/>
       <c r="B19" s="65"/>
       <c r="C19" s="46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" s="49"/>
     </row>
@@ -8134,236 +8124,237 @@
       <c r="A20" s="65"/>
       <c r="B20" s="65"/>
       <c r="C20" s="46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="F20" s="46" t="s">
+        <v>46</v>
+      </c>
       <c r="G20" s="49"/>
     </row>
     <row r="21" s="35" customFormat="1" spans="1:7">
       <c r="A21" s="65"/>
       <c r="B21" s="65"/>
       <c r="C21" s="46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="F21" s="46" t="s">
+        <v>48</v>
+      </c>
       <c r="G21" s="49"/>
     </row>
     <row r="22" s="35" customFormat="1" spans="1:7">
       <c r="A22" s="65"/>
       <c r="B22" s="65"/>
       <c r="C22" s="46" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G22" s="49"/>
     </row>
     <row r="23" s="35" customFormat="1" spans="1:7">
-      <c r="A23" s="65"/>
+      <c r="A23" s="46" t="s">
+        <v>22</v>
+      </c>
       <c r="B23" s="65"/>
-      <c r="C23" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>21</v>
-      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="46"/>
       <c r="F23" s="46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G23" s="49"/>
     </row>
     <row r="24" s="35" customFormat="1" spans="1:7">
-      <c r="A24" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="49"/>
-    </row>
-    <row r="25" s="35" customFormat="1" spans="1:7">
-      <c r="A25" s="58" t="s">
+      <c r="A24" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A26" s="44" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A25" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E25" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F25" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G25" s="44" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="26" s="35" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A26" s="49"/>
+      <c r="B26" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" s="35" customFormat="1" customHeight="1" spans="1:7">
       <c r="A27" s="49"/>
       <c r="B27" s="46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
-      <c r="F27" s="46" t="s">
-        <v>52</v>
-      </c>
+      <c r="F27" s="46"/>
       <c r="G27" s="46"/>
     </row>
-    <row r="28" s="35" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A28" s="49"/>
-      <c r="B28" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-    </row>
-    <row r="51" s="35" customFormat="1" spans="1:3">
-      <c r="A51" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="60" t="s">
+    <row r="50" s="35" customFormat="1" spans="1:3">
+      <c r="A50" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="60"/>
-    </row>
-    <row r="53" s="35" customFormat="1" spans="1:2">
-      <c r="A53" s="36" t="s">
+      <c r="B50" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="60"/>
+    </row>
+    <row r="52" s="35" customFormat="1" spans="1:2">
+      <c r="A52" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B52" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" s="35" customFormat="1" ht="12.75" spans="1:1">
+    <row r="53" s="35" customFormat="1" ht="12.75" spans="1:1">
+      <c r="A53" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" s="35" customFormat="1" ht="13.5" spans="1:2">
       <c r="A54" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" s="35" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A55" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" s="35" customFormat="1" spans="1:2">
-      <c r="A56" s="35" t="s">
+      <c r="B54" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" s="35" customFormat="1" spans="1:2">
+      <c r="A55" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B55" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" s="35" customFormat="1" spans="1:14">
-      <c r="A58" s="39" t="s">
+    <row r="57" s="35" customFormat="1" spans="1:14">
+      <c r="A57" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="50" t="s">
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
+      <c r="I57" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="50" t="s">
+      <c r="J57" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K58" s="50" t="s">
+      <c r="K57" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="54" t="s">
+      <c r="L57" s="54" t="s">
         <v>11</v>
+      </c>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+    </row>
+    <row r="58" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:14">
+      <c r="A58" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L58" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="M58" s="69"/>
       <c r="N58" s="69"/>
     </row>
-    <row r="59" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:14">
-      <c r="A59" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="35"/>
-      <c r="I59" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="J59" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="K59" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="L59" s="38" t="s">
-        <v>60</v>
-      </c>
+    <row r="59" s="35" customFormat="1" spans="1:14">
+      <c r="A59" s="48"/>
+      <c r="B59" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="48"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
       <c r="M59" s="69"/>
       <c r="N59" s="69"/>
     </row>
     <row r="60" s="35" customFormat="1" spans="1:14">
       <c r="A60" s="48"/>
-      <c r="B60" s="48" t="s">
-        <v>30</v>
-      </c>
+      <c r="B60" s="48"/>
       <c r="C60" s="48"/>
       <c r="D60" s="46"/>
       <c r="E60" s="46"/>
-      <c r="F60" s="48" t="s">
-        <v>61</v>
-      </c>
+      <c r="F60" s="48"/>
       <c r="G60" s="49"/>
-      <c r="H60" s="35"/>
       <c r="I60" s="49"/>
       <c r="J60" s="49"/>
       <c r="K60" s="49"/>
@@ -8372,14 +8363,15 @@
       <c r="N60" s="69"/>
     </row>
     <row r="61" s="35" customFormat="1" spans="1:14">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="35"/>
+      <c r="A61" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="41"/>
       <c r="I61" s="49"/>
       <c r="J61" s="49"/>
       <c r="K61" s="49"/>
@@ -8387,58 +8379,55 @@
       <c r="M61" s="69"/>
       <c r="N61" s="69"/>
     </row>
-    <row r="62" s="35" customFormat="1" spans="1:14">
-      <c r="A62" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="69"/>
-    </row>
-    <row r="63" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A63" s="42" t="s">
+    <row r="62" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A62" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="44" t="s">
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="44" t="s">
+      <c r="E62" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="45" t="s">
+      <c r="F62" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="44" t="s">
+      <c r="G62" s="44" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="63" s="35" customFormat="1" spans="1:7">
+      <c r="A63" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="49"/>
+    </row>
     <row r="64" s="35" customFormat="1" spans="1:7">
-      <c r="A64" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="48"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
+      <c r="D64" s="48" t="s">
+        <v>21</v>
+      </c>
       <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
+      <c r="F64" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="G64" s="49"/>
     </row>
     <row r="65" s="35" customFormat="1" spans="1:7">
       <c r="A65" s="48"/>
       <c r="B65" s="48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C65" s="48"/>
       <c r="D65" s="48" t="s">
@@ -8446,29 +8435,27 @@
       </c>
       <c r="E65" s="48"/>
       <c r="F65" s="48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G65" s="49"/>
     </row>
     <row r="66" s="35" customFormat="1" spans="1:7">
       <c r="A66" s="48"/>
       <c r="B66" s="48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C66" s="48"/>
       <c r="D66" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E66" s="48"/>
-      <c r="F66" s="48" t="s">
-        <v>38</v>
-      </c>
+      <c r="F66" s="48"/>
       <c r="G66" s="49"/>
     </row>
-    <row r="67" s="35" customFormat="1" spans="1:7">
+    <row r="67" s="35" customFormat="1" customHeight="1" spans="1:7">
       <c r="A67" s="48"/>
       <c r="B67" s="48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C67" s="48"/>
       <c r="D67" s="48" t="s">
@@ -8478,10 +8465,10 @@
       <c r="F67" s="48"/>
       <c r="G67" s="49"/>
     </row>
-    <row r="68" s="35" customFormat="1" customHeight="1" spans="1:7">
+    <row r="68" s="35" customFormat="1" spans="1:7">
       <c r="A68" s="48"/>
-      <c r="B68" s="48" t="s">
-        <v>40</v>
+      <c r="B68" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="C68" s="48"/>
       <c r="D68" s="48" t="s">
@@ -8494,7 +8481,7 @@
     <row r="69" s="35" customFormat="1" spans="1:7">
       <c r="A69" s="48"/>
       <c r="B69" s="46" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C69" s="48"/>
       <c r="D69" s="48" t="s">
@@ -8507,35 +8494,35 @@
     <row r="70" s="35" customFormat="1" spans="1:7">
       <c r="A70" s="48"/>
       <c r="B70" s="46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C70" s="48"/>
       <c r="D70" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
+      <c r="F70" s="48" t="s">
+        <v>44</v>
+      </c>
       <c r="G70" s="49"/>
     </row>
     <row r="71" s="35" customFormat="1" spans="1:7">
       <c r="A71" s="48"/>
       <c r="B71" s="46" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C71" s="48"/>
       <c r="D71" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E71" s="48"/>
-      <c r="F71" s="48" t="s">
-        <v>43</v>
-      </c>
+      <c r="F71" s="48"/>
       <c r="G71" s="49"/>
     </row>
     <row r="72" s="35" customFormat="1" spans="1:7">
       <c r="A72" s="48"/>
       <c r="B72" s="46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C72" s="48"/>
       <c r="D72" s="48" t="s">
@@ -8546,84 +8533,71 @@
       <c r="G72" s="49"/>
     </row>
     <row r="73" s="35" customFormat="1" spans="1:7">
-      <c r="A73" s="48"/>
-      <c r="B73" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
+      <c r="A73" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46" t="s">
+        <v>51</v>
+      </c>
       <c r="G73" s="49"/>
     </row>
     <row r="74" s="35" customFormat="1" spans="1:7">
-      <c r="A74" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G74" s="49"/>
-    </row>
-    <row r="75" s="35" customFormat="1" spans="1:7">
-      <c r="A75" s="39" t="s">
+      <c r="A74" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-    </row>
-    <row r="76" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A76" s="42" t="s">
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+    </row>
+    <row r="75" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A75" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="44" t="s">
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="44" t="s">
+      <c r="E75" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="45" t="s">
+      <c r="F75" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="44" t="s">
+      <c r="G75" s="44" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="76" s="35" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A76" s="49"/>
+      <c r="B76" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="53"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="53"/>
     </row>
     <row r="77" s="35" customFormat="1" customHeight="1" spans="1:7">
       <c r="A77" s="49"/>
       <c r="B77" s="53" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C77" s="53"/>
       <c r="D77" s="46"/>
       <c r="E77" s="46"/>
-      <c r="F77" s="48" t="s">
-        <v>52</v>
-      </c>
+      <c r="F77" s="48"/>
       <c r="G77" s="53"/>
-    </row>
-    <row r="78" s="35" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A78" s="49"/>
-      <c r="B78" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="53"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8631,14 +8605,14 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A74:C74"/>
     <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -8719,7 +8693,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -8820,46 +8794,46 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8872,16 +8846,16 @@
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
       <c r="I11" s="49" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8896,13 +8870,13 @@
       <c r="G12" s="41"/>
       <c r="H12" s="35"/>
       <c r="I12" s="49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L12" s="49"/>
     </row>
@@ -8937,7 +8911,7 @@
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
       <c r="D14" s="63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
@@ -8951,7 +8925,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -8975,7 +8949,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -8995,7 +8969,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -9008,7 +8982,7 @@
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>21</v>
@@ -9029,11 +9003,11 @@
         <v>33</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="35"/>
@@ -9046,7 +9020,7 @@
       <c r="A20" s="48"/>
       <c r="B20" s="46"/>
       <c r="C20" s="48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
@@ -9064,7 +9038,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
@@ -9082,7 +9056,7 @@
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
@@ -9100,14 +9074,14 @@
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="35"/>
@@ -9120,7 +9094,7 @@
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>24</v>
@@ -9138,7 +9112,7 @@
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>24</v>
@@ -9156,7 +9130,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>24</v>
@@ -9174,7 +9148,7 @@
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>24</v>
@@ -9192,7 +9166,7 @@
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>21</v>
@@ -9210,7 +9184,7 @@
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>21</v>
@@ -9228,14 +9202,14 @@
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="35"/>
@@ -9248,14 +9222,14 @@
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="46" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="35"/>
@@ -9409,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -9443,7 +9417,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -9544,63 +9518,63 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="49" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D11" s="48" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="49"/>
@@ -9669,7 +9643,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="48"/>
       <c r="B15" s="48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
@@ -9688,12 +9662,12 @@
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -9706,12 +9680,12 @@
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -9723,7 +9697,7 @@
     <row r="18" spans="1:12">
       <c r="A18" s="48"/>
       <c r="B18" s="48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
@@ -9742,12 +9716,12 @@
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="35"/>
@@ -9760,12 +9734,12 @@
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="35"/>
@@ -9887,7 +9861,7 @@
   <sheetPr/>
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -9909,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -9945,7 +9919,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="47"/>
       <c r="D3" s="35"/>
@@ -9964,7 +9938,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="35"/>
@@ -10053,14 +10027,14 @@
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E9" s="48" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" s="46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="35"/>
@@ -10074,14 +10048,14 @@
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F10" s="46"/>
       <c r="G10" s="48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H10" s="49"/>
       <c r="I10" s="35"/>
@@ -10154,7 +10128,7 @@
     <row r="14" spans="1:13">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="57"/>
@@ -10174,13 +10148,13 @@
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="46"/>
       <c r="F15" s="57"/>
       <c r="G15" s="46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="35"/>
@@ -10193,13 +10167,13 @@
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="46"/>
       <c r="F16" s="57"/>
       <c r="G16" s="46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="35"/>
@@ -10212,13 +10186,13 @@
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="46"/>
       <c r="F17" s="57"/>
       <c r="G17" s="46" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="35"/>
@@ -10231,13 +10205,13 @@
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="46"/>
       <c r="F18" s="57"/>
       <c r="G18" s="46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="35"/>
@@ -10250,7 +10224,7 @@
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="46" t="s">
@@ -10258,7 +10232,7 @@
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="35"/>
@@ -10272,12 +10246,12 @@
       <c r="B20" s="46"/>
       <c r="C20" s="57"/>
       <c r="D20" s="46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="57"/>
       <c r="G20" s="46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="35"/>
@@ -10291,12 +10265,12 @@
       <c r="B21" s="46"/>
       <c r="C21" s="57"/>
       <c r="D21" s="46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="57"/>
       <c r="G21" s="46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="35"/>
@@ -10310,12 +10284,12 @@
       <c r="B22" s="46"/>
       <c r="C22" s="57"/>
       <c r="D22" s="46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="57"/>
       <c r="G22" s="46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="35"/>
@@ -10329,12 +10303,12 @@
       <c r="B23" s="46"/>
       <c r="C23" s="57"/>
       <c r="D23" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="57"/>
       <c r="G23" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="35"/>
@@ -10420,10 +10394,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" s="60"/>
     </row>
@@ -10432,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
@@ -10468,7 +10442,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="35"/>
@@ -10487,7 +10461,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="35"/>
@@ -10575,16 +10549,16 @@
       </c>
       <c r="I59" s="35"/>
       <c r="J59" s="49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K59" s="49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L59" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M59" s="38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -10592,14 +10566,14 @@
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E60" s="48" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="46"/>
       <c r="G60" s="46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H60" s="49"/>
       <c r="I60" s="35"/>
@@ -10613,14 +10587,14 @@
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
       <c r="D61" s="48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F61" s="46"/>
       <c r="G61" s="48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H61" s="49"/>
       <c r="I61" s="35"/>
@@ -10714,12 +10688,12 @@
       <c r="B66" s="46"/>
       <c r="C66" s="46"/>
       <c r="D66" s="46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H66" s="46"/>
       <c r="I66" s="35"/>
@@ -10733,12 +10707,12 @@
       <c r="B67" s="46"/>
       <c r="C67" s="46"/>
       <c r="D67" s="46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E67" s="46"/>
       <c r="F67" s="46"/>
       <c r="G67" s="46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H67" s="46"/>
       <c r="I67" s="35"/>
@@ -10752,12 +10726,12 @@
       <c r="B68" s="46"/>
       <c r="C68" s="46"/>
       <c r="D68" s="46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E68" s="46"/>
       <c r="F68" s="46"/>
       <c r="G68" s="46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H68" s="46"/>
       <c r="I68" s="35"/>
@@ -10771,12 +10745,12 @@
       <c r="B69" s="46"/>
       <c r="C69" s="46"/>
       <c r="D69" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E69" s="46"/>
       <c r="F69" s="46"/>
       <c r="G69" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H69" s="46"/>
       <c r="I69" s="35"/>
@@ -10809,12 +10783,12 @@
       <c r="B71" s="46"/>
       <c r="C71" s="46"/>
       <c r="D71" s="46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E71" s="46"/>
       <c r="F71" s="46"/>
       <c r="G71" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H71" s="46"/>
       <c r="I71" s="35"/>
@@ -10828,12 +10802,12 @@
       <c r="B72" s="46"/>
       <c r="C72" s="46"/>
       <c r="D72" s="46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E72" s="46"/>
       <c r="F72" s="46"/>
       <c r="G72" s="46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H72" s="46"/>
       <c r="I72" s="35"/>
@@ -10847,14 +10821,14 @@
       <c r="B73" s="46"/>
       <c r="C73" s="46"/>
       <c r="D73" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E73" s="46" t="s">
         <v>21</v>
       </c>
       <c r="F73" s="46"/>
       <c r="G73" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H73" s="46"/>
       <c r="I73" s="35"/>
@@ -11012,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -11046,7 +11020,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -11147,40 +11121,40 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="49" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
@@ -11195,7 +11169,7 @@
       <c r="G11" s="49"/>
       <c r="H11" s="35"/>
       <c r="I11" s="49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
@@ -11213,16 +11187,16 @@
       <c r="G12" s="41"/>
       <c r="H12" s="35"/>
       <c r="I12" s="49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -11245,16 +11219,16 @@
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="56" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L13" s="56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -11264,27 +11238,27 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
       <c r="H14" s="35"/>
       <c r="I14" s="49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" s="49"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="48"/>
       <c r="B15" s="38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -11308,7 +11282,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="35"/>
@@ -11328,7 +11302,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="35"/>
@@ -11341,7 +11315,7 @@
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>21</v>
@@ -11362,7 +11336,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
@@ -11377,7 +11351,7 @@
       <c r="A20" s="48"/>
       <c r="B20" s="46"/>
       <c r="C20" s="48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
@@ -11395,7 +11369,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>21</v>
@@ -11413,7 +11387,7 @@
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
@@ -11431,14 +11405,14 @@
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="35"/>
@@ -11451,7 +11425,7 @@
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>24</v>
@@ -11469,7 +11443,7 @@
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>24</v>
@@ -11487,7 +11461,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>24</v>
@@ -11505,7 +11479,7 @@
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>24</v>
@@ -11523,7 +11497,7 @@
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>21</v>
@@ -11541,7 +11515,7 @@
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>21</v>
@@ -11559,14 +11533,14 @@
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="35"/>
@@ -11579,14 +11553,14 @@
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="46" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="35"/>
@@ -11725,7 +11699,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -11738,7 +11712,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11746,7 +11720,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -11792,30 +11766,30 @@
         <v>14</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
       <c r="B10" s="46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G10" s="46"/>
       <c r="I10" s="49"/>
@@ -11826,7 +11800,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46" t="s">
@@ -11834,7 +11808,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="49"/>
@@ -11845,7 +11819,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46" t="s">
@@ -11853,7 +11827,7 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G12" s="46"/>
       <c r="I12" s="49"/>
@@ -11864,7 +11838,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="46"/>
       <c r="B13" s="46" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46" t="s">
@@ -11872,7 +11846,7 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G13" s="46"/>
       <c r="I13" s="49"/>
@@ -11883,7 +11857,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="46"/>
       <c r="B14" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
@@ -11891,7 +11865,7 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G14" s="46"/>
       <c r="I14" s="49"/>
@@ -11902,7 +11876,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46" t="s">
@@ -11910,7 +11884,7 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G15" s="46"/>
       <c r="I15" s="49"/>
@@ -11929,7 +11903,7 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G16" s="46"/>
       <c r="I16" s="49"/>
@@ -11940,7 +11914,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
@@ -11948,7 +11922,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G17" s="46"/>
       <c r="I17" s="49"/>
@@ -12021,7 +11995,7 @@
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -12029,7 +12003,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G22" s="49"/>
       <c r="I22" s="38"/>
@@ -12037,7 +12011,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
@@ -12045,7 +12019,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G23" s="49"/>
       <c r="I23" s="38"/>
@@ -12053,7 +12027,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
@@ -12061,7 +12035,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G24" s="49"/>
       <c r="I24" s="38"/>
@@ -12069,7 +12043,7 @@
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
@@ -12077,7 +12051,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25" s="49"/>
       <c r="I25" s="38"/>
@@ -12085,7 +12059,7 @@
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="48"/>
       <c r="B26" s="46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
@@ -12093,14 +12067,14 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -12130,7 +12104,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="48"/>
       <c r="B29" s="46" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
@@ -12145,7 +12119,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="48"/>
       <c r="B30" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
@@ -12153,7 +12127,7 @@
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G30" s="49"/>
     </row>
@@ -12324,7 +12298,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="9:9">
@@ -12495,7 +12469,7 @@
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>21</v>
@@ -12542,7 +12516,7 @@
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>21</v>
@@ -12572,7 +12546,7 @@
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>21</v>
